--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -100,229 +100,229 @@
     <t>0022001076</t>
   </si>
   <si>
-    <t>0022001054</t>
-  </si>
-  <si>
-    <t>0022001052</t>
-  </si>
-  <si>
-    <t>0022000448</t>
-  </si>
-  <si>
-    <t>0022001015</t>
-  </si>
-  <si>
-    <t>0022001008</t>
-  </si>
-  <si>
-    <t>0022000995</t>
-  </si>
-  <si>
-    <t>0022000982</t>
-  </si>
-  <si>
-    <t>0022000966</t>
-  </si>
-  <si>
-    <t>0022000948</t>
-  </si>
-  <si>
-    <t>0022000940</t>
-  </si>
-  <si>
-    <t>0022000925</t>
-  </si>
-  <si>
-    <t>0022000910</t>
-  </si>
-  <si>
-    <t>0022000903</t>
+    <t>0022001053</t>
+  </si>
+  <si>
+    <t>0022001045</t>
+  </si>
+  <si>
+    <t>0022001031</t>
+  </si>
+  <si>
+    <t>0022001018</t>
+  </si>
+  <si>
+    <t>0022001010</t>
+  </si>
+  <si>
+    <t>0022000991</t>
+  </si>
+  <si>
+    <t>0022000978</t>
+  </si>
+  <si>
+    <t>0022000968</t>
+  </si>
+  <si>
+    <t>0022000952</t>
+  </si>
+  <si>
+    <t>0022000939</t>
+  </si>
+  <si>
+    <t>0022000929</t>
+  </si>
+  <si>
+    <t>0022000240</t>
+  </si>
+  <si>
+    <t>0022000225</t>
   </si>
   <si>
     <t>0022000890</t>
   </si>
   <si>
-    <t>0022000874</t>
-  </si>
-  <si>
-    <t>0022000851</t>
-  </si>
-  <si>
-    <t>0022000838</t>
-  </si>
-  <si>
-    <t>0022000821</t>
-  </si>
-  <si>
-    <t>0022000806</t>
-  </si>
-  <si>
-    <t>0022000797</t>
-  </si>
-  <si>
-    <t>0022000782</t>
-  </si>
-  <si>
-    <t>0022000321</t>
-  </si>
-  <si>
-    <t>0022000761</t>
-  </si>
-  <si>
-    <t>0022000736</t>
-  </si>
-  <si>
-    <t>0022000719</t>
-  </si>
-  <si>
-    <t>0022000705</t>
-  </si>
-  <si>
-    <t>0022000689</t>
-  </si>
-  <si>
-    <t>0022000668</t>
-  </si>
-  <si>
-    <t>0022000661</t>
-  </si>
-  <si>
-    <t>0022000646</t>
-  </si>
-  <si>
-    <t>0022000637</t>
-  </si>
-  <si>
-    <t>0022000624</t>
-  </si>
-  <si>
-    <t>0022000606</t>
-  </si>
-  <si>
-    <t>0022000592</t>
-  </si>
-  <si>
-    <t>0022000580</t>
-  </si>
-  <si>
-    <t>0022000553</t>
-  </si>
-  <si>
-    <t>0022000540</t>
-  </si>
-  <si>
-    <t>0022000531</t>
-  </si>
-  <si>
-    <t>0022000518</t>
-  </si>
-  <si>
-    <t>0022000502</t>
+    <t>0022000879</t>
+  </si>
+  <si>
+    <t>0022000362</t>
+  </si>
+  <si>
+    <t>0022000853</t>
+  </si>
+  <si>
+    <t>0022000828</t>
+  </si>
+  <si>
+    <t>0022000814</t>
+  </si>
+  <si>
+    <t>0022000804</t>
+  </si>
+  <si>
+    <t>0022000787</t>
+  </si>
+  <si>
+    <t>0022000775</t>
+  </si>
+  <si>
+    <t>0022000753</t>
+  </si>
+  <si>
+    <t>0022000745</t>
+  </si>
+  <si>
+    <t>0022000721</t>
+  </si>
+  <si>
+    <t>0022000704</t>
+  </si>
+  <si>
+    <t>0022000687</t>
+  </si>
+  <si>
+    <t>0022000678</t>
+  </si>
+  <si>
+    <t>0022000666</t>
+  </si>
+  <si>
+    <t>0022000652</t>
+  </si>
+  <si>
+    <t>0022000639</t>
+  </si>
+  <si>
+    <t>0022000629</t>
+  </si>
+  <si>
+    <t>0022000614</t>
+  </si>
+  <si>
+    <t>0022000599</t>
+  </si>
+  <si>
+    <t>0022000591</t>
+  </si>
+  <si>
+    <t>0022000577</t>
+  </si>
+  <si>
+    <t>0022000558</t>
+  </si>
+  <si>
+    <t>0022000550</t>
+  </si>
+  <si>
+    <t>0022000535</t>
+  </si>
+  <si>
+    <t>0022000512</t>
   </si>
   <si>
     <t>0022000487</t>
   </si>
   <si>
-    <t>0022000470</t>
-  </si>
-  <si>
-    <t>0022000563</t>
-  </si>
-  <si>
-    <t>0022000437</t>
-  </si>
-  <si>
-    <t>0022000427</t>
-  </si>
-  <si>
-    <t>0022000416</t>
-  </si>
-  <si>
-    <t>0022000401</t>
-  </si>
-  <si>
-    <t>0022000388</t>
-  </si>
-  <si>
-    <t>0022000373</t>
-  </si>
-  <si>
-    <t>0022000352</t>
-  </si>
-  <si>
-    <t>0022000341</t>
-  </si>
-  <si>
-    <t>0022000306</t>
-  </si>
-  <si>
-    <t>0022000296</t>
-  </si>
-  <si>
-    <t>0022000275</t>
-  </si>
-  <si>
-    <t>0022000265</t>
-  </si>
-  <si>
-    <t>0022000248</t>
-  </si>
-  <si>
-    <t>0022000238</t>
-  </si>
-  <si>
-    <t>0022000213</t>
-  </si>
-  <si>
-    <t>0022000200</t>
-  </si>
-  <si>
-    <t>0022000177</t>
-  </si>
-  <si>
-    <t>0022000158</t>
-  </si>
-  <si>
-    <t>0022000144</t>
-  </si>
-  <si>
-    <t>0022000133</t>
-  </si>
-  <si>
-    <t>0022000120</t>
-  </si>
-  <si>
-    <t>0022000104</t>
-  </si>
-  <si>
-    <t>0022000088</t>
-  </si>
-  <si>
-    <t>0022000076</t>
-  </si>
-  <si>
-    <t>0022000055</t>
-  </si>
-  <si>
-    <t>0022000044</t>
-  </si>
-  <si>
-    <t>0022000009</t>
-  </si>
-  <si>
-    <t>0022000019</t>
+    <t>0022000477</t>
+  </si>
+  <si>
+    <t>0022000464</t>
+  </si>
+  <si>
+    <t>0022000441</t>
+  </si>
+  <si>
+    <t>0022000432</t>
+  </si>
+  <si>
+    <t>0022000411</t>
+  </si>
+  <si>
+    <t>0022000404</t>
+  </si>
+  <si>
+    <t>0022000394</t>
+  </si>
+  <si>
+    <t>0022000380</t>
+  </si>
+  <si>
+    <t>0022000351</t>
+  </si>
+  <si>
+    <t>0022000337</t>
+  </si>
+  <si>
+    <t>0022000559</t>
+  </si>
+  <si>
+    <t>0022000316</t>
+  </si>
+  <si>
+    <t>0022000298</t>
+  </si>
+  <si>
+    <t>0022000287</t>
+  </si>
+  <si>
+    <t>0022000267</t>
+  </si>
+  <si>
+    <t>0022000256</t>
+  </si>
+  <si>
+    <t>0022000207</t>
+  </si>
+  <si>
+    <t>0022000195</t>
+  </si>
+  <si>
+    <t>0022000178</t>
+  </si>
+  <si>
+    <t>0022000173</t>
+  </si>
+  <si>
+    <t>0022000155</t>
+  </si>
+  <si>
+    <t>0022000140</t>
+  </si>
+  <si>
+    <t>0022000122</t>
+  </si>
+  <si>
+    <t>0022000106</t>
+  </si>
+  <si>
+    <t>0022000092</t>
+  </si>
+  <si>
+    <t>0022000078</t>
+  </si>
+  <si>
+    <t>0022000061</t>
+  </si>
+  <si>
+    <t>0022000045</t>
+  </si>
+  <si>
+    <t>0022000029</t>
+  </si>
+  <si>
+    <t>0022000020</t>
   </si>
   <si>
     <t>MAY 16, 2021</t>
   </si>
   <si>
-    <t>MAY 14, 2021</t>
-  </si>
-  <si>
     <t>MAY 13, 2021</t>
   </si>
   <si>
-    <t>MAY 11, 2021</t>
+    <t>MAY 12, 2021</t>
+  </si>
+  <si>
+    <t>MAY 10, 2021</t>
   </si>
   <si>
     <t>MAY 08, 2021</t>
@@ -337,19 +337,19 @@
     <t>MAY 03, 2021</t>
   </si>
   <si>
-    <t>MAY 01, 2021</t>
-  </si>
-  <si>
-    <t>APR 29, 2021</t>
+    <t>MAY 02, 2021</t>
+  </si>
+  <si>
+    <t>APR 30, 2021</t>
   </si>
   <si>
     <t>APR 28, 2021</t>
   </si>
   <si>
-    <t>APR 26, 2021</t>
-  </si>
-  <si>
-    <t>APR 24, 2021</t>
+    <t>APR 27, 2021</t>
+  </si>
+  <si>
+    <t>APR 25, 2021</t>
   </si>
   <si>
     <t>APR 23, 2021</t>
@@ -358,37 +358,37 @@
     <t>APR 21, 2021</t>
   </si>
   <si>
-    <t>APR 19, 2021</t>
+    <t>APR 20, 2021</t>
+  </si>
+  <si>
+    <t>APR 18, 2021</t>
   </si>
   <si>
     <t>APR 16, 2021</t>
   </si>
   <si>
-    <t>APR 14, 2021</t>
-  </si>
-  <si>
-    <t>APR 12, 2021</t>
+    <t>APR 13, 2021</t>
   </si>
   <si>
     <t>APR 11, 2021</t>
   </si>
   <si>
-    <t>APR 09, 2021</t>
-  </si>
-  <si>
-    <t>APR 07, 2021</t>
+    <t>APR 10, 2021</t>
+  </si>
+  <si>
+    <t>APR 08, 2021</t>
   </si>
   <si>
     <t>APR 06, 2021</t>
   </si>
   <si>
-    <t>APR 04, 2021</t>
-  </si>
-  <si>
-    <t>APR 01, 2021</t>
-  </si>
-  <si>
-    <t>MAR 30, 2021</t>
+    <t>APR 03, 2021</t>
+  </si>
+  <si>
+    <t>APR 02, 2021</t>
+  </si>
+  <si>
+    <t>MAR 31, 2021</t>
   </si>
   <si>
     <t>MAR 28, 2021</t>
@@ -397,7 +397,7 @@
     <t>MAR 26, 2021</t>
   </si>
   <si>
-    <t>MAR 24, 2021</t>
+    <t>MAR 25, 2021</t>
   </si>
   <si>
     <t>MAR 23, 2021</t>
@@ -409,40 +409,40 @@
     <t>MAR 19, 2021</t>
   </si>
   <si>
-    <t>MAR 17, 2021</t>
-  </si>
-  <si>
-    <t>MAR 15, 2021</t>
+    <t>MAR 18, 2021</t>
+  </si>
+  <si>
+    <t>MAR 16, 2021</t>
+  </si>
+  <si>
+    <t>MAR 14, 2021</t>
   </si>
   <si>
     <t>MAR 13, 2021</t>
   </si>
   <si>
-    <t>MAR 12, 2021</t>
+    <t>MAR 11, 2021</t>
   </si>
   <si>
     <t>MAR 04, 2021</t>
   </si>
   <si>
-    <t>MAR 02, 2021</t>
+    <t>MAR 03, 2021</t>
   </si>
   <si>
     <t>MAR 01, 2021</t>
   </si>
   <si>
-    <t>FEB 27, 2021</t>
-  </si>
-  <si>
-    <t>FEB 25, 2021</t>
+    <t>FEB 26, 2021</t>
   </si>
   <si>
     <t>FEB 23, 2021</t>
   </si>
   <si>
-    <t>FEB 21, 2021</t>
-  </si>
-  <si>
-    <t>FEB 19, 2021</t>
+    <t>FEB 22, 2021</t>
+  </si>
+  <si>
+    <t>FEB 20, 2021</t>
   </si>
   <si>
     <t>FEB 17, 2021</t>
@@ -457,10 +457,10 @@
     <t>FEB 12, 2021</t>
   </si>
   <si>
-    <t>FEB 10, 2021</t>
-  </si>
-  <si>
-    <t>FEB 08, 2021</t>
+    <t>FEB 11, 2021</t>
+  </si>
+  <si>
+    <t>FEB 09, 2021</t>
   </si>
   <si>
     <t>FEB 06, 2021</t>
@@ -469,37 +469,37 @@
     <t>FEB 04, 2021</t>
   </si>
   <si>
-    <t>JAN 31, 2021</t>
-  </si>
-  <si>
-    <t>JAN 29, 2021</t>
-  </si>
-  <si>
-    <t>JAN 27, 2021</t>
+    <t>FEB 02, 2021</t>
+  </si>
+  <si>
+    <t>FEB 01, 2021</t>
+  </si>
+  <si>
+    <t>JAN 30, 2021</t>
+  </si>
+  <si>
+    <t>JAN 28, 2021</t>
   </si>
   <si>
     <t>JAN 25, 2021</t>
   </si>
   <si>
-    <t>JAN 23, 2021</t>
-  </si>
-  <si>
-    <t>JAN 22, 2021</t>
-  </si>
-  <si>
-    <t>JAN 19, 2021</t>
-  </si>
-  <si>
-    <t>JAN 17, 2021</t>
+    <t>JAN 24, 2021</t>
+  </si>
+  <si>
+    <t>JAN 18, 2021</t>
+  </si>
+  <si>
+    <t>JAN 16, 2021</t>
   </si>
   <si>
     <t>JAN 14, 2021</t>
   </si>
   <si>
-    <t>JAN 12, 2021</t>
-  </si>
-  <si>
-    <t>JAN 10, 2021</t>
+    <t>JAN 13, 2021</t>
+  </si>
+  <si>
+    <t>JAN 11, 2021</t>
   </si>
   <si>
     <t>JAN 09, 2021</t>
@@ -517,190 +517,190 @@
     <t>JAN 01, 2021</t>
   </si>
   <si>
-    <t>DEC 29, 2020</t>
+    <t>DEC 30, 2020</t>
   </si>
   <si>
     <t>DEC 28, 2020</t>
   </si>
   <si>
-    <t>DEC 25, 2020</t>
+    <t>DEC 26, 2020</t>
   </si>
   <si>
     <t>DEC 23, 2020</t>
   </si>
   <si>
-    <t>DEN @ POR</t>
-  </si>
-  <si>
-    <t>DEN @ DET</t>
-  </si>
-  <si>
-    <t>DEN @ MIN</t>
-  </si>
-  <si>
-    <t>DEN @ CHA</t>
-  </si>
-  <si>
-    <t>DEN vs. BKN</t>
-  </si>
-  <si>
-    <t>DEN @ UTA</t>
-  </si>
-  <si>
-    <t>DEN vs. NYK</t>
-  </si>
-  <si>
-    <t>DEN @ LAL</t>
-  </si>
-  <si>
-    <t>DEN @ LAC</t>
-  </si>
-  <si>
-    <t>DEN vs. TOR</t>
-  </si>
-  <si>
-    <t>DEN vs. NOP</t>
-  </si>
-  <si>
-    <t>DEN vs. MEM</t>
-  </si>
-  <si>
-    <t>DEN vs. HOU</t>
-  </si>
-  <si>
-    <t>DEN @ GSW</t>
-  </si>
-  <si>
-    <t>DEN @ HOU</t>
-  </si>
-  <si>
-    <t>DEN vs. MIA</t>
-  </si>
-  <si>
-    <t>DEN vs. BOS</t>
-  </si>
-  <si>
-    <t>DEN vs. SAS</t>
-  </si>
-  <si>
-    <t>DEN vs. DET</t>
-  </si>
-  <si>
-    <t>DEN vs. ORL</t>
-  </si>
-  <si>
-    <t>DEN vs. PHI</t>
-  </si>
-  <si>
-    <t>DEN vs. ATL</t>
-  </si>
-  <si>
-    <t>DEN @ NOP</t>
-  </si>
-  <si>
-    <t>DEN @ TOR</t>
-  </si>
-  <si>
-    <t>DEN @ ORL</t>
-  </si>
-  <si>
-    <t>DEN vs. CHI</t>
-  </si>
-  <si>
-    <t>DEN vs. CHA</t>
-  </si>
-  <si>
-    <t>DEN vs. IND</t>
-  </si>
-  <si>
-    <t>DEN vs. DAL</t>
-  </si>
-  <si>
-    <t>DEN @ MEM</t>
-  </si>
-  <si>
-    <t>DEN @ IND</t>
-  </si>
-  <si>
-    <t>DEN @ MIL</t>
-  </si>
-  <si>
-    <t>DEN @ CHI</t>
-  </si>
-  <si>
-    <t>DEN @ OKC</t>
-  </si>
-  <si>
-    <t>DEN vs. WAS</t>
-  </si>
-  <si>
-    <t>DEN vs. POR</t>
-  </si>
-  <si>
-    <t>DEN @ ATL</t>
-  </si>
-  <si>
-    <t>DEN @ CLE</t>
-  </si>
-  <si>
-    <t>DEN @ WAS</t>
-  </si>
-  <si>
-    <t>DEN @ BOS</t>
-  </si>
-  <si>
-    <t>DEN vs. LAL</t>
-  </si>
-  <si>
-    <t>DEN vs. OKC</t>
-  </si>
-  <si>
-    <t>DEN vs. CLE</t>
-  </si>
-  <si>
-    <t>DEN vs. MIL</t>
-  </si>
-  <si>
-    <t>DEN @ SAC</t>
-  </si>
-  <si>
-    <t>DEN vs. UTA</t>
-  </si>
-  <si>
-    <t>DEN @ SAS</t>
-  </si>
-  <si>
-    <t>DEN @ MIA</t>
-  </si>
-  <si>
-    <t>DEN @ DAL</t>
-  </si>
-  <si>
-    <t>DEN @ PHX</t>
-  </si>
-  <si>
-    <t>DEN vs. GSW</t>
-  </si>
-  <si>
-    <t>DEN @ BKN</t>
-  </si>
-  <si>
-    <t>DEN @ NYK</t>
-  </si>
-  <si>
-    <t>DEN @ PHI</t>
-  </si>
-  <si>
-    <t>DEN vs. MIN</t>
-  </si>
-  <si>
-    <t>DEN vs. PHX</t>
-  </si>
-  <si>
-    <t>DEN vs. LAC</t>
-  </si>
-  <si>
-    <t>DEN vs. SAC</t>
+    <t>POR vs. DEN</t>
+  </si>
+  <si>
+    <t>POR @ PHX</t>
+  </si>
+  <si>
+    <t>POR @ UTA</t>
+  </si>
+  <si>
+    <t>POR vs. HOU</t>
+  </si>
+  <si>
+    <t>POR vs. SAS</t>
+  </si>
+  <si>
+    <t>POR vs. LAL</t>
+  </si>
+  <si>
+    <t>POR @ CLE</t>
+  </si>
+  <si>
+    <t>POR @ ATL</t>
+  </si>
+  <si>
+    <t>POR @ BOS</t>
+  </si>
+  <si>
+    <t>POR @ BKN</t>
+  </si>
+  <si>
+    <t>POR @ MEM</t>
+  </si>
+  <si>
+    <t>POR @ IND</t>
+  </si>
+  <si>
+    <t>POR vs. MEM</t>
+  </si>
+  <si>
+    <t>POR vs. LAC</t>
+  </si>
+  <si>
+    <t>POR @ CHA</t>
+  </si>
+  <si>
+    <t>POR @ SAS</t>
+  </si>
+  <si>
+    <t>POR vs. BOS</t>
+  </si>
+  <si>
+    <t>POR vs. MIA</t>
+  </si>
+  <si>
+    <t>POR vs. DET</t>
+  </si>
+  <si>
+    <t>POR @ LAC</t>
+  </si>
+  <si>
+    <t>POR vs. OKC</t>
+  </si>
+  <si>
+    <t>POR vs. MIL</t>
+  </si>
+  <si>
+    <t>POR @ DET</t>
+  </si>
+  <si>
+    <t>POR @ TOR</t>
+  </si>
+  <si>
+    <t>POR @ ORL</t>
+  </si>
+  <si>
+    <t>POR @ MIA</t>
+  </si>
+  <si>
+    <t>POR vs. BKN</t>
+  </si>
+  <si>
+    <t>POR vs. DAL</t>
+  </si>
+  <si>
+    <t>POR vs. NOP</t>
+  </si>
+  <si>
+    <t>POR @ MIN</t>
+  </si>
+  <si>
+    <t>POR vs. PHX</t>
+  </si>
+  <si>
+    <t>POR vs. SAC</t>
+  </si>
+  <si>
+    <t>POR vs. GSW</t>
+  </si>
+  <si>
+    <t>POR vs. CHA</t>
+  </si>
+  <si>
+    <t>POR @ LAL</t>
+  </si>
+  <si>
+    <t>POR @ DEN</t>
+  </si>
+  <si>
+    <t>POR vs. WAS</t>
+  </si>
+  <si>
+    <t>POR @ NOP</t>
+  </si>
+  <si>
+    <t>POR @ OKC</t>
+  </si>
+  <si>
+    <t>POR @ DAL</t>
+  </si>
+  <si>
+    <t>POR vs. CLE</t>
+  </si>
+  <si>
+    <t>POR vs. PHI</t>
+  </si>
+  <si>
+    <t>POR vs. ORL</t>
+  </si>
+  <si>
+    <t>POR @ NYK</t>
+  </si>
+  <si>
+    <t>POR @ PHI</t>
+  </si>
+  <si>
+    <t>POR @ WAS</t>
+  </si>
+  <si>
+    <t>POR @ MIL</t>
+  </si>
+  <si>
+    <t>POR @ CHI</t>
+  </si>
+  <si>
+    <t>POR @ HOU</t>
+  </si>
+  <si>
+    <t>POR vs. NYK</t>
+  </si>
+  <si>
+    <t>POR vs. ATL</t>
+  </si>
+  <si>
+    <t>POR vs. IND</t>
+  </si>
+  <si>
+    <t>POR @ SAC</t>
+  </si>
+  <si>
+    <t>POR vs. TOR</t>
+  </si>
+  <si>
+    <t>POR vs. MIN</t>
+  </si>
+  <si>
+    <t>POR vs. CHI</t>
+  </si>
+  <si>
+    <t>POR @ GSW</t>
+  </si>
+  <si>
+    <t>POR vs. UTA</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1164,73 +1164,73 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>0.653</v>
+        <v>0.583</v>
       </c>
       <c r="J2">
         <v>240</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M2">
-        <v>0.449</v>
+        <v>0.529</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P2">
-        <v>0.378</v>
+        <v>0.419</v>
       </c>
       <c r="Q2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="R2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S2">
-        <v>0.9330000000000001</v>
+        <v>0.846</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="V2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB2">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1250,73 +1250,73 @@
         <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>0.662</v>
+        <v>0.577</v>
       </c>
       <c r="J3">
         <v>240</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M3">
-        <v>0.488</v>
+        <v>0.543</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <v>0.455</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>0.778</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>32</v>
       </c>
-      <c r="P3">
-        <v>0.281</v>
-      </c>
-      <c r="Q3">
-        <v>11</v>
-      </c>
-      <c r="R3">
-        <v>14</v>
-      </c>
-      <c r="S3">
-        <v>0.786</v>
-      </c>
-      <c r="T3">
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <v>40</v>
-      </c>
       <c r="V3">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="W3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
       <c r="Z3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1339,70 +1339,70 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4">
-        <v>0.657</v>
+        <v>0.586</v>
       </c>
       <c r="J4">
         <v>240</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M4">
-        <v>0.479</v>
+        <v>0.44</v>
       </c>
       <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>0.406</v>
+      </c>
+      <c r="Q4">
         <v>12</v>
       </c>
-      <c r="O4">
-        <v>36</v>
-      </c>
-      <c r="P4">
-        <v>0.333</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
       <c r="R4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S4">
-        <v>0.909</v>
+        <v>0.706</v>
       </c>
       <c r="T4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
         <v>39</v>
       </c>
-      <c r="V4">
-        <v>53</v>
-      </c>
       <c r="W4">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
         <v>6</v>
       </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
       <c r="Z4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB4">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1425,70 +1425,70 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5">
-        <v>0.652</v>
+        <v>0.58</v>
       </c>
       <c r="J5">
         <v>240</v>
       </c>
       <c r="K5">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L5">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M5">
-        <v>0.494</v>
+        <v>0.511</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>0.394</v>
+        <v>0.45</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S5">
-        <v>0.846</v>
+        <v>0.8</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V5">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB5">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1508,73 +1508,73 @@
         <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I6">
-        <v>0.647</v>
+        <v>0.574</v>
       </c>
       <c r="J6">
         <v>240</v>
       </c>
       <c r="K6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L6">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>0.457</v>
+        <v>0.464</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P6">
-        <v>0.341</v>
+        <v>0.353</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S6">
-        <v>0.913</v>
+        <v>0.733</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U6">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="V6">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="W6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
         <v>8</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>12</v>
-      </c>
       <c r="AA6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB6">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1594,73 +1594,73 @@
         <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>0.657</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J7">
         <v>240</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L7">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>0.518</v>
+        <v>0.42</v>
       </c>
       <c r="N7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O7">
+        <v>37</v>
+      </c>
+      <c r="P7">
+        <v>0.324</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>0.952</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
         <v>38</v>
       </c>
-      <c r="P7">
-        <v>0.447</v>
-      </c>
-      <c r="Q7">
-        <v>17</v>
-      </c>
-      <c r="R7">
+      <c r="V7">
+        <v>44</v>
+      </c>
+      <c r="W7">
+        <v>22</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>8</v>
+      </c>
+      <c r="AA7">
         <v>20</v>
       </c>
-      <c r="S7">
-        <v>0.85</v>
-      </c>
-      <c r="T7">
-        <v>9</v>
-      </c>
-      <c r="U7">
-        <v>29</v>
-      </c>
-      <c r="V7">
-        <v>38</v>
-      </c>
-      <c r="W7">
-        <v>31</v>
-      </c>
-      <c r="X7">
-        <v>8</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-      <c r="Z7">
-        <v>17</v>
-      </c>
-      <c r="AA7">
-        <v>16</v>
-      </c>
       <c r="AB7">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1683,70 +1683,70 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>0.667</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M8">
-        <v>0.381</v>
+        <v>0.576</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P8">
-        <v>0.308</v>
+        <v>0.485</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R8">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="S8">
-        <v>0.8179999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="T8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="W8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB8">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1769,70 +1769,70 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>0.662</v>
+        <v>0.554</v>
       </c>
       <c r="J9">
         <v>240</v>
       </c>
       <c r="K9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>0.439</v>
+        <v>0.453</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="P9">
-        <v>0.25</v>
+        <v>0.415</v>
       </c>
       <c r="Q9">
         <v>11</v>
       </c>
       <c r="R9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S9">
-        <v>0.6879999999999999</v>
+        <v>0.786</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1855,70 +1855,70 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>0.672</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J10">
         <v>240</v>
       </c>
       <c r="K10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>0.488</v>
+        <v>0.518</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S10">
-        <v>0.952</v>
+        <v>0.846</v>
       </c>
       <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>33</v>
+      </c>
+      <c r="V10">
+        <v>36</v>
+      </c>
+      <c r="W10">
+        <v>27</v>
+      </c>
+      <c r="X10">
         <v>8</v>
       </c>
-      <c r="U10">
-        <v>36</v>
-      </c>
-      <c r="V10">
-        <v>44</v>
-      </c>
-      <c r="W10">
-        <v>26</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
       <c r="Y10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB10">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1941,70 +1941,70 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>0.667</v>
+        <v>0.556</v>
       </c>
       <c r="J11">
         <v>240</v>
       </c>
       <c r="K11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>0.473</v>
+        <v>0.516</v>
       </c>
       <c r="N11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11">
-        <v>0.343</v>
+        <v>0.444</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="S11">
-        <v>0.8080000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="V11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB11">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -2027,70 +2027,70 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>0.661</v>
+        <v>0.548</v>
       </c>
       <c r="J12">
         <v>240</v>
       </c>
       <c r="K12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>0.506</v>
+        <v>0.489</v>
       </c>
       <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
+      </c>
+      <c r="P12">
+        <v>0.375</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>28</v>
+      </c>
+      <c r="S12">
+        <v>0.893</v>
+      </c>
+      <c r="T12">
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>40</v>
+      </c>
+      <c r="V12">
+        <v>51</v>
+      </c>
+      <c r="W12">
+        <v>23</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
         <v>10</v>
       </c>
-      <c r="O12">
-        <v>32</v>
-      </c>
-      <c r="P12">
-        <v>0.313</v>
-      </c>
-      <c r="Q12">
-        <v>18</v>
-      </c>
-      <c r="R12">
-        <v>23</v>
-      </c>
-      <c r="S12">
-        <v>0.783</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>35</v>
-      </c>
-      <c r="V12">
-        <v>38</v>
-      </c>
-      <c r="W12">
-        <v>26</v>
-      </c>
-      <c r="X12">
-        <v>14</v>
-      </c>
-      <c r="Y12">
-        <v>8</v>
-      </c>
-      <c r="Z12">
-        <v>18</v>
-      </c>
       <c r="AA12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB12">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2113,70 +2113,70 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>0.656</v>
+        <v>0.541</v>
       </c>
       <c r="J13">
         <v>240</v>
       </c>
       <c r="K13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>0.479</v>
+        <v>0.472</v>
       </c>
       <c r="N13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="Q13">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>37</v>
+      </c>
+      <c r="V13">
+        <v>57</v>
+      </c>
+      <c r="W13">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>13</v>
+      </c>
+      <c r="AA13">
         <v>19</v>
       </c>
-      <c r="R13">
-        <v>22</v>
-      </c>
-      <c r="S13">
-        <v>0.864</v>
-      </c>
-      <c r="T13">
-        <v>8</v>
-      </c>
-      <c r="U13">
-        <v>40</v>
-      </c>
-      <c r="V13">
-        <v>48</v>
-      </c>
-      <c r="W13">
-        <v>25</v>
-      </c>
-      <c r="X13">
-        <v>8</v>
-      </c>
-      <c r="Y13">
-        <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>11</v>
-      </c>
-      <c r="AA13">
-        <v>20</v>
-      </c>
       <c r="AB13">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2196,73 +2196,73 @@
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I14">
-        <v>0.65</v>
+        <v>0.533</v>
       </c>
       <c r="J14">
         <v>240</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>0.595</v>
+        <v>0.371</v>
       </c>
       <c r="N14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14">
-        <v>0.432</v>
+        <v>0.368</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="R14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S14">
-        <v>0.8129999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V14">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="W14">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA14">
         <v>22</v>
       </c>
       <c r="AB14">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2270,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2279,76 +2279,76 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>0.644</v>
+        <v>0.542</v>
       </c>
       <c r="J15">
         <v>240</v>
       </c>
       <c r="K15">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>0.386</v>
+        <v>0.479</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O15">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P15">
-        <v>0.283</v>
+        <v>0.4</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R15">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="T15">
+        <v>14</v>
+      </c>
+      <c r="U15">
+        <v>36</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+      <c r="W15">
+        <v>28</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
+      <c r="AA15">
         <v>20</v>
       </c>
-      <c r="S15">
-        <v>0.8</v>
-      </c>
-      <c r="T15">
-        <v>6</v>
-      </c>
-      <c r="U15">
-        <v>30</v>
-      </c>
-      <c r="V15">
-        <v>36</v>
-      </c>
-      <c r="W15">
-        <v>26</v>
-      </c>
-      <c r="X15">
-        <v>9</v>
-      </c>
-      <c r="Y15">
-        <v>7</v>
-      </c>
-      <c r="Z15">
-        <v>9</v>
-      </c>
-      <c r="AA15">
-        <v>14</v>
-      </c>
       <c r="AB15">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2356,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -2368,73 +2368,73 @@
         <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>0.655</v>
+        <v>0.552</v>
       </c>
       <c r="J16">
         <v>240</v>
       </c>
       <c r="K16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>0.443</v>
+        <v>0.46</v>
       </c>
       <c r="N16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P16">
         <v>0.333</v>
       </c>
       <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16">
         <v>15</v>
       </c>
-      <c r="R16">
-        <v>17</v>
-      </c>
       <c r="S16">
-        <v>0.882</v>
+        <v>0.867</v>
       </c>
       <c r="T16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V16">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X16">
         <v>7</v>
       </c>
       <c r="Y16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA16">
         <v>16</v>
       </c>
       <c r="AB16">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -2451,76 +2451,76 @@
         <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>0.649</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="J17">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="K17">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.447</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P17">
-        <v>0.385</v>
+        <v>0.318</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R17">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S17">
-        <v>0.846</v>
+        <v>0.737</v>
       </c>
       <c r="T17">
         <v>13</v>
       </c>
       <c r="U17">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="V17">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W17">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
         <v>6</v>
       </c>
-      <c r="Y17">
-        <v>6</v>
-      </c>
-      <c r="Z17">
-        <v>24</v>
-      </c>
       <c r="AA17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB17">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2528,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2540,73 +2540,73 @@
         <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>0.643</v>
+        <v>0.571</v>
       </c>
       <c r="J18">
         <v>240</v>
       </c>
       <c r="K18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L18">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>0.489</v>
+        <v>0.396</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P18">
-        <v>0.29</v>
+        <v>0.278</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S18">
-        <v>0.871</v>
+        <v>0.679</v>
       </c>
       <c r="T18">
+        <v>13</v>
+      </c>
+      <c r="U18">
+        <v>34</v>
+      </c>
+      <c r="V18">
+        <v>47</v>
+      </c>
+      <c r="W18">
         <v>18</v>
       </c>
-      <c r="U18">
-        <v>36</v>
-      </c>
-      <c r="V18">
-        <v>54</v>
-      </c>
-      <c r="W18">
-        <v>22</v>
-      </c>
       <c r="X18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y18">
         <v>3</v>
       </c>
       <c r="Z18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2614,7 +2614,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2629,70 +2629,70 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>0.636</v>
+        <v>0.582</v>
       </c>
       <c r="J19">
         <v>240</v>
       </c>
       <c r="K19">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>89</v>
       </c>
       <c r="M19">
-        <v>0.539</v>
+        <v>0.461</v>
       </c>
       <c r="N19">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P19">
-        <v>0.472</v>
+        <v>0.379</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S19">
-        <v>0.769</v>
+        <v>0.875</v>
       </c>
       <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>29</v>
+      </c>
+      <c r="V19">
+        <v>38</v>
+      </c>
+      <c r="W19">
+        <v>23</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19">
         <v>11</v>
       </c>
-      <c r="U19">
-        <v>32</v>
-      </c>
-      <c r="V19">
-        <v>43</v>
-      </c>
-      <c r="W19">
-        <v>32</v>
-      </c>
-      <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>7</v>
-      </c>
-      <c r="Z19">
-        <v>10</v>
-      </c>
       <c r="AA19">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB19">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -2709,76 +2709,76 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I20">
-        <v>0.63</v>
+        <v>0.574</v>
       </c>
       <c r="J20">
         <v>240</v>
       </c>
       <c r="K20">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L20">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
       <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>43</v>
+      </c>
+      <c r="P20">
+        <v>0.395</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>0.706</v>
+      </c>
+      <c r="T20">
         <v>8</v>
       </c>
-      <c r="O20">
-        <v>26</v>
-      </c>
-      <c r="P20">
-        <v>0.308</v>
-      </c>
-      <c r="Q20">
-        <v>21</v>
-      </c>
-      <c r="R20">
-        <v>25</v>
-      </c>
-      <c r="S20">
-        <v>0.84</v>
-      </c>
-      <c r="T20">
-        <v>10</v>
-      </c>
       <c r="U20">
+        <v>38</v>
+      </c>
+      <c r="V20">
+        <v>46</v>
+      </c>
+      <c r="W20">
         <v>31</v>
       </c>
-      <c r="V20">
-        <v>41</v>
-      </c>
-      <c r="W20">
-        <v>23</v>
-      </c>
       <c r="X20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB20">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2786,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -2795,76 +2795,76 @@
         <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I21">
-        <v>0.642</v>
+        <v>0.585</v>
       </c>
       <c r="J21">
         <v>240</v>
       </c>
       <c r="K21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L21">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>0.364</v>
+        <v>0.481</v>
       </c>
       <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>35</v>
+      </c>
+      <c r="P21">
+        <v>0.314</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="S21">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="T21">
         <v>8</v>
-      </c>
-      <c r="O21">
-        <v>34</v>
-      </c>
-      <c r="P21">
-        <v>0.235</v>
-      </c>
-      <c r="Q21">
-        <v>15</v>
-      </c>
-      <c r="R21">
-        <v>18</v>
-      </c>
-      <c r="S21">
-        <v>0.833</v>
-      </c>
-      <c r="T21">
-        <v>13</v>
       </c>
       <c r="U21">
         <v>33</v>
       </c>
       <c r="V21">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X21">
         <v>5</v>
       </c>
       <c r="Y21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z21">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB21">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2872,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -2881,19 +2881,19 @@
         <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="G22">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22">
-        <v>0.654</v>
+        <v>0.596</v>
       </c>
       <c r="J22">
         <v>240</v>
@@ -2902,55 +2902,55 @@
         <v>43</v>
       </c>
       <c r="L22">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M22">
-        <v>0.544</v>
+        <v>0.478</v>
       </c>
       <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>0.448</v>
+      </c>
+      <c r="Q22">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>24</v>
+      </c>
+      <c r="S22">
+        <v>0.792</v>
+      </c>
+      <c r="T22">
         <v>14</v>
       </c>
-      <c r="O22">
-        <v>27</v>
-      </c>
-      <c r="P22">
-        <v>0.519</v>
-      </c>
-      <c r="Q22">
-        <v>21</v>
-      </c>
-      <c r="R22">
-        <v>23</v>
-      </c>
-      <c r="S22">
-        <v>0.913</v>
-      </c>
-      <c r="T22">
-        <v>9</v>
-      </c>
       <c r="U22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V22">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W22">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="X22">
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB22">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -2967,76 +2967,76 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>0.647</v>
+        <v>0.588</v>
       </c>
       <c r="J23">
         <v>240</v>
       </c>
       <c r="K23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L23">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M23">
-        <v>0.44</v>
+        <v>0.396</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O23">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="P23">
-        <v>0.308</v>
+        <v>0.271</v>
       </c>
       <c r="Q23">
+        <v>14</v>
+      </c>
+      <c r="R23">
         <v>18</v>
       </c>
-      <c r="R23">
-        <v>24</v>
-      </c>
       <c r="S23">
-        <v>0.75</v>
+        <v>0.778</v>
       </c>
       <c r="T23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U23">
+        <v>32</v>
+      </c>
+      <c r="V23">
         <v>41</v>
       </c>
-      <c r="V23">
-        <v>53</v>
-      </c>
       <c r="W23">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="X23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
         <v>6</v>
       </c>
-      <c r="Z23">
-        <v>17</v>
-      </c>
       <c r="AA23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB23">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3044,7 +3044,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -3053,76 +3053,76 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="J24">
         <v>240</v>
       </c>
       <c r="K24">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L24">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M24">
-        <v>0.596</v>
+        <v>0.402</v>
       </c>
       <c r="N24">
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <v>36</v>
+      </c>
+      <c r="P24">
+        <v>0.306</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+      <c r="R24">
+        <v>37</v>
+      </c>
+      <c r="S24">
+        <v>0.838</v>
+      </c>
+      <c r="T24">
         <v>14</v>
       </c>
-      <c r="O24">
-        <v>31</v>
-      </c>
-      <c r="P24">
-        <v>0.452</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-      <c r="R24">
-        <v>9</v>
-      </c>
-      <c r="S24">
-        <v>0.889</v>
-      </c>
-      <c r="T24">
-        <v>13</v>
-      </c>
       <c r="U24">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V24">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y24">
         <v>5</v>
       </c>
       <c r="Z24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB24">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3130,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -3139,76 +3139,76 @@
         <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25">
-        <v>0.633</v>
+        <v>0.612</v>
       </c>
       <c r="J25">
         <v>240</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L25">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M25">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>46</v>
+      </c>
+      <c r="P25">
+        <v>0.435</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>0.786</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>41</v>
+      </c>
+      <c r="V25">
+        <v>56</v>
+      </c>
+      <c r="W25">
+        <v>25</v>
+      </c>
+      <c r="X25">
+        <v>13</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
         <v>9</v>
       </c>
-      <c r="O25">
-        <v>29</v>
-      </c>
-      <c r="P25">
-        <v>0.31</v>
-      </c>
-      <c r="Q25">
-        <v>24</v>
-      </c>
-      <c r="R25">
-        <v>31</v>
-      </c>
-      <c r="S25">
-        <v>0.774</v>
-      </c>
-      <c r="T25">
-        <v>19</v>
-      </c>
-      <c r="U25">
-        <v>35</v>
-      </c>
-      <c r="V25">
-        <v>54</v>
-      </c>
-      <c r="W25">
-        <v>27</v>
-      </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>5</v>
-      </c>
-      <c r="Z25">
-        <v>14</v>
-      </c>
       <c r="AA25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AB25">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3216,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -3225,76 +3225,76 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>0.625</v>
+        <v>0.604</v>
       </c>
       <c r="J26">
         <v>240</v>
       </c>
       <c r="K26">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L26">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="M26">
-        <v>0.481</v>
+        <v>0.364</v>
       </c>
       <c r="N26">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>54</v>
+      </c>
+      <c r="P26">
+        <v>0.389</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+      <c r="R26">
+        <v>22</v>
+      </c>
+      <c r="S26">
+        <v>0.727</v>
+      </c>
+      <c r="T26">
         <v>13</v>
       </c>
-      <c r="O26">
-        <v>25</v>
-      </c>
-      <c r="P26">
-        <v>0.52</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>14</v>
-      </c>
-      <c r="S26">
-        <v>0.714</v>
-      </c>
-      <c r="T26">
-        <v>7</v>
-      </c>
       <c r="U26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V26">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="W26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="X26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z26">
         <v>13</v>
       </c>
       <c r="AA26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB26">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3302,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3311,7 +3311,7 @@
         <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -3329,58 +3329,58 @@
         <v>240</v>
       </c>
       <c r="K27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L27">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M27">
-        <v>0.481</v>
+        <v>0.512</v>
       </c>
       <c r="N27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P27">
-        <v>0.387</v>
+        <v>0.533</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="S27">
-        <v>0.824</v>
+        <v>0.923</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="V27">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z27">
+        <v>13</v>
+      </c>
+      <c r="AA27">
         <v>20</v>
       </c>
-      <c r="AA27">
-        <v>16</v>
-      </c>
       <c r="AB27">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3388,7 +3388,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -3397,7 +3397,7 @@
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -3415,58 +3415,58 @@
         <v>240</v>
       </c>
       <c r="K28">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L28">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>0.543</v>
+        <v>0.474</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O28">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P28">
-        <v>0.417</v>
+        <v>0.294</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S28">
-        <v>0.6879999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="T28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U28">
         <v>34</v>
       </c>
       <c r="V28">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W28">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="X28">
         <v>7</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Z28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB28">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3474,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -3483,7 +3483,7 @@
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -3501,58 +3501,58 @@
         <v>240</v>
       </c>
       <c r="K29">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L29">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M29">
-        <v>0.505</v>
+        <v>0.471</v>
       </c>
       <c r="N29">
+        <v>18</v>
+      </c>
+      <c r="O29">
+        <v>40</v>
+      </c>
+      <c r="P29">
+        <v>0.45</v>
+      </c>
+      <c r="Q29">
         <v>14</v>
       </c>
-      <c r="O29">
-        <v>28</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
       <c r="R29">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S29">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="T29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="V29">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W29">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X29">
         <v>7</v>
       </c>
       <c r="Y29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z29">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB29">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3560,7 +3560,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -3569,10 +3569,10 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>26</v>
@@ -3587,58 +3587,58 @@
         <v>240</v>
       </c>
       <c r="K30">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L30">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M30">
-        <v>0.418</v>
+        <v>0.478</v>
       </c>
       <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>46</v>
+      </c>
+      <c r="P30">
+        <v>0.435</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <v>19</v>
+      </c>
+      <c r="S30">
+        <v>0.895</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>30</v>
+      </c>
+      <c r="V30">
+        <v>40</v>
+      </c>
+      <c r="W30">
+        <v>24</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>10</v>
+      </c>
+      <c r="AA30">
         <v>14</v>
       </c>
-      <c r="O30">
-        <v>43</v>
-      </c>
-      <c r="P30">
-        <v>0.326</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-      <c r="R30">
-        <v>18</v>
-      </c>
-      <c r="S30">
-        <v>0.833</v>
-      </c>
-      <c r="T30">
-        <v>17</v>
-      </c>
-      <c r="U30">
-        <v>29</v>
-      </c>
-      <c r="V30">
-        <v>46</v>
-      </c>
-      <c r="W30">
-        <v>25</v>
-      </c>
-      <c r="X30">
-        <v>5</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
-        <v>11</v>
-      </c>
-      <c r="AA30">
-        <v>19</v>
-      </c>
       <c r="AB30">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3646,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3655,76 +3655,76 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31">
-        <v>0.605</v>
+        <v>0.581</v>
       </c>
       <c r="J31">
         <v>240</v>
       </c>
       <c r="K31">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L31">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31">
-        <v>0.495</v>
+        <v>0.4</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P31">
-        <v>0.267</v>
+        <v>0.345</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R31">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="S31">
-        <v>0.923</v>
+        <v>0.913</v>
       </c>
       <c r="T31">
         <v>13</v>
       </c>
       <c r="U31">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="V31">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="W31">
         <v>25</v>
       </c>
       <c r="X31">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB31">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3732,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -3741,7 +3741,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -3759,58 +3759,58 @@
         <v>240</v>
       </c>
       <c r="K32">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L32">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.382</v>
       </c>
       <c r="N32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P32">
-        <v>0.353</v>
+        <v>0.22</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S32">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="T32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V32">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="W32">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="X32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA32">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AB32">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3818,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -3827,7 +3827,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -3842,61 +3842,61 @@
         <v>0.61</v>
       </c>
       <c r="J33">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K33">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L33">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M33">
-        <v>0.527</v>
+        <v>0.473</v>
       </c>
       <c r="N33">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O33">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P33">
-        <v>0.412</v>
+        <v>0.468</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R33">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="S33">
-        <v>0.778</v>
+        <v>0.882</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V33">
         <v>43</v>
       </c>
       <c r="W33">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="X33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AA33">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB33">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -3913,7 +3913,7 @@
         <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -3931,58 +3931,58 @@
         <v>240</v>
       </c>
       <c r="K34">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="L34">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M34">
-        <v>0.578</v>
+        <v>0.379</v>
       </c>
       <c r="N34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P34">
-        <v>0.364</v>
+        <v>0.326</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R34">
+        <v>25</v>
+      </c>
+      <c r="S34">
+        <v>0.84</v>
+      </c>
+      <c r="T34">
+        <v>14</v>
+      </c>
+      <c r="U34">
+        <v>36</v>
+      </c>
+      <c r="V34">
+        <v>50</v>
+      </c>
+      <c r="W34">
+        <v>11</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>8</v>
+      </c>
+      <c r="Z34">
         <v>13</v>
       </c>
-      <c r="S34">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="T34">
-        <v>8</v>
-      </c>
-      <c r="U34">
-        <v>40</v>
-      </c>
-      <c r="V34">
-        <v>48</v>
-      </c>
-      <c r="W34">
-        <v>37</v>
-      </c>
-      <c r="X34">
-        <v>12</v>
-      </c>
-      <c r="Y34">
-        <v>3</v>
-      </c>
-      <c r="Z34">
-        <v>15</v>
-      </c>
       <c r="AA34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB34">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -3999,7 +3999,7 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -4017,58 +4017,58 @@
         <v>240</v>
       </c>
       <c r="K35">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L35">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M35">
-        <v>0.464</v>
+        <v>0.521</v>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O35">
+        <v>43</v>
+      </c>
+      <c r="P35">
+        <v>0.419</v>
+      </c>
+      <c r="Q35">
+        <v>31</v>
+      </c>
+      <c r="R35">
+        <v>31</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
         <v>28</v>
       </c>
-      <c r="P35">
-        <v>0.536</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
-      </c>
-      <c r="R35">
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35">
+        <v>20</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>8</v>
+      </c>
+      <c r="Z35">
+        <v>17</v>
+      </c>
+      <c r="AA35">
         <v>19</v>
       </c>
-      <c r="S35">
-        <v>0.842</v>
-      </c>
-      <c r="T35">
-        <v>17</v>
-      </c>
-      <c r="U35">
-        <v>37</v>
-      </c>
-      <c r="V35">
-        <v>54</v>
-      </c>
-      <c r="W35">
-        <v>32</v>
-      </c>
-      <c r="X35">
-        <v>7</v>
-      </c>
-      <c r="Y35">
-        <v>7</v>
-      </c>
-      <c r="Z35">
-        <v>10</v>
-      </c>
-      <c r="AA35">
-        <v>15</v>
-      </c>
       <c r="AB35">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4076,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -4085,7 +4085,7 @@
         <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -4103,58 +4103,58 @@
         <v>240</v>
       </c>
       <c r="K36">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L36">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M36">
-        <v>0.411</v>
+        <v>0.438</v>
       </c>
       <c r="N36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O36">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P36">
-        <v>0.39</v>
+        <v>0.378</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R36">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S36">
-        <v>0.722</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V36">
         <v>42</v>
       </c>
       <c r="W36">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA36">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB36">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -4162,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -4189,58 +4189,58 @@
         <v>240</v>
       </c>
       <c r="K37">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L37">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>0.446</v>
+        <v>0.483</v>
       </c>
       <c r="N37">
         <v>13</v>
       </c>
       <c r="O37">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P37">
-        <v>0.351</v>
+        <v>0.325</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R37">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="S37">
-        <v>0.727</v>
+        <v>0.867</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="V37">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="W37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y37">
         <v>5</v>
       </c>
       <c r="Z37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB37">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4248,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -4260,7 +4260,7 @@
         <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>21</v>
@@ -4275,58 +4275,58 @@
         <v>240</v>
       </c>
       <c r="K38">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L38">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M38">
-        <v>0.584</v>
+        <v>0.457</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O38">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P38">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S38">
-        <v>0.6879999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U38">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V38">
         <v>41</v>
       </c>
       <c r="W38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB38">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4334,7 +4334,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -4349,70 +4349,70 @@
         <v>5</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="J39">
         <v>240</v>
       </c>
       <c r="K39">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L39">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M39">
-        <v>0.5580000000000001</v>
+        <v>0.477</v>
       </c>
       <c r="N39">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P39">
-        <v>0.367</v>
+        <v>0.395</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R39">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S39">
-        <v>0.917</v>
+        <v>0.96</v>
       </c>
       <c r="T39">
         <v>9</v>
       </c>
       <c r="U39">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V39">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W39">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA39">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB39">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4420,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -4435,70 +4435,70 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40">
-        <v>0.5590000000000001</v>
+        <v>0.588</v>
       </c>
       <c r="J40">
         <v>240</v>
       </c>
       <c r="K40">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M40">
-        <v>0.529</v>
+        <v>0.419</v>
       </c>
       <c r="N40">
+        <v>14</v>
+      </c>
+      <c r="O40">
+        <v>49</v>
+      </c>
+      <c r="P40">
+        <v>0.286</v>
+      </c>
+      <c r="Q40">
+        <v>22</v>
+      </c>
+      <c r="R40">
+        <v>26</v>
+      </c>
+      <c r="S40">
+        <v>0.846</v>
+      </c>
+      <c r="T40">
+        <v>8</v>
+      </c>
+      <c r="U40">
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <v>47</v>
+      </c>
+      <c r="W40">
+        <v>15</v>
+      </c>
+      <c r="X40">
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
         <v>10</v>
       </c>
-      <c r="O40">
-        <v>27</v>
-      </c>
-      <c r="P40">
-        <v>0.37</v>
-      </c>
-      <c r="Q40">
+      <c r="AA40">
         <v>16</v>
       </c>
-      <c r="R40">
-        <v>20</v>
-      </c>
-      <c r="S40">
-        <v>0.8</v>
-      </c>
-      <c r="T40">
-        <v>9</v>
-      </c>
-      <c r="U40">
-        <v>41</v>
-      </c>
-      <c r="V40">
-        <v>50</v>
-      </c>
-      <c r="W40">
-        <v>22</v>
-      </c>
-      <c r="X40">
-        <v>4</v>
-      </c>
-      <c r="Y40">
-        <v>6</v>
-      </c>
-      <c r="Z40">
-        <v>12</v>
-      </c>
-      <c r="AA40">
-        <v>18</v>
-      </c>
       <c r="AB40">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4506,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -4521,70 +4521,70 @@
         <v>5</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>0.545</v>
+        <v>0.576</v>
       </c>
       <c r="J41">
         <v>240</v>
       </c>
       <c r="K41">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L41">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M41">
-        <v>0.551</v>
+        <v>0.535</v>
       </c>
       <c r="N41">
+        <v>24</v>
+      </c>
+      <c r="O41">
+        <v>46</v>
+      </c>
+      <c r="P41">
+        <v>0.522</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>0.7</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>30</v>
+      </c>
+      <c r="V41">
+        <v>38</v>
+      </c>
+      <c r="W41">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>12</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+      <c r="Z41">
         <v>15</v>
       </c>
-      <c r="O41">
-        <v>31</v>
-      </c>
-      <c r="P41">
-        <v>0.484</v>
-      </c>
-      <c r="Q41">
-        <v>13</v>
-      </c>
-      <c r="R41">
-        <v>16</v>
-      </c>
-      <c r="S41">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="T41">
-        <v>6</v>
-      </c>
-      <c r="U41">
-        <v>43</v>
-      </c>
-      <c r="V41">
-        <v>49</v>
-      </c>
-      <c r="W41">
-        <v>30</v>
-      </c>
-      <c r="X41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>3</v>
-      </c>
-      <c r="Z41">
-        <v>12</v>
-      </c>
       <c r="AA41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB41">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4592,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -4607,70 +4607,70 @@
         <v>6</v>
       </c>
       <c r="G42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42">
-        <v>0.531</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J42">
         <v>240</v>
       </c>
       <c r="K42">
+        <v>32</v>
+      </c>
+      <c r="L42">
+        <v>83</v>
+      </c>
+      <c r="M42">
+        <v>0.386</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
         <v>37</v>
       </c>
-      <c r="L42">
-        <v>85</v>
-      </c>
-      <c r="M42">
-        <v>0.435</v>
-      </c>
-      <c r="N42">
+      <c r="P42">
+        <v>0.297</v>
+      </c>
+      <c r="Q42">
+        <v>18</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>0.9</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>35</v>
+      </c>
+      <c r="V42">
+        <v>45</v>
+      </c>
+      <c r="W42">
+        <v>19</v>
+      </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42">
+        <v>5</v>
+      </c>
+      <c r="Z42">
         <v>15</v>
       </c>
-      <c r="O42">
-        <v>38</v>
-      </c>
-      <c r="P42">
-        <v>0.395</v>
-      </c>
-      <c r="Q42">
+      <c r="AA42">
         <v>21</v>
       </c>
-      <c r="R42">
-        <v>24</v>
-      </c>
-      <c r="S42">
-        <v>0.875</v>
-      </c>
-      <c r="T42">
-        <v>12</v>
-      </c>
-      <c r="U42">
-        <v>32</v>
-      </c>
-      <c r="V42">
-        <v>44</v>
-      </c>
-      <c r="W42">
-        <v>23</v>
-      </c>
-      <c r="X42">
-        <v>6</v>
-      </c>
-      <c r="Y42">
-        <v>7</v>
-      </c>
-      <c r="Z42">
-        <v>18</v>
-      </c>
-      <c r="AA42">
-        <v>20</v>
-      </c>
       <c r="AB42">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4678,7 +4678,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -4690,73 +4690,73 @@
         <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43">
-        <v>0.548</v>
+        <v>0.581</v>
       </c>
       <c r="J43">
         <v>240</v>
       </c>
       <c r="K43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L43">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M43">
-        <v>0.426</v>
+        <v>0.471</v>
       </c>
       <c r="N43">
         <v>14</v>
       </c>
       <c r="O43">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P43">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="R43">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S43">
-        <v>0.944</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V43">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="W43">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AB43">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4764,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -4773,76 +4773,76 @@
         <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I44">
-        <v>0.533</v>
+        <v>0.6</v>
       </c>
       <c r="J44">
         <v>240</v>
       </c>
       <c r="K44">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L44">
         <v>84</v>
       </c>
       <c r="M44">
-        <v>0.512</v>
+        <v>0.44</v>
       </c>
       <c r="N44">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <v>39</v>
+      </c>
+      <c r="P44">
+        <v>0.308</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>19</v>
+      </c>
+      <c r="S44">
+        <v>0.737</v>
+      </c>
+      <c r="T44">
+        <v>13</v>
+      </c>
+      <c r="U44">
+        <v>33</v>
+      </c>
+      <c r="V44">
+        <v>46</v>
+      </c>
+      <c r="W44">
+        <v>15</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
         <v>16</v>
       </c>
-      <c r="O44">
-        <v>36</v>
-      </c>
-      <c r="P44">
-        <v>0.444</v>
-      </c>
-      <c r="Q44">
-        <v>13</v>
-      </c>
-      <c r="R44">
-        <v>16</v>
-      </c>
-      <c r="S44">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>30</v>
-      </c>
-      <c r="V44">
-        <v>33</v>
-      </c>
-      <c r="W44">
-        <v>25</v>
-      </c>
-      <c r="X44">
-        <v>8</v>
-      </c>
-      <c r="Y44">
-        <v>3</v>
-      </c>
-      <c r="Z44">
-        <v>13</v>
-      </c>
       <c r="AA44">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AB44">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4850,7 +4850,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -4859,76 +4859,76 @@
         <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45">
-        <v>0.552</v>
+        <v>0.621</v>
       </c>
       <c r="J45">
         <v>240</v>
       </c>
       <c r="K45">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M45">
-        <v>0.575</v>
+        <v>0.359</v>
       </c>
       <c r="N45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O45">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P45">
-        <v>0.484</v>
+        <v>0.345</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R45">
+        <v>25</v>
+      </c>
+      <c r="S45">
+        <v>0.72</v>
+      </c>
+      <c r="T45">
         <v>17</v>
       </c>
-      <c r="S45">
-        <v>0.765</v>
-      </c>
-      <c r="T45">
-        <v>6</v>
-      </c>
       <c r="U45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V45">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="W45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="X45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA45">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB45">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4936,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -4945,76 +4945,76 @@
         <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>0.536</v>
+        <v>0.643</v>
       </c>
       <c r="J46">
         <v>240</v>
       </c>
       <c r="K46">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L46">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M46">
-        <v>0.522</v>
+        <v>0.511</v>
       </c>
       <c r="N46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O46">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P46">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>18</v>
       </c>
       <c r="S46">
-        <v>0.833</v>
+        <v>0.889</v>
       </c>
       <c r="T46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U46">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="V46">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="W46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y46">
         <v>7</v>
       </c>
       <c r="Z46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA46">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB46">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -5022,7 +5022,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -5031,76 +5031,76 @@
         <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I47">
-        <v>0.556</v>
+        <v>0.63</v>
       </c>
       <c r="J47">
         <v>240</v>
       </c>
       <c r="K47">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L47">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M47">
-        <v>0.452</v>
+        <v>0.438</v>
       </c>
       <c r="N47">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O47">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P47">
-        <v>0.265</v>
+        <v>0.426</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R47">
+        <v>17</v>
+      </c>
+      <c r="S47">
+        <v>0.647</v>
+      </c>
+      <c r="T47">
         <v>15</v>
       </c>
-      <c r="S47">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="T47">
-        <v>11</v>
-      </c>
       <c r="U47">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="V47">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W47">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z47">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA47">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB47">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -5108,7 +5108,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -5117,76 +5117,76 @@
         <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>0.577</v>
+        <v>0.615</v>
       </c>
       <c r="J48">
         <v>240</v>
       </c>
       <c r="K48">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L48">
         <v>85</v>
       </c>
       <c r="M48">
-        <v>0.459</v>
+        <v>0.529</v>
       </c>
       <c r="N48">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>40</v>
+      </c>
+      <c r="P48">
+        <v>0.45</v>
+      </c>
+      <c r="Q48">
+        <v>13</v>
+      </c>
+      <c r="R48">
         <v>19</v>
       </c>
-      <c r="O48">
-        <v>47</v>
-      </c>
-      <c r="P48">
-        <v>0.404</v>
-      </c>
-      <c r="Q48">
-        <v>25</v>
-      </c>
-      <c r="R48">
-        <v>34</v>
-      </c>
       <c r="S48">
-        <v>0.735</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="T48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U48">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="V48">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="W48">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="X48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -5194,7 +5194,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -5203,76 +5203,76 @@
         <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J49">
         <v>240</v>
       </c>
       <c r="K49">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L49">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M49">
-        <v>0.46</v>
+        <v>0.518</v>
       </c>
       <c r="N49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O49">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P49">
-        <v>0.25</v>
+        <v>0.371</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="S49">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="T49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U49">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V49">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W49">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="X49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA49">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AB49">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -5280,7 +5280,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -5289,76 +5289,76 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I50">
-        <v>0.542</v>
+        <v>0.583</v>
       </c>
       <c r="J50">
         <v>240</v>
       </c>
       <c r="K50">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L50">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="N50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O50">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P50">
-        <v>0.444</v>
+        <v>0.447</v>
       </c>
       <c r="Q50">
+        <v>21</v>
+      </c>
+      <c r="R50">
+        <v>23</v>
+      </c>
+      <c r="S50">
+        <v>0.913</v>
+      </c>
+      <c r="T50">
         <v>15</v>
       </c>
-      <c r="R50">
+      <c r="U50">
+        <v>32</v>
+      </c>
+      <c r="V50">
+        <v>47</v>
+      </c>
+      <c r="W50">
+        <v>15</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>8</v>
+      </c>
+      <c r="AA50">
         <v>21</v>
       </c>
-      <c r="S50">
-        <v>0.714</v>
-      </c>
-      <c r="T50">
-        <v>4</v>
-      </c>
-      <c r="U50">
-        <v>35</v>
-      </c>
-      <c r="V50">
-        <v>39</v>
-      </c>
-      <c r="W50">
-        <v>31</v>
-      </c>
-      <c r="X50">
-        <v>12</v>
-      </c>
-      <c r="Y50">
-        <v>9</v>
-      </c>
-      <c r="Z50">
-        <v>11</v>
-      </c>
-      <c r="AA50">
-        <v>18</v>
-      </c>
       <c r="AB50">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -5366,7 +5366,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -5375,76 +5375,76 @@
         <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>0.522</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J51">
         <v>240</v>
       </c>
       <c r="K51">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L51">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>0.436</v>
+        <v>0.389</v>
       </c>
       <c r="N51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O51">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P51">
-        <v>0.417</v>
+        <v>0.391</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R51">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S51">
-        <v>0.9379999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="T51">
+        <v>9</v>
+      </c>
+      <c r="U51">
+        <v>45</v>
+      </c>
+      <c r="V51">
+        <v>54</v>
+      </c>
+      <c r="W51">
+        <v>18</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
+      <c r="Z51">
         <v>8</v>
       </c>
-      <c r="U51">
-        <v>30</v>
-      </c>
-      <c r="V51">
-        <v>38</v>
-      </c>
-      <c r="W51">
-        <v>22</v>
-      </c>
-      <c r="X51">
-        <v>5</v>
-      </c>
-      <c r="Y51">
-        <v>4</v>
-      </c>
-      <c r="Z51">
-        <v>9</v>
-      </c>
       <c r="AA51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB51">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5452,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -5461,7 +5461,7 @@
         <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -5479,58 +5479,58 @@
         <v>240</v>
       </c>
       <c r="K52">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L52">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M52">
-        <v>0.464</v>
+        <v>0.416</v>
       </c>
       <c r="N52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O52">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P52">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="Q52">
+        <v>8</v>
+      </c>
+      <c r="R52">
+        <v>16</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="T52">
         <v>11</v>
       </c>
-      <c r="R52">
-        <v>14</v>
-      </c>
-      <c r="S52">
-        <v>0.786</v>
-      </c>
-      <c r="T52">
-        <v>13</v>
-      </c>
       <c r="U52">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V52">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="W52">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB52">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5538,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -5547,10 +5547,10 @@
         <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>12</v>
@@ -5565,58 +5565,58 @@
         <v>240</v>
       </c>
       <c r="K53">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L53">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M53">
-        <v>0.391</v>
+        <v>0.459</v>
       </c>
       <c r="N53">
+        <v>13</v>
+      </c>
+      <c r="O53">
+        <v>31</v>
+      </c>
+      <c r="P53">
+        <v>0.419</v>
+      </c>
+      <c r="Q53">
+        <v>18</v>
+      </c>
+      <c r="R53">
+        <v>23</v>
+      </c>
+      <c r="S53">
+        <v>0.783</v>
+      </c>
+      <c r="T53">
+        <v>19</v>
+      </c>
+      <c r="U53">
+        <v>34</v>
+      </c>
+      <c r="V53">
+        <v>53</v>
+      </c>
+      <c r="W53">
+        <v>17</v>
+      </c>
+      <c r="X53">
         <v>8</v>
       </c>
-      <c r="O53">
-        <v>28</v>
-      </c>
-      <c r="P53">
-        <v>0.286</v>
-      </c>
-      <c r="Q53">
-        <v>13</v>
-      </c>
-      <c r="R53">
-        <v>15</v>
-      </c>
-      <c r="S53">
-        <v>0.867</v>
-      </c>
-      <c r="T53">
-        <v>16</v>
-      </c>
-      <c r="U53">
-        <v>26</v>
-      </c>
-      <c r="V53">
-        <v>42</v>
-      </c>
-      <c r="W53">
-        <v>19</v>
-      </c>
-      <c r="X53">
-        <v>9</v>
-      </c>
       <c r="Y53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA53">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB53">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5624,7 +5624,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -5639,70 +5639,70 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="J54">
         <v>240</v>
       </c>
       <c r="K54">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L54">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M54">
-        <v>0.54</v>
+        <v>0.463</v>
       </c>
       <c r="N54">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O54">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="P54">
-        <v>0.643</v>
+        <v>0.457</v>
       </c>
       <c r="Q54">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R54">
+        <v>23</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>14</v>
+      </c>
+      <c r="U54">
+        <v>30</v>
+      </c>
+      <c r="V54">
+        <v>44</v>
+      </c>
+      <c r="W54">
         <v>19</v>
       </c>
-      <c r="S54">
-        <v>0.842</v>
-      </c>
-      <c r="T54">
-        <v>7</v>
-      </c>
-      <c r="U54">
-        <v>32</v>
-      </c>
-      <c r="V54">
-        <v>39</v>
-      </c>
-      <c r="W54">
-        <v>28</v>
-      </c>
       <c r="X54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA54">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AB54">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5710,7 +5710,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
@@ -5725,70 +5725,70 @@
         <v>6</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55">
-        <v>0.579</v>
+        <v>0.526</v>
       </c>
       <c r="J55">
         <v>240</v>
       </c>
       <c r="K55">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L55">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="M55">
-        <v>0.526</v>
+        <v>0.375</v>
       </c>
       <c r="N55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O55">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P55">
-        <v>0.452</v>
+        <v>0.357</v>
       </c>
       <c r="Q55">
         <v>13</v>
       </c>
       <c r="R55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S55">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U55">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V55">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="W55">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X55">
         <v>8</v>
       </c>
       <c r="Y55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z55">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB55">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5796,7 +5796,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -5811,70 +5811,70 @@
         <v>5</v>
       </c>
       <c r="G56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I56">
-        <v>0.611</v>
+        <v>0.556</v>
       </c>
       <c r="J56">
         <v>240</v>
       </c>
       <c r="K56">
+        <v>45</v>
+      </c>
+      <c r="L56">
+        <v>88</v>
+      </c>
+      <c r="M56">
+        <v>0.511</v>
+      </c>
+      <c r="N56">
+        <v>17</v>
+      </c>
+      <c r="O56">
         <v>42</v>
       </c>
-      <c r="L56">
-        <v>92</v>
-      </c>
-      <c r="M56">
-        <v>0.457</v>
-      </c>
-      <c r="N56">
-        <v>14</v>
-      </c>
-      <c r="O56">
-        <v>43</v>
-      </c>
       <c r="P56">
-        <v>0.326</v>
+        <v>0.405</v>
       </c>
       <c r="Q56">
+        <v>16</v>
+      </c>
+      <c r="R56">
+        <v>19</v>
+      </c>
+      <c r="S56">
+        <v>0.842</v>
+      </c>
+      <c r="T56">
+        <v>9</v>
+      </c>
+      <c r="U56">
+        <v>26</v>
+      </c>
+      <c r="V56">
+        <v>35</v>
+      </c>
+      <c r="W56">
+        <v>20</v>
+      </c>
+      <c r="X56">
         <v>11</v>
       </c>
-      <c r="R56">
-        <v>11</v>
-      </c>
-      <c r="S56">
+      <c r="Y56">
         <v>1</v>
       </c>
-      <c r="T56">
-        <v>12</v>
-      </c>
-      <c r="U56">
-        <v>37</v>
-      </c>
-      <c r="V56">
-        <v>49</v>
-      </c>
-      <c r="W56">
-        <v>29</v>
-      </c>
-      <c r="X56">
-        <v>14</v>
-      </c>
-      <c r="Y56">
-        <v>4</v>
-      </c>
       <c r="Z56">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA56">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB56">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5882,7 +5882,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
@@ -5894,73 +5894,73 @@
         <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I57">
-        <v>0.588</v>
+        <v>0.529</v>
       </c>
       <c r="J57">
         <v>240</v>
       </c>
       <c r="K57">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L57">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M57">
-        <v>0.506</v>
+        <v>0.419</v>
       </c>
       <c r="N57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O57">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P57">
-        <v>0.429</v>
+        <v>0.415</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="S57">
-        <v>0.786</v>
+        <v>0.75</v>
       </c>
       <c r="T57">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U57">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V57">
         <v>49</v>
       </c>
       <c r="W57">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z57">
+        <v>15</v>
+      </c>
+      <c r="AA57">
         <v>16</v>
       </c>
-      <c r="AA57">
-        <v>20</v>
-      </c>
       <c r="AB57">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5968,7 +5968,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
@@ -5977,10 +5977,10 @@
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58">
         <v>9</v>
@@ -5992,61 +5992,61 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J58">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="K58">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L58">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M58">
-        <v>0.412</v>
+        <v>0.469</v>
       </c>
       <c r="N58">
+        <v>14</v>
+      </c>
+      <c r="O58">
+        <v>41</v>
+      </c>
+      <c r="P58">
+        <v>0.341</v>
+      </c>
+      <c r="Q58">
+        <v>16</v>
+      </c>
+      <c r="R58">
+        <v>21</v>
+      </c>
+      <c r="S58">
+        <v>0.762</v>
+      </c>
+      <c r="T58">
         <v>15</v>
       </c>
-      <c r="O58">
-        <v>36</v>
-      </c>
-      <c r="P58">
-        <v>0.417</v>
-      </c>
-      <c r="Q58">
-        <v>25</v>
-      </c>
-      <c r="R58">
-        <v>32</v>
-      </c>
-      <c r="S58">
-        <v>0.781</v>
-      </c>
-      <c r="T58">
-        <v>12</v>
-      </c>
       <c r="U58">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="V58">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="W58">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y58">
         <v>3</v>
       </c>
       <c r="Z58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AA58">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB58">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -6054,7 +6054,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
@@ -6069,70 +6069,70 @@
         <v>5</v>
       </c>
       <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>0.6</v>
+      </c>
+      <c r="J59">
+        <v>240</v>
+      </c>
+      <c r="K59">
+        <v>39</v>
+      </c>
+      <c r="L59">
+        <v>83</v>
+      </c>
+      <c r="M59">
+        <v>0.47</v>
+      </c>
+      <c r="N59">
+        <v>17</v>
+      </c>
+      <c r="O59">
+        <v>46</v>
+      </c>
+      <c r="P59">
+        <v>0.37</v>
+      </c>
+      <c r="Q59">
+        <v>21</v>
+      </c>
+      <c r="R59">
+        <v>23</v>
+      </c>
+      <c r="S59">
+        <v>0.913</v>
+      </c>
+      <c r="T59">
+        <v>9</v>
+      </c>
+      <c r="U59">
+        <v>30</v>
+      </c>
+      <c r="V59">
+        <v>39</v>
+      </c>
+      <c r="W59">
+        <v>19</v>
+      </c>
+      <c r="X59">
+        <v>5</v>
+      </c>
+      <c r="Y59">
         <v>8</v>
       </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
-      <c r="I59">
-        <v>0.533</v>
-      </c>
-      <c r="J59">
-        <v>265</v>
-      </c>
-      <c r="K59">
-        <v>53</v>
-      </c>
-      <c r="L59">
-        <v>103</v>
-      </c>
-      <c r="M59">
-        <v>0.515</v>
-      </c>
-      <c r="N59">
-        <v>6</v>
-      </c>
-      <c r="O59">
-        <v>26</v>
-      </c>
-      <c r="P59">
-        <v>0.231</v>
-      </c>
-      <c r="Q59">
-        <v>18</v>
-      </c>
-      <c r="R59">
-        <v>19</v>
-      </c>
-      <c r="S59">
-        <v>0.947</v>
-      </c>
-      <c r="T59">
-        <v>10</v>
-      </c>
-      <c r="U59">
-        <v>33</v>
-      </c>
-      <c r="V59">
-        <v>43</v>
-      </c>
-      <c r="W59">
-        <v>32</v>
-      </c>
-      <c r="X59">
-        <v>12</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
-      </c>
       <c r="Z59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB59">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -6140,7 +6140,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C60" t="s">
         <v>85</v>
@@ -6149,76 +6149,76 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="J60">
         <v>240</v>
       </c>
       <c r="K60">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L60">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M60">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="N60">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O60">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P60">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
       <c r="Q60">
+        <v>16</v>
+      </c>
+      <c r="R60">
+        <v>19</v>
+      </c>
+      <c r="S60">
+        <v>0.842</v>
+      </c>
+      <c r="T60">
+        <v>8</v>
+      </c>
+      <c r="U60">
+        <v>26</v>
+      </c>
+      <c r="V60">
+        <v>34</v>
+      </c>
+      <c r="W60">
+        <v>20</v>
+      </c>
+      <c r="X60">
+        <v>9</v>
+      </c>
+      <c r="Y60">
+        <v>6</v>
+      </c>
+      <c r="Z60">
         <v>13</v>
       </c>
-      <c r="R60">
-        <v>14</v>
-      </c>
-      <c r="S60">
-        <v>0.929</v>
-      </c>
-      <c r="T60">
-        <v>18</v>
-      </c>
-      <c r="U60">
-        <v>40</v>
-      </c>
-      <c r="V60">
-        <v>58</v>
-      </c>
-      <c r="W60">
-        <v>29</v>
-      </c>
-      <c r="X60">
-        <v>11</v>
-      </c>
-      <c r="Y60">
-        <v>3</v>
-      </c>
-      <c r="Z60">
-        <v>14</v>
-      </c>
       <c r="AA60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB60">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6226,7 +6226,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
@@ -6235,19 +6235,19 @@
         <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>0.462</v>
+        <v>0.615</v>
       </c>
       <c r="J61">
         <v>240</v>
@@ -6256,55 +6256,55 @@
         <v>40</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M61">
-        <v>0.4</v>
+        <v>0.388</v>
       </c>
       <c r="N61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O61">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P61">
-        <v>0.378</v>
+        <v>0.341</v>
       </c>
       <c r="Q61">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S61">
-        <v>0.733</v>
+        <v>0.85</v>
       </c>
       <c r="T61">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U61">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V61">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W61">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X61">
         <v>6</v>
       </c>
       <c r="Y61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA61">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB61">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6312,7 +6312,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
@@ -6321,76 +6321,76 @@
         <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62">
         <v>5</v>
       </c>
-      <c r="G62">
-        <v>6</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
       <c r="I62">
-        <v>0.5</v>
+        <v>0.583</v>
       </c>
       <c r="J62">
         <v>240</v>
       </c>
       <c r="K62">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L62">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M62">
-        <v>0.456</v>
+        <v>0.368</v>
       </c>
       <c r="N62">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O62">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P62">
-        <v>0.297</v>
+        <v>0.302</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="R62">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="S62">
-        <v>0.778</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U62">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V62">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W62">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="X62">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y62">
         <v>5</v>
       </c>
       <c r="Z62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB62">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6398,7 +6398,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C63" t="s">
         <v>88</v>
@@ -6407,19 +6407,19 @@
         <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0.455</v>
+        <v>0.636</v>
       </c>
       <c r="J63">
         <v>240</v>
@@ -6428,55 +6428,55 @@
         <v>44</v>
       </c>
       <c r="L63">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M63">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="N63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O63">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P63">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="Q63">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="R63">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S63">
-        <v>0.625</v>
+        <v>0.778</v>
       </c>
       <c r="T63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U63">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V63">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W63">
         <v>28</v>
       </c>
       <c r="X63">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA63">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB63">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6484,7 +6484,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C64" t="s">
         <v>89</v>
@@ -6493,76 +6493,76 @@
         <v>161</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J64">
         <v>240</v>
       </c>
       <c r="K64">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L64">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M64">
-        <v>0.536</v>
+        <v>0.458</v>
       </c>
       <c r="N64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O64">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P64">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="Q64">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="R64">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S64">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="T64">
         <v>8</v>
       </c>
       <c r="U64">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V64">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W64">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA64">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AB64">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6570,7 +6570,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C65" t="s">
         <v>90</v>
@@ -6579,76 +6579,76 @@
         <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
       </c>
       <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
         <v>4</v>
       </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
       <c r="I65">
-        <v>0.444</v>
+        <v>0.556</v>
       </c>
       <c r="J65">
         <v>240</v>
       </c>
       <c r="K65">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L65">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M65">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="N65">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O65">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P65">
-        <v>0.364</v>
+        <v>0.415</v>
       </c>
       <c r="Q65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R65">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S65">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
       <c r="T65">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U65">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="V65">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W65">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AA65">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AB65">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6656,7 +6656,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C66" t="s">
         <v>91</v>
@@ -6665,76 +6665,76 @@
         <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>240</v>
+      </c>
+      <c r="K66">
+        <v>49</v>
+      </c>
+      <c r="L66">
+        <v>90</v>
+      </c>
+      <c r="M66">
+        <v>0.544</v>
+      </c>
+      <c r="N66">
+        <v>18</v>
+      </c>
+      <c r="O66">
+        <v>41</v>
+      </c>
+      <c r="P66">
+        <v>0.439</v>
+      </c>
+      <c r="Q66">
+        <v>19</v>
+      </c>
+      <c r="R66">
+        <v>23</v>
+      </c>
+      <c r="S66">
+        <v>0.826</v>
+      </c>
+      <c r="T66">
         <v>6</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>0.375</v>
-      </c>
-      <c r="J66">
-        <v>265</v>
-      </c>
-      <c r="K66">
-        <v>43</v>
-      </c>
-      <c r="L66">
-        <v>97</v>
-      </c>
-      <c r="M66">
-        <v>0.443</v>
-      </c>
-      <c r="N66">
-        <v>15</v>
-      </c>
-      <c r="O66">
-        <v>44</v>
-      </c>
-      <c r="P66">
-        <v>0.341</v>
-      </c>
-      <c r="Q66">
-        <v>16</v>
-      </c>
-      <c r="R66">
-        <v>21</v>
-      </c>
-      <c r="S66">
-        <v>0.762</v>
-      </c>
-      <c r="T66">
-        <v>9</v>
       </c>
       <c r="U66">
         <v>38</v>
       </c>
       <c r="V66">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W66">
         <v>25</v>
       </c>
       <c r="X66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA66">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB66">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6742,7 +6742,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
@@ -6751,10 +6751,10 @@
         <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6769,58 +6769,58 @@
         <v>240</v>
       </c>
       <c r="K67">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L67">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M67">
-        <v>0.519</v>
+        <v>0.415</v>
       </c>
       <c r="N67">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O67">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="P67">
-        <v>0.32</v>
+        <v>0.373</v>
       </c>
       <c r="Q67">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="R67">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="S67">
-        <v>0.733</v>
+        <v>0.647</v>
       </c>
       <c r="T67">
         <v>10</v>
       </c>
       <c r="U67">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V67">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z67">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA67">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AB67">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6828,7 +6828,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C68" t="s">
         <v>93</v>
@@ -6837,76 +6837,76 @@
         <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="J68">
         <v>240</v>
       </c>
       <c r="K68">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L68">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M68">
-        <v>0.489</v>
+        <v>0.418</v>
       </c>
       <c r="N68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O68">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P68">
-        <v>0.422</v>
+        <v>0.326</v>
       </c>
       <c r="Q68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R68">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="S68">
-        <v>0.714</v>
+        <v>0.788</v>
       </c>
       <c r="T68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U68">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V68">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W68">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="X68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z68">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA68">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AB68">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6914,7 +6914,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -6923,76 +6923,76 @@
         <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J69">
         <v>240</v>
       </c>
       <c r="K69">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L69">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M69">
-        <v>0.453</v>
+        <v>0.435</v>
       </c>
       <c r="N69">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O69">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P69">
-        <v>0.414</v>
+        <v>0.465</v>
       </c>
       <c r="Q69">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R69">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S69">
-        <v>0.8129999999999999</v>
+        <v>0.767</v>
       </c>
       <c r="T69">
         <v>8</v>
       </c>
       <c r="U69">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="V69">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="W69">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB69">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -7000,7 +7000,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C70" t="s">
         <v>95</v>
@@ -7009,76 +7009,76 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J70">
         <v>240</v>
       </c>
       <c r="K70">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L70">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M70">
-        <v>0.543</v>
+        <v>0.421</v>
       </c>
       <c r="N70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O70">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P70">
-        <v>0.393</v>
+        <v>0.316</v>
       </c>
       <c r="Q70">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="R70">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="S70">
-        <v>0.8</v>
+        <v>0.853</v>
       </c>
       <c r="T70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U70">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V70">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W70">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB70">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -7086,7 +7086,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
@@ -7095,76 +7095,76 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
         <v>1</v>
       </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
       <c r="I71">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="J71">
         <v>240</v>
       </c>
       <c r="K71">
+        <v>43</v>
+      </c>
+      <c r="L71">
+        <v>92</v>
+      </c>
+      <c r="M71">
+        <v>0.467</v>
+      </c>
+      <c r="N71">
+        <v>16</v>
+      </c>
+      <c r="O71">
         <v>46</v>
       </c>
-      <c r="L71">
-        <v>87</v>
-      </c>
-      <c r="M71">
-        <v>0.529</v>
-      </c>
-      <c r="N71">
-        <v>14</v>
-      </c>
-      <c r="O71">
-        <v>31</v>
-      </c>
       <c r="P71">
-        <v>0.452</v>
+        <v>0.348</v>
       </c>
       <c r="Q71">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R71">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="S71">
-        <v>0.5629999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="T71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U71">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V71">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="W71">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z71">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB71">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -7172,7 +7172,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C72" t="s">
         <v>97</v>
@@ -7181,67 +7181,67 @@
         <v>169</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J72">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K72">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L72">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M72">
-        <v>0.457</v>
+        <v>0.461</v>
       </c>
       <c r="N72">
+        <v>19</v>
+      </c>
+      <c r="O72">
+        <v>45</v>
+      </c>
+      <c r="P72">
+        <v>0.422</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>23</v>
+      </c>
+      <c r="S72">
+        <v>0.652</v>
+      </c>
+      <c r="T72">
         <v>11</v>
       </c>
-      <c r="O72">
-        <v>36</v>
-      </c>
-      <c r="P72">
-        <v>0.306</v>
-      </c>
-      <c r="Q72">
-        <v>23</v>
-      </c>
-      <c r="R72">
-        <v>31</v>
-      </c>
-      <c r="S72">
-        <v>0.742</v>
-      </c>
-      <c r="T72">
+      <c r="U72">
+        <v>34</v>
+      </c>
+      <c r="V72">
+        <v>45</v>
+      </c>
+      <c r="W72">
+        <v>27</v>
+      </c>
+      <c r="X72">
         <v>10</v>
       </c>
-      <c r="U72">
-        <v>22</v>
-      </c>
-      <c r="V72">
-        <v>32</v>
-      </c>
-      <c r="W72">
-        <v>25</v>
-      </c>
-      <c r="X72">
-        <v>7</v>
-      </c>
       <c r="Y72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z72">
         <v>13</v>
@@ -7250,7 +7250,7 @@
         <v>20</v>
       </c>
       <c r="AB72">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7258,7 +7258,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1610612743</v>
+        <v>1610612757</v>
       </c>
       <c r="C73" t="s">
         <v>98</v>
@@ -7282,61 +7282,61 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K73">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L73">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M73">
-        <v>0.48</v>
+        <v>0.402</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O73">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P73">
-        <v>0.276</v>
+        <v>0.364</v>
       </c>
       <c r="Q73">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R73">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="S73">
-        <v>0.833</v>
+        <v>0.824</v>
       </c>
       <c r="T73">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U73">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V73">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W73">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X73">
         <v>6</v>
       </c>
       <c r="Y73">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Z73">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA73">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB73">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -97,94 +97,97 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>0022001076</t>
-  </si>
-  <si>
-    <t>0022001053</t>
-  </si>
-  <si>
-    <t>0022001045</t>
-  </si>
-  <si>
-    <t>0022001031</t>
-  </si>
-  <si>
-    <t>0022001018</t>
-  </si>
-  <si>
-    <t>0022001010</t>
-  </si>
-  <si>
-    <t>0022000991</t>
-  </si>
-  <si>
-    <t>0022000978</t>
-  </si>
-  <si>
-    <t>0022000968</t>
-  </si>
-  <si>
-    <t>0022000952</t>
-  </si>
-  <si>
-    <t>0022000939</t>
-  </si>
-  <si>
-    <t>0022000929</t>
-  </si>
-  <si>
-    <t>0022000240</t>
-  </si>
-  <si>
-    <t>0022000225</t>
-  </si>
-  <si>
-    <t>0022000890</t>
-  </si>
-  <si>
-    <t>0022000879</t>
-  </si>
-  <si>
-    <t>0022000362</t>
-  </si>
-  <si>
-    <t>0022000853</t>
-  </si>
-  <si>
-    <t>0022000828</t>
-  </si>
-  <si>
-    <t>0022000814</t>
-  </si>
-  <si>
-    <t>0022000804</t>
-  </si>
-  <si>
-    <t>0022000787</t>
-  </si>
-  <si>
-    <t>0022000775</t>
-  </si>
-  <si>
-    <t>0022000753</t>
-  </si>
-  <si>
-    <t>0022000745</t>
-  </si>
-  <si>
-    <t>0022000721</t>
-  </si>
-  <si>
-    <t>0022000704</t>
-  </si>
-  <si>
-    <t>0022000687</t>
-  </si>
-  <si>
-    <t>0022000678</t>
-  </si>
-  <si>
-    <t>0022000666</t>
+    <t>0022001071</t>
+  </si>
+  <si>
+    <t>0022001057</t>
+  </si>
+  <si>
+    <t>0022000154</t>
+  </si>
+  <si>
+    <t>0022001037</t>
+  </si>
+  <si>
+    <t>0022001021</t>
+  </si>
+  <si>
+    <t>0022001007</t>
+  </si>
+  <si>
+    <t>0022000998</t>
+  </si>
+  <si>
+    <t>0022000986</t>
+  </si>
+  <si>
+    <t>0022000970</t>
+  </si>
+  <si>
+    <t>0022000964</t>
+  </si>
+  <si>
+    <t>0022000943</t>
+  </si>
+  <si>
+    <t>0022000932</t>
+  </si>
+  <si>
+    <t>0022000926</t>
+  </si>
+  <si>
+    <t>0022000908</t>
+  </si>
+  <si>
+    <t>0022000897</t>
+  </si>
+  <si>
+    <t>0022000442</t>
+  </si>
+  <si>
+    <t>0022000866</t>
+  </si>
+  <si>
+    <t>0022000854</t>
+  </si>
+  <si>
+    <t>0022000837</t>
+  </si>
+  <si>
+    <t>0022000818</t>
+  </si>
+  <si>
+    <t>0022000810</t>
+  </si>
+  <si>
+    <t>0022000786</t>
+  </si>
+  <si>
+    <t>0022000456</t>
+  </si>
+  <si>
+    <t>0022000764</t>
+  </si>
+  <si>
+    <t>0022000747</t>
+  </si>
+  <si>
+    <t>0022000739</t>
+  </si>
+  <si>
+    <t>0022000723</t>
+  </si>
+  <si>
+    <t>0022000713</t>
+  </si>
+  <si>
+    <t>0022000698</t>
+  </si>
+  <si>
+    <t>0022000690</t>
+  </si>
+  <si>
+    <t>0022000673</t>
   </si>
   <si>
     <t>0022000652</t>
@@ -193,193 +196,193 @@
     <t>0022000639</t>
   </si>
   <si>
-    <t>0022000629</t>
-  </si>
-  <si>
-    <t>0022000614</t>
-  </si>
-  <si>
-    <t>0022000599</t>
-  </si>
-  <si>
-    <t>0022000591</t>
-  </si>
-  <si>
-    <t>0022000577</t>
-  </si>
-  <si>
-    <t>0022000558</t>
-  </si>
-  <si>
-    <t>0022000550</t>
-  </si>
-  <si>
-    <t>0022000535</t>
-  </si>
-  <si>
-    <t>0022000512</t>
-  </si>
-  <si>
-    <t>0022000487</t>
-  </si>
-  <si>
-    <t>0022000477</t>
-  </si>
-  <si>
-    <t>0022000464</t>
-  </si>
-  <si>
-    <t>0022000441</t>
-  </si>
-  <si>
-    <t>0022000432</t>
+    <t>0022000625</t>
+  </si>
+  <si>
+    <t>0022000605</t>
+  </si>
+  <si>
+    <t>0022000592</t>
+  </si>
+  <si>
+    <t>0022000575</t>
+  </si>
+  <si>
+    <t>0022000567</t>
+  </si>
+  <si>
+    <t>0022000549</t>
+  </si>
+  <si>
+    <t>0022000529</t>
+  </si>
+  <si>
+    <t>0022000519</t>
+  </si>
+  <si>
+    <t>0022000498</t>
+  </si>
+  <si>
+    <t>0022000485</t>
+  </si>
+  <si>
+    <t>0022000476</t>
   </si>
   <si>
     <t>0022000411</t>
   </si>
   <si>
-    <t>0022000404</t>
-  </si>
-  <si>
-    <t>0022000394</t>
-  </si>
-  <si>
-    <t>0022000380</t>
-  </si>
-  <si>
-    <t>0022000351</t>
-  </si>
-  <si>
-    <t>0022000337</t>
-  </si>
-  <si>
-    <t>0022000559</t>
-  </si>
-  <si>
-    <t>0022000316</t>
-  </si>
-  <si>
-    <t>0022000298</t>
-  </si>
-  <si>
-    <t>0022000287</t>
-  </si>
-  <si>
-    <t>0022000267</t>
-  </si>
-  <si>
-    <t>0022000256</t>
-  </si>
-  <si>
-    <t>0022000207</t>
-  </si>
-  <si>
-    <t>0022000195</t>
-  </si>
-  <si>
-    <t>0022000178</t>
-  </si>
-  <si>
-    <t>0022000173</t>
-  </si>
-  <si>
-    <t>0022000155</t>
-  </si>
-  <si>
-    <t>0022000140</t>
-  </si>
-  <si>
-    <t>0022000122</t>
-  </si>
-  <si>
-    <t>0022000106</t>
-  </si>
-  <si>
-    <t>0022000092</t>
-  </si>
-  <si>
-    <t>0022000078</t>
-  </si>
-  <si>
-    <t>0022000061</t>
-  </si>
-  <si>
-    <t>0022000045</t>
-  </si>
-  <si>
-    <t>0022000029</t>
-  </si>
-  <si>
-    <t>0022000020</t>
+    <t>0022000399</t>
+  </si>
+  <si>
+    <t>0022000384</t>
+  </si>
+  <si>
+    <t>0022000370</t>
+  </si>
+  <si>
+    <t>0022000360</t>
+  </si>
+  <si>
+    <t>0022000339</t>
+  </si>
+  <si>
+    <t>0022000330</t>
+  </si>
+  <si>
+    <t>0022000319</t>
+  </si>
+  <si>
+    <t>0022000303</t>
+  </si>
+  <si>
+    <t>0022000297</t>
+  </si>
+  <si>
+    <t>0022000282</t>
+  </si>
+  <si>
+    <t>0022000265</t>
+  </si>
+  <si>
+    <t>0022000247</t>
+  </si>
+  <si>
+    <t>0022000237</t>
+  </si>
+  <si>
+    <t>0022000217</t>
+  </si>
+  <si>
+    <t>0022000210</t>
+  </si>
+  <si>
+    <t>0022000198</t>
+  </si>
+  <si>
+    <t>0022000182</t>
+  </si>
+  <si>
+    <t>0022000164</t>
+  </si>
+  <si>
+    <t>0022000139</t>
+  </si>
+  <si>
+    <t>0022000120</t>
+  </si>
+  <si>
+    <t>0022000098</t>
+  </si>
+  <si>
+    <t>0022000090</t>
+  </si>
+  <si>
+    <t>0022000071</t>
+  </si>
+  <si>
+    <t>0022000059</t>
+  </si>
+  <si>
+    <t>0022000031</t>
+  </si>
+  <si>
+    <t>0022000008</t>
+  </si>
+  <si>
+    <t>0022000004</t>
   </si>
   <si>
     <t>MAY 16, 2021</t>
   </si>
   <si>
-    <t>MAY 13, 2021</t>
+    <t>MAY 14, 2021</t>
   </si>
   <si>
     <t>MAY 12, 2021</t>
   </si>
   <si>
-    <t>MAY 10, 2021</t>
-  </si>
-  <si>
-    <t>MAY 08, 2021</t>
+    <t>MAY 11, 2021</t>
+  </si>
+  <si>
+    <t>MAY 09, 2021</t>
   </si>
   <si>
     <t>MAY 07, 2021</t>
   </si>
   <si>
-    <t>MAY 05, 2021</t>
-  </si>
-  <si>
-    <t>MAY 03, 2021</t>
+    <t>MAY 06, 2021</t>
+  </si>
+  <si>
+    <t>MAY 04, 2021</t>
   </si>
   <si>
     <t>MAY 02, 2021</t>
   </si>
   <si>
-    <t>APR 30, 2021</t>
-  </si>
-  <si>
-    <t>APR 28, 2021</t>
+    <t>MAY 01, 2021</t>
+  </si>
+  <si>
+    <t>APR 29, 2021</t>
   </si>
   <si>
     <t>APR 27, 2021</t>
   </si>
   <si>
-    <t>APR 25, 2021</t>
-  </si>
-  <si>
-    <t>APR 23, 2021</t>
+    <t>APR 26, 2021</t>
+  </si>
+  <si>
+    <t>APR 24, 2021</t>
+  </si>
+  <si>
+    <t>APR 22, 2021</t>
   </si>
   <si>
     <t>APR 21, 2021</t>
   </si>
   <si>
-    <t>APR 20, 2021</t>
-  </si>
-  <si>
     <t>APR 18, 2021</t>
   </si>
   <si>
     <t>APR 16, 2021</t>
   </si>
   <si>
-    <t>APR 13, 2021</t>
+    <t>APR 14, 2021</t>
+  </si>
+  <si>
+    <t>APR 12, 2021</t>
   </si>
   <si>
     <t>APR 11, 2021</t>
   </si>
   <si>
-    <t>APR 10, 2021</t>
-  </si>
-  <si>
     <t>APR 08, 2021</t>
   </si>
   <si>
-    <t>APR 06, 2021</t>
+    <t>APR 07, 2021</t>
+  </si>
+  <si>
+    <t>APR 05, 2021</t>
   </si>
   <si>
     <t>APR 03, 2021</t>
@@ -391,16 +394,16 @@
     <t>MAR 31, 2021</t>
   </si>
   <si>
-    <t>MAR 28, 2021</t>
+    <t>MAR 29, 2021</t>
+  </si>
+  <si>
+    <t>MAR 27, 2021</t>
   </si>
   <si>
     <t>MAR 26, 2021</t>
   </si>
   <si>
-    <t>MAR 25, 2021</t>
-  </si>
-  <si>
-    <t>MAR 23, 2021</t>
+    <t>MAR 24, 2021</t>
   </si>
   <si>
     <t>MAR 21, 2021</t>
@@ -409,13 +412,10 @@
     <t>MAR 19, 2021</t>
   </si>
   <si>
-    <t>MAR 18, 2021</t>
-  </si>
-  <si>
-    <t>MAR 16, 2021</t>
-  </si>
-  <si>
-    <t>MAR 14, 2021</t>
+    <t>MAR 17, 2021</t>
+  </si>
+  <si>
+    <t>MAR 15, 2021</t>
   </si>
   <si>
     <t>MAR 13, 2021</t>
@@ -424,7 +424,7 @@
     <t>MAR 11, 2021</t>
   </si>
   <si>
-    <t>MAR 04, 2021</t>
+    <t>MAR 10, 2021</t>
   </si>
   <si>
     <t>MAR 03, 2021</t>
@@ -433,7 +433,10 @@
     <t>MAR 01, 2021</t>
   </si>
   <si>
-    <t>FEB 26, 2021</t>
+    <t>FEB 27, 2021</t>
+  </si>
+  <si>
+    <t>FEB 25, 2021</t>
   </si>
   <si>
     <t>FEB 23, 2021</t>
@@ -442,25 +445,16 @@
     <t>FEB 22, 2021</t>
   </si>
   <si>
-    <t>FEB 20, 2021</t>
-  </si>
-  <si>
-    <t>FEB 17, 2021</t>
-  </si>
-  <si>
-    <t>FEB 16, 2021</t>
-  </si>
-  <si>
     <t>FEB 14, 2021</t>
   </si>
   <si>
     <t>FEB 12, 2021</t>
   </si>
   <si>
-    <t>FEB 11, 2021</t>
-  </si>
-  <si>
-    <t>FEB 09, 2021</t>
+    <t>FEB 10, 2021</t>
+  </si>
+  <si>
+    <t>FEB 08, 2021</t>
   </si>
   <si>
     <t>FEB 06, 2021</t>
@@ -469,7 +463,7 @@
     <t>FEB 04, 2021</t>
   </si>
   <si>
-    <t>FEB 02, 2021</t>
+    <t>FEB 03, 2021</t>
   </si>
   <si>
     <t>FEB 01, 2021</t>
@@ -478,37 +472,43 @@
     <t>JAN 30, 2021</t>
   </si>
   <si>
-    <t>JAN 28, 2021</t>
+    <t>JAN 29, 2021</t>
+  </si>
+  <si>
+    <t>JAN 27, 2021</t>
   </si>
   <si>
     <t>JAN 25, 2021</t>
   </si>
   <si>
-    <t>JAN 24, 2021</t>
+    <t>JAN 23, 2021</t>
+  </si>
+  <si>
+    <t>JAN 22, 2021</t>
+  </si>
+  <si>
+    <t>JAN 20, 2021</t>
   </si>
   <si>
     <t>JAN 18, 2021</t>
   </si>
   <si>
-    <t>JAN 16, 2021</t>
-  </si>
-  <si>
-    <t>JAN 14, 2021</t>
+    <t>JAN 17, 2021</t>
+  </si>
+  <si>
+    <t>JAN 15, 2021</t>
   </si>
   <si>
     <t>JAN 13, 2021</t>
   </si>
   <si>
-    <t>JAN 11, 2021</t>
-  </si>
-  <si>
     <t>JAN 09, 2021</t>
   </si>
   <si>
     <t>JAN 07, 2021</t>
   </si>
   <si>
-    <t>JAN 05, 2021</t>
+    <t>JAN 04, 2021</t>
   </si>
   <si>
     <t>JAN 03, 2021</t>
@@ -520,187 +520,187 @@
     <t>DEC 30, 2020</t>
   </si>
   <si>
-    <t>DEC 28, 2020</t>
-  </si>
-  <si>
-    <t>DEC 26, 2020</t>
+    <t>DEC 27, 2020</t>
+  </si>
+  <si>
+    <t>DEC 25, 2020</t>
   </si>
   <si>
     <t>DEC 23, 2020</t>
   </si>
   <si>
-    <t>POR vs. DEN</t>
-  </si>
-  <si>
-    <t>POR @ PHX</t>
-  </si>
-  <si>
-    <t>POR @ UTA</t>
-  </si>
-  <si>
-    <t>POR vs. HOU</t>
-  </si>
-  <si>
-    <t>POR vs. SAS</t>
-  </si>
-  <si>
-    <t>POR vs. LAL</t>
-  </si>
-  <si>
-    <t>POR @ CLE</t>
-  </si>
-  <si>
-    <t>POR @ ATL</t>
-  </si>
-  <si>
-    <t>POR @ BOS</t>
-  </si>
-  <si>
-    <t>POR @ BKN</t>
-  </si>
-  <si>
-    <t>POR @ MEM</t>
-  </si>
-  <si>
-    <t>POR @ IND</t>
-  </si>
-  <si>
-    <t>POR vs. MEM</t>
-  </si>
-  <si>
-    <t>POR vs. LAC</t>
-  </si>
-  <si>
-    <t>POR @ CHA</t>
-  </si>
-  <si>
-    <t>POR @ SAS</t>
-  </si>
-  <si>
-    <t>POR vs. BOS</t>
-  </si>
-  <si>
-    <t>POR vs. MIA</t>
-  </si>
-  <si>
-    <t>POR vs. DET</t>
-  </si>
-  <si>
-    <t>POR @ LAC</t>
-  </si>
-  <si>
-    <t>POR vs. OKC</t>
-  </si>
-  <si>
-    <t>POR vs. MIL</t>
-  </si>
-  <si>
-    <t>POR @ DET</t>
-  </si>
-  <si>
-    <t>POR @ TOR</t>
-  </si>
-  <si>
-    <t>POR @ ORL</t>
-  </si>
-  <si>
-    <t>POR @ MIA</t>
-  </si>
-  <si>
-    <t>POR vs. BKN</t>
-  </si>
-  <si>
-    <t>POR vs. DAL</t>
-  </si>
-  <si>
-    <t>POR vs. NOP</t>
-  </si>
-  <si>
-    <t>POR @ MIN</t>
-  </si>
-  <si>
-    <t>POR vs. PHX</t>
-  </si>
-  <si>
-    <t>POR vs. SAC</t>
-  </si>
-  <si>
-    <t>POR vs. GSW</t>
-  </si>
-  <si>
-    <t>POR vs. CHA</t>
-  </si>
-  <si>
-    <t>POR @ LAL</t>
-  </si>
-  <si>
-    <t>POR @ DEN</t>
-  </si>
-  <si>
-    <t>POR vs. WAS</t>
-  </si>
-  <si>
-    <t>POR @ NOP</t>
-  </si>
-  <si>
-    <t>POR @ OKC</t>
-  </si>
-  <si>
-    <t>POR @ DAL</t>
-  </si>
-  <si>
-    <t>POR vs. CLE</t>
-  </si>
-  <si>
-    <t>POR vs. PHI</t>
-  </si>
-  <si>
-    <t>POR vs. ORL</t>
-  </si>
-  <si>
-    <t>POR @ NYK</t>
-  </si>
-  <si>
-    <t>POR @ PHI</t>
-  </si>
-  <si>
-    <t>POR @ WAS</t>
-  </si>
-  <si>
-    <t>POR @ MIL</t>
-  </si>
-  <si>
-    <t>POR @ CHI</t>
-  </si>
-  <si>
-    <t>POR @ HOU</t>
-  </si>
-  <si>
-    <t>POR vs. NYK</t>
-  </si>
-  <si>
-    <t>POR vs. ATL</t>
-  </si>
-  <si>
-    <t>POR vs. IND</t>
-  </si>
-  <si>
-    <t>POR @ SAC</t>
-  </si>
-  <si>
-    <t>POR vs. TOR</t>
-  </si>
-  <si>
-    <t>POR vs. MIN</t>
-  </si>
-  <si>
-    <t>POR vs. CHI</t>
-  </si>
-  <si>
-    <t>POR @ GSW</t>
-  </si>
-  <si>
-    <t>POR vs. UTA</t>
+    <t>DAL @ MIN</t>
+  </si>
+  <si>
+    <t>DAL vs. TOR</t>
+  </si>
+  <si>
+    <t>DAL vs. NOP</t>
+  </si>
+  <si>
+    <t>DAL @ MEM</t>
+  </si>
+  <si>
+    <t>DAL @ CLE</t>
+  </si>
+  <si>
+    <t>DAL vs. CLE</t>
+  </si>
+  <si>
+    <t>DAL vs. BKN</t>
+  </si>
+  <si>
+    <t>DAL @ MIA</t>
+  </si>
+  <si>
+    <t>DAL vs. SAC</t>
+  </si>
+  <si>
+    <t>DAL vs. WAS</t>
+  </si>
+  <si>
+    <t>DAL @ DET</t>
+  </si>
+  <si>
+    <t>DAL @ GSW</t>
+  </si>
+  <si>
+    <t>DAL @ SAC</t>
+  </si>
+  <si>
+    <t>DAL vs. LAL</t>
+  </si>
+  <si>
+    <t>DAL vs. DET</t>
+  </si>
+  <si>
+    <t>DAL vs. NYK</t>
+  </si>
+  <si>
+    <t>DAL vs. PHI</t>
+  </si>
+  <si>
+    <t>DAL vs. SAS</t>
+  </si>
+  <si>
+    <t>DAL vs. MIL</t>
+  </si>
+  <si>
+    <t>DAL @ HOU</t>
+  </si>
+  <si>
+    <t>DAL vs. UTA</t>
+  </si>
+  <si>
+    <t>DAL @ WAS</t>
+  </si>
+  <si>
+    <t>DAL @ NYK</t>
+  </si>
+  <si>
+    <t>DAL @ BOS</t>
+  </si>
+  <si>
+    <t>DAL @ OKC</t>
+  </si>
+  <si>
+    <t>DAL @ NOP</t>
+  </si>
+  <si>
+    <t>DAL vs. IND</t>
+  </si>
+  <si>
+    <t>DAL @ POR</t>
+  </si>
+  <si>
+    <t>DAL vs. LAC</t>
+  </si>
+  <si>
+    <t>DAL @ DEN</t>
+  </si>
+  <si>
+    <t>DAL vs. OKC</t>
+  </si>
+  <si>
+    <t>DAL @ ORL</t>
+  </si>
+  <si>
+    <t>DAL @ BKN</t>
+  </si>
+  <si>
+    <t>DAL @ PHI</t>
+  </si>
+  <si>
+    <t>DAL vs. BOS</t>
+  </si>
+  <si>
+    <t>DAL vs. MEM</t>
+  </si>
+  <si>
+    <t>DAL vs. POR</t>
+  </si>
+  <si>
+    <t>DAL vs. ATL</t>
+  </si>
+  <si>
+    <t>DAL vs. MIN</t>
+  </si>
+  <si>
+    <t>DAL vs. GSW</t>
+  </si>
+  <si>
+    <t>DAL @ ATL</t>
+  </si>
+  <si>
+    <t>DAL vs. PHX</t>
+  </si>
+  <si>
+    <t>DAL @ UTA</t>
+  </si>
+  <si>
+    <t>DAL vs. DEN</t>
+  </si>
+  <si>
+    <t>DAL vs. HOU</t>
+  </si>
+  <si>
+    <t>DAL @ SAS</t>
+  </si>
+  <si>
+    <t>DAL @ IND</t>
+  </si>
+  <si>
+    <t>DAL @ TOR</t>
+  </si>
+  <si>
+    <t>DAL vs. CHI</t>
+  </si>
+  <si>
+    <t>DAL @ MIL</t>
+  </si>
+  <si>
+    <t>DAL @ CHA</t>
+  </si>
+  <si>
+    <t>DAL vs. ORL</t>
+  </si>
+  <si>
+    <t>DAL @ CHI</t>
+  </si>
+  <si>
+    <t>DAL vs. MIA</t>
+  </si>
+  <si>
+    <t>DAL vs. CHA</t>
+  </si>
+  <si>
+    <t>DAL @ LAC</t>
+  </si>
+  <si>
+    <t>DAL @ LAL</t>
+  </si>
+  <si>
+    <t>DAL @ PHX</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1164,7 +1164,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -1179,58 +1179,58 @@
         <v>240</v>
       </c>
       <c r="K2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M2">
-        <v>0.529</v>
+        <v>0.484</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>0.419</v>
+        <v>0.421</v>
       </c>
       <c r="Q2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="S2">
-        <v>0.846</v>
+        <v>0.85</v>
       </c>
       <c r="T2">
         <v>11</v>
       </c>
       <c r="U2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AB2">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1250,73 +1250,73 @@
         <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>0.577</v>
+        <v>0.592</v>
       </c>
       <c r="J3">
         <v>240</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L3">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>0.543</v>
+        <v>0.433</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P3">
-        <v>0.455</v>
+        <v>0.405</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S3">
-        <v>0.778</v>
+        <v>0.905</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="W3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
       <c r="Z3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA3">
         <v>18</v>
       </c>
       <c r="AB3">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1351,58 +1351,58 @@
         <v>240</v>
       </c>
       <c r="K4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L4">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M4">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P4">
-        <v>0.406</v>
+        <v>0.333</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S4">
-        <v>0.706</v>
+        <v>0.8</v>
       </c>
       <c r="T4">
         <v>9</v>
       </c>
       <c r="U4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="V4">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="W4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AB4">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1422,7 +1422,7 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -1437,58 +1437,58 @@
         <v>240</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L5">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M5">
-        <v>0.511</v>
+        <v>0.42</v>
       </c>
       <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>38</v>
+      </c>
+      <c r="P5">
+        <v>0.316</v>
+      </c>
+      <c r="Q5">
         <v>18</v>
       </c>
-      <c r="O5">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>0.45</v>
-      </c>
-      <c r="Q5">
-        <v>28</v>
-      </c>
       <c r="R5">
+        <v>19</v>
+      </c>
+      <c r="S5">
+        <v>0.947</v>
+      </c>
+      <c r="T5">
+        <v>13</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
         <v>35</v>
       </c>
-      <c r="S5">
-        <v>0.8</v>
-      </c>
-      <c r="T5">
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
         <v>12</v>
       </c>
-      <c r="U5">
-        <v>35</v>
-      </c>
-      <c r="V5">
-        <v>47</v>
-      </c>
-      <c r="W5">
-        <v>30</v>
-      </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>9</v>
-      </c>
       <c r="AA5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB5">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1511,67 +1511,67 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>0.574</v>
+        <v>0.588</v>
       </c>
       <c r="J6">
         <v>240</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M6">
-        <v>0.464</v>
+        <v>0.538</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O6">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>0.385</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
         <v>34</v>
       </c>
-      <c r="P6">
-        <v>0.353</v>
-      </c>
-      <c r="Q6">
-        <v>22</v>
-      </c>
-      <c r="R6">
-        <v>30</v>
-      </c>
-      <c r="S6">
-        <v>0.733</v>
-      </c>
-      <c r="T6">
-        <v>18</v>
-      </c>
-      <c r="U6">
-        <v>45</v>
-      </c>
       <c r="V6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="W6">
+        <v>33</v>
+      </c>
+      <c r="X6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
         <v>24</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>5</v>
-      </c>
-      <c r="Z6">
-        <v>8</v>
-      </c>
-      <c r="AA6">
-        <v>15</v>
       </c>
       <c r="AB6">
         <v>124</v>
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1597,70 +1597,70 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>0.5669999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="J7">
         <v>240</v>
       </c>
       <c r="K7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L7">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M7">
-        <v>0.42</v>
+        <v>0.494</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P7">
-        <v>0.324</v>
+        <v>0.313</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>36</v>
+      </c>
+      <c r="V7">
+        <v>45</v>
+      </c>
+      <c r="W7">
         <v>21</v>
       </c>
-      <c r="S7">
-        <v>0.952</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>38</v>
-      </c>
-      <c r="V7">
-        <v>44</v>
-      </c>
-      <c r="W7">
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
         <v>22</v>
       </c>
-      <c r="X7">
-        <v>6</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>8</v>
-      </c>
-      <c r="AA7">
-        <v>20</v>
-      </c>
       <c r="AB7">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1683,70 +1683,70 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8">
-        <v>0.5610000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M8">
-        <v>0.576</v>
+        <v>0.449</v>
       </c>
       <c r="N8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8">
-        <v>0.485</v>
+        <v>0.441</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S8">
-        <v>0.76</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB8">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1766,73 +1766,73 @@
         <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9">
-        <v>0.554</v>
+        <v>0.569</v>
       </c>
       <c r="J9">
         <v>240</v>
       </c>
       <c r="K9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>0.453</v>
+        <v>0.529</v>
       </c>
       <c r="N9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P9">
-        <v>0.415</v>
+        <v>0.458</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S9">
-        <v>0.786</v>
+        <v>0.722</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
       <c r="Z9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1852,7 +1852,7 @@
         <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -1867,58 +1867,58 @@
         <v>240</v>
       </c>
       <c r="K10">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M10">
-        <v>0.518</v>
+        <v>0.42</v>
       </c>
       <c r="N10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P10">
-        <v>0.5</v>
+        <v>0.171</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S10">
-        <v>0.846</v>
+        <v>0.806</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W10">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="X10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AA10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB10">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1941,13 +1941,13 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>0.556</v>
+        <v>0.571</v>
       </c>
       <c r="J11">
         <v>240</v>
@@ -1956,55 +1956,55 @@
         <v>47</v>
       </c>
       <c r="L11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>0.516</v>
+        <v>0.54</v>
       </c>
       <c r="N11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O11">
+        <v>38</v>
+      </c>
+      <c r="P11">
+        <v>0.447</v>
+      </c>
+      <c r="Q11">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>22</v>
+      </c>
+      <c r="S11">
+        <v>0.636</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>29</v>
+      </c>
+      <c r="V11">
         <v>36</v>
       </c>
-      <c r="P11">
-        <v>0.444</v>
-      </c>
-      <c r="Q11">
-        <v>18</v>
-      </c>
-      <c r="R11">
-        <v>20</v>
-      </c>
-      <c r="S11">
-        <v>0.9</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <v>42</v>
-      </c>
-      <c r="V11">
-        <v>50</v>
-      </c>
       <c r="W11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA11">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -2027,70 +2027,70 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12">
-        <v>0.548</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J12">
         <v>240</v>
       </c>
       <c r="K12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M12">
-        <v>0.489</v>
+        <v>0.449</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P12">
-        <v>0.375</v>
+        <v>0.433</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R12">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S12">
-        <v>0.893</v>
+        <v>0.957</v>
       </c>
       <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>27</v>
+      </c>
+      <c r="V12">
+        <v>35</v>
+      </c>
+      <c r="W12">
+        <v>22</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
         <v>11</v>
-      </c>
-      <c r="U12">
-        <v>40</v>
-      </c>
-      <c r="V12">
-        <v>51</v>
-      </c>
-      <c r="W12">
-        <v>23</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Y12">
-        <v>6</v>
-      </c>
-      <c r="Z12">
-        <v>10</v>
       </c>
       <c r="AA12">
         <v>20</v>
       </c>
       <c r="AB12">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2113,61 +2113,61 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13">
-        <v>0.541</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J13">
         <v>240</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>0.472</v>
+        <v>0.522</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13">
         <v>35</v>
       </c>
       <c r="P13">
-        <v>0.571</v>
+        <v>0.514</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S13">
-        <v>0.8129999999999999</v>
+        <v>0.864</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V13">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="W13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z13">
         <v>13</v>
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2199,70 +2199,70 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>0.533</v>
+        <v>0.55</v>
       </c>
       <c r="J14">
         <v>240</v>
       </c>
       <c r="K14">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>0.371</v>
+        <v>0.467</v>
       </c>
       <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <v>0.286</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
         <v>14</v>
       </c>
-      <c r="O14">
-        <v>38</v>
-      </c>
-      <c r="P14">
-        <v>0.368</v>
-      </c>
-      <c r="Q14">
-        <v>21</v>
-      </c>
-      <c r="R14">
-        <v>25</v>
-      </c>
       <c r="S14">
-        <v>0.84</v>
+        <v>0.571</v>
       </c>
       <c r="T14">
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <v>26</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+      <c r="W14">
+        <v>24</v>
+      </c>
+      <c r="X14">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
         <v>15</v>
       </c>
-      <c r="U14">
-        <v>38</v>
-      </c>
-      <c r="V14">
-        <v>53</v>
-      </c>
-      <c r="W14">
-        <v>21</v>
-      </c>
-      <c r="X14">
-        <v>11</v>
-      </c>
-      <c r="Y14">
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <v>11</v>
-      </c>
-      <c r="AA14">
-        <v>22</v>
-      </c>
       <c r="AB14">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2270,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2279,76 +2279,76 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>0.542</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J15">
         <v>240</v>
       </c>
       <c r="K15">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>0.479</v>
+        <v>0.487</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P15">
-        <v>0.4</v>
+        <v>0.433</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S15">
-        <v>0.8149999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="T15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="V15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA15">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB15">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2356,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -2365,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>32</v>
@@ -2386,55 +2386,55 @@
         <v>40</v>
       </c>
       <c r="L16">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>0.46</v>
+        <v>0.488</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O16">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>0.375</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+      <c r="R16">
         <v>36</v>
       </c>
-      <c r="P16">
-        <v>0.333</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
-      <c r="R16">
-        <v>15</v>
-      </c>
       <c r="S16">
-        <v>0.867</v>
+        <v>0.722</v>
       </c>
       <c r="T16">
         <v>9</v>
       </c>
       <c r="U16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V16">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB16">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -2451,76 +2451,76 @@
         <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>0.5610000000000001</v>
+        <v>0.544</v>
       </c>
       <c r="J17">
         <v>240</v>
       </c>
       <c r="K17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>0.447</v>
+        <v>0.5</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17">
-        <v>0.318</v>
+        <v>0.372</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R17">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S17">
-        <v>0.737</v>
+        <v>0.731</v>
       </c>
       <c r="T17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V17">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z17">
         <v>6</v>
       </c>
       <c r="AA17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB17">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2528,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2537,76 +2537,76 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18">
-        <v>0.571</v>
+        <v>0.536</v>
       </c>
       <c r="J18">
         <v>240</v>
       </c>
       <c r="K18">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M18">
-        <v>0.396</v>
+        <v>0.448</v>
       </c>
       <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>48</v>
+      </c>
+      <c r="P18">
+        <v>0.333</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <v>0.65</v>
+      </c>
+      <c r="T18">
         <v>10</v>
       </c>
-      <c r="O18">
-        <v>36</v>
-      </c>
-      <c r="P18">
-        <v>0.278</v>
-      </c>
-      <c r="Q18">
-        <v>19</v>
-      </c>
-      <c r="R18">
-        <v>28</v>
-      </c>
-      <c r="S18">
-        <v>0.679</v>
-      </c>
-      <c r="T18">
-        <v>13</v>
-      </c>
       <c r="U18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB18">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2614,7 +2614,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2626,73 +2626,73 @@
         <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>0.582</v>
+        <v>0.545</v>
       </c>
       <c r="J19">
         <v>240</v>
       </c>
       <c r="K19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>0.461</v>
+        <v>0.44</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P19">
-        <v>0.379</v>
+        <v>0.333</v>
       </c>
       <c r="Q19">
         <v>14</v>
       </c>
       <c r="R19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S19">
-        <v>0.875</v>
+        <v>0.737</v>
       </c>
       <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>31</v>
+      </c>
+      <c r="V19">
+        <v>41</v>
+      </c>
+      <c r="W19">
+        <v>30</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
         <v>9</v>
       </c>
-      <c r="U19">
-        <v>29</v>
-      </c>
-      <c r="V19">
-        <v>38</v>
-      </c>
-      <c r="W19">
-        <v>23</v>
-      </c>
-      <c r="X19">
-        <v>9</v>
-      </c>
-      <c r="Y19">
-        <v>6</v>
-      </c>
-      <c r="Z19">
-        <v>11</v>
-      </c>
       <c r="AA19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB19">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -2709,76 +2709,76 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20">
-        <v>0.574</v>
+        <v>0.556</v>
       </c>
       <c r="J20">
         <v>240</v>
       </c>
       <c r="K20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L20">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20">
-        <v>0.478</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O20">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P20">
-        <v>0.395</v>
+        <v>0.325</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R20">
         <v>17</v>
       </c>
       <c r="S20">
-        <v>0.706</v>
+        <v>0.765</v>
       </c>
       <c r="T20">
         <v>8</v>
       </c>
       <c r="U20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V20">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB20">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2786,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -2795,76 +2795,76 @@
         <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>0.585</v>
+        <v>0.547</v>
       </c>
       <c r="J21">
         <v>240</v>
       </c>
       <c r="K21">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M21">
-        <v>0.481</v>
+        <v>0.422</v>
       </c>
       <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>0.25</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>0.8</v>
+      </c>
+      <c r="T21">
         <v>11</v>
       </c>
-      <c r="O21">
+      <c r="U21">
         <v>35</v>
       </c>
-      <c r="P21">
-        <v>0.314</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-      <c r="R21">
-        <v>19</v>
-      </c>
-      <c r="S21">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="T21">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>33</v>
-      </c>
       <c r="V21">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AB21">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2872,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -2881,76 +2881,76 @@
         <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22">
-        <v>0.596</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="J22">
         <v>240</v>
       </c>
       <c r="K22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="N22">
         <v>13</v>
       </c>
       <c r="O22">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P22">
-        <v>0.448</v>
+        <v>0.31</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S22">
-        <v>0.792</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U22">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V22">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="W22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="X22">
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB22">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -2967,76 +2967,76 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23">
-        <v>0.588</v>
+        <v>0.569</v>
       </c>
       <c r="J23">
         <v>240</v>
       </c>
       <c r="K23">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23">
-        <v>0.396</v>
+        <v>0.443</v>
       </c>
       <c r="N23">
+        <v>17</v>
+      </c>
+      <c r="O23">
+        <v>45</v>
+      </c>
+      <c r="P23">
+        <v>0.378</v>
+      </c>
+      <c r="Q23">
         <v>13</v>
-      </c>
-      <c r="O23">
-        <v>48</v>
-      </c>
-      <c r="P23">
-        <v>0.271</v>
-      </c>
-      <c r="Q23">
-        <v>14</v>
       </c>
       <c r="R23">
         <v>18</v>
       </c>
       <c r="S23">
-        <v>0.778</v>
+        <v>0.722</v>
       </c>
       <c r="T23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U23">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="V23">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="W23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA23">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB23">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3044,7 +3044,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -3059,55 +3059,55 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J24">
         <v>240</v>
       </c>
       <c r="K24">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L24">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M24">
-        <v>0.402</v>
+        <v>0.379</v>
       </c>
       <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>39</v>
+      </c>
+      <c r="P24">
+        <v>0.256</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24">
+        <v>0.773</v>
+      </c>
+      <c r="T24">
         <v>11</v>
       </c>
-      <c r="O24">
-        <v>36</v>
-      </c>
-      <c r="P24">
-        <v>0.306</v>
-      </c>
-      <c r="Q24">
-        <v>31</v>
-      </c>
-      <c r="R24">
-        <v>37</v>
-      </c>
-      <c r="S24">
-        <v>0.838</v>
-      </c>
-      <c r="T24">
-        <v>14</v>
-      </c>
       <c r="U24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V24">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X24">
         <v>4</v>
@@ -3116,13 +3116,13 @@
         <v>5</v>
       </c>
       <c r="Z24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB24">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3130,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -3145,61 +3145,61 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>0.612</v>
+        <v>0.571</v>
       </c>
       <c r="J25">
         <v>240</v>
       </c>
       <c r="K25">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M25">
-        <v>0.49</v>
+        <v>0.451</v>
       </c>
       <c r="N25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O25">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P25">
-        <v>0.435</v>
+        <v>0.469</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>0.786</v>
+        <v>0.75</v>
       </c>
       <c r="T25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V25">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z25">
         <v>9</v>
@@ -3208,7 +3208,7 @@
         <v>18</v>
       </c>
       <c r="AB25">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3216,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -3228,70 +3228,70 @@
         <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>0.604</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J26">
         <v>240</v>
       </c>
       <c r="K26">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>90</v>
+      </c>
+      <c r="M26">
+        <v>0.444</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>0.333</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+      <c r="R26">
+        <v>24</v>
+      </c>
+      <c r="S26">
+        <v>0.792</v>
+      </c>
+      <c r="T26">
+        <v>14</v>
+      </c>
+      <c r="U26">
         <v>36</v>
       </c>
-      <c r="L26">
-        <v>99</v>
-      </c>
-      <c r="M26">
-        <v>0.364</v>
-      </c>
-      <c r="N26">
-        <v>21</v>
-      </c>
-      <c r="O26">
-        <v>54</v>
-      </c>
-      <c r="P26">
-        <v>0.389</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
-      </c>
-      <c r="R26">
+      <c r="V26">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>17</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
         <v>22</v>
-      </c>
-      <c r="S26">
-        <v>0.727</v>
-      </c>
-      <c r="T26">
-        <v>13</v>
-      </c>
-      <c r="U26">
-        <v>32</v>
-      </c>
-      <c r="V26">
-        <v>45</v>
-      </c>
-      <c r="W26">
-        <v>19</v>
-      </c>
-      <c r="X26">
-        <v>11</v>
-      </c>
-      <c r="Y26">
-        <v>3</v>
-      </c>
-      <c r="Z26">
-        <v>13</v>
-      </c>
-      <c r="AA26">
-        <v>18</v>
       </c>
       <c r="AB26">
         <v>109</v>
@@ -3302,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3317,70 +3317,70 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27">
-        <v>0.617</v>
+        <v>0.553</v>
       </c>
       <c r="J27">
         <v>240</v>
       </c>
       <c r="K27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M27">
-        <v>0.512</v>
+        <v>0.466</v>
       </c>
       <c r="N27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P27">
-        <v>0.533</v>
+        <v>0.324</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>0.923</v>
+        <v>0.5</v>
       </c>
       <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>43</v>
+      </c>
+      <c r="V27">
+        <v>47</v>
+      </c>
+      <c r="W27">
+        <v>19</v>
+      </c>
+      <c r="X27">
         <v>6</v>
       </c>
-      <c r="U27">
-        <v>37</v>
-      </c>
-      <c r="V27">
-        <v>43</v>
-      </c>
-      <c r="W27">
-        <v>27</v>
-      </c>
-      <c r="X27">
-        <v>11</v>
-      </c>
       <c r="Y27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA27">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AB27">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3388,7 +3388,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -3403,70 +3403,70 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28">
-        <v>0.609</v>
+        <v>0.543</v>
       </c>
       <c r="J28">
         <v>240</v>
       </c>
       <c r="K28">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L28">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M28">
-        <v>0.474</v>
+        <v>0.494</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P28">
-        <v>0.294</v>
+        <v>0.487</v>
       </c>
       <c r="Q28">
+        <v>18</v>
+      </c>
+      <c r="R28">
+        <v>25</v>
+      </c>
+      <c r="S28">
+        <v>0.72</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>39</v>
+      </c>
+      <c r="V28">
+        <v>43</v>
+      </c>
+      <c r="W28">
         <v>20</v>
       </c>
-      <c r="R28">
-        <v>24</v>
-      </c>
-      <c r="S28">
-        <v>0.833</v>
-      </c>
-      <c r="T28">
-        <v>13</v>
-      </c>
-      <c r="U28">
-        <v>34</v>
-      </c>
-      <c r="V28">
-        <v>47</v>
-      </c>
-      <c r="W28">
-        <v>24</v>
-      </c>
       <c r="X28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y28">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Z28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA28">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB28">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3474,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -3489,70 +3489,70 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29">
-        <v>0.6</v>
+        <v>0.533</v>
       </c>
       <c r="J29">
         <v>240</v>
       </c>
       <c r="K29">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L29">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M29">
-        <v>0.471</v>
+        <v>0.531</v>
       </c>
       <c r="N29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O29">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P29">
-        <v>0.45</v>
+        <v>0.364</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>35</v>
+      </c>
+      <c r="V29">
+        <v>43</v>
+      </c>
+      <c r="W29">
+        <v>30</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AA29">
         <v>21</v>
       </c>
-      <c r="S29">
-        <v>0.667</v>
-      </c>
-      <c r="T29">
-        <v>10</v>
-      </c>
-      <c r="U29">
-        <v>36</v>
-      </c>
-      <c r="V29">
-        <v>46</v>
-      </c>
-      <c r="W29">
-        <v>21</v>
-      </c>
-      <c r="X29">
-        <v>7</v>
-      </c>
-      <c r="Y29">
-        <v>9</v>
-      </c>
-      <c r="Z29">
-        <v>16</v>
-      </c>
-      <c r="AA29">
-        <v>18</v>
-      </c>
       <c r="AB29">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3560,7 +3560,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -3572,73 +3572,73 @@
         <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>0.591</v>
+        <v>0.523</v>
       </c>
       <c r="J30">
         <v>240</v>
       </c>
       <c r="K30">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L30">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>0.478</v>
+        <v>0.446</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P30">
-        <v>0.435</v>
+        <v>0.323</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S30">
-        <v>0.895</v>
+        <v>0.792</v>
       </c>
       <c r="T30">
         <v>10</v>
       </c>
       <c r="U30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
         <v>7</v>
       </c>
-      <c r="Z30">
-        <v>10</v>
-      </c>
       <c r="AA30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AB30">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3646,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3661,70 +3661,70 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>0.581</v>
+        <v>0.535</v>
       </c>
       <c r="J31">
         <v>240</v>
       </c>
       <c r="K31">
+        <v>39</v>
+      </c>
+      <c r="L31">
+        <v>95</v>
+      </c>
+      <c r="M31">
+        <v>0.411</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <v>0.229</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
+        <v>0.571</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+      <c r="U31">
         <v>36</v>
       </c>
-      <c r="L31">
-        <v>90</v>
-      </c>
-      <c r="M31">
-        <v>0.4</v>
-      </c>
-      <c r="N31">
-        <v>19</v>
-      </c>
-      <c r="O31">
-        <v>55</v>
-      </c>
-      <c r="P31">
-        <v>0.345</v>
-      </c>
-      <c r="Q31">
-        <v>21</v>
-      </c>
-      <c r="R31">
-        <v>23</v>
-      </c>
-      <c r="S31">
-        <v>0.913</v>
-      </c>
-      <c r="T31">
-        <v>13</v>
-      </c>
-      <c r="U31">
-        <v>31</v>
-      </c>
       <c r="V31">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="W31">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="X31">
         <v>4</v>
       </c>
       <c r="Y31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z31">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB31">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3732,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -3741,76 +3741,76 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I32">
-        <v>0.595</v>
+        <v>0.548</v>
       </c>
       <c r="J32">
         <v>240</v>
       </c>
       <c r="K32">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L32">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M32">
-        <v>0.382</v>
+        <v>0.485</v>
       </c>
       <c r="N32">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P32">
-        <v>0.22</v>
+        <v>0.364</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S32">
-        <v>0.789</v>
+        <v>0.727</v>
       </c>
       <c r="T32">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U32">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V32">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="W32">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="X32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB32">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3818,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -3833,70 +3833,70 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I33">
-        <v>0.61</v>
+        <v>0.537</v>
       </c>
       <c r="J33">
         <v>240</v>
       </c>
       <c r="K33">
+        <v>48</v>
+      </c>
+      <c r="L33">
+        <v>86</v>
+      </c>
+      <c r="M33">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="N33">
+        <v>19</v>
+      </c>
+      <c r="O33">
+        <v>37</v>
+      </c>
+      <c r="P33">
+        <v>0.514</v>
+      </c>
+      <c r="Q33">
+        <v>17</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>0.85</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
         <v>44</v>
       </c>
-      <c r="L33">
-        <v>93</v>
-      </c>
-      <c r="M33">
-        <v>0.473</v>
-      </c>
-      <c r="N33">
-        <v>22</v>
-      </c>
-      <c r="O33">
-        <v>47</v>
-      </c>
-      <c r="P33">
-        <v>0.468</v>
-      </c>
-      <c r="Q33">
-        <v>15</v>
-      </c>
-      <c r="R33">
+      <c r="V33">
+        <v>52</v>
+      </c>
+      <c r="W33">
+        <v>23</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>10</v>
+      </c>
+      <c r="AA33">
         <v>17</v>
       </c>
-      <c r="S33">
-        <v>0.882</v>
-      </c>
-      <c r="T33">
-        <v>13</v>
-      </c>
-      <c r="U33">
-        <v>30</v>
-      </c>
-      <c r="V33">
-        <v>43</v>
-      </c>
-      <c r="W33">
-        <v>17</v>
-      </c>
-      <c r="X33">
-        <v>5</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>6</v>
-      </c>
-      <c r="AA33">
-        <v>15</v>
-      </c>
       <c r="AB33">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -3913,76 +3913,76 @@
         <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I34">
-        <v>0.6</v>
+        <v>0.525</v>
       </c>
       <c r="J34">
         <v>240</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M34">
-        <v>0.379</v>
+        <v>0.543</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34">
-        <v>0.326</v>
+        <v>0.452</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="R34">
+        <v>13</v>
+      </c>
+      <c r="S34">
+        <v>0.923</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>34</v>
+      </c>
+      <c r="V34">
+        <v>39</v>
+      </c>
+      <c r="W34">
         <v>25</v>
       </c>
-      <c r="S34">
-        <v>0.84</v>
-      </c>
-      <c r="T34">
-        <v>14</v>
-      </c>
-      <c r="U34">
-        <v>36</v>
-      </c>
-      <c r="V34">
-        <v>50</v>
-      </c>
-      <c r="W34">
-        <v>11</v>
-      </c>
       <c r="X34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA34">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB34">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -4005,70 +4005,70 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35">
-        <v>0.59</v>
+        <v>0.538</v>
       </c>
       <c r="J35">
         <v>240</v>
       </c>
       <c r="K35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L35">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M35">
-        <v>0.521</v>
+        <v>0.506</v>
       </c>
       <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>34</v>
+      </c>
+      <c r="P35">
+        <v>0.441</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+      <c r="S35">
+        <v>0.833</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>37</v>
+      </c>
+      <c r="V35">
+        <v>43</v>
+      </c>
+      <c r="W35">
+        <v>14</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
         <v>18</v>
       </c>
-      <c r="O35">
-        <v>43</v>
-      </c>
-      <c r="P35">
-        <v>0.419</v>
-      </c>
-      <c r="Q35">
-        <v>31</v>
-      </c>
-      <c r="R35">
-        <v>31</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>4</v>
-      </c>
-      <c r="U35">
-        <v>28</v>
-      </c>
-      <c r="V35">
-        <v>32</v>
-      </c>
-      <c r="W35">
-        <v>20</v>
-      </c>
-      <c r="X35">
-        <v>8</v>
-      </c>
-      <c r="Y35">
-        <v>8</v>
-      </c>
-      <c r="Z35">
-        <v>17</v>
-      </c>
       <c r="AA35">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB35">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4076,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -4085,19 +4085,19 @@
         <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>0.579</v>
+        <v>0.526</v>
       </c>
       <c r="J36">
         <v>240</v>
@@ -4106,55 +4106,55 @@
         <v>39</v>
       </c>
       <c r="L36">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M36">
-        <v>0.438</v>
+        <v>0.494</v>
       </c>
       <c r="N36">
         <v>17</v>
       </c>
       <c r="O36">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P36">
-        <v>0.378</v>
+        <v>0.415</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="S36">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U36">
+        <v>29</v>
+      </c>
+      <c r="V36">
         <v>33</v>
       </c>
-      <c r="V36">
-        <v>42</v>
-      </c>
       <c r="W36">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA36">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AB36">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -4162,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -4177,70 +4177,70 @@
         <v>5</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I37">
-        <v>0.595</v>
+        <v>0.541</v>
       </c>
       <c r="J37">
         <v>240</v>
       </c>
       <c r="K37">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M37">
-        <v>0.483</v>
+        <v>0.488</v>
       </c>
       <c r="N37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O37">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P37">
-        <v>0.325</v>
+        <v>0.391</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R37">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S37">
-        <v>0.867</v>
+        <v>0.875</v>
       </c>
       <c r="T37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U37">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V37">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="W37">
         <v>26</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>8</v>
       </c>
       <c r="AA37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB37">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4248,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -4257,76 +4257,76 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>0.583</v>
+        <v>0.528</v>
       </c>
       <c r="J38">
         <v>240</v>
       </c>
       <c r="K38">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L38">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M38">
-        <v>0.457</v>
+        <v>0.427</v>
       </c>
       <c r="N38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O38">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P38">
-        <v>0.419</v>
+        <v>0.441</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R38">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="S38">
-        <v>0.895</v>
+        <v>0.697</v>
       </c>
       <c r="T38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U38">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V38">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W38">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z38">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA38">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB38">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4334,7 +4334,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -4343,76 +4343,76 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="G39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>0.6</v>
+        <v>0.543</v>
       </c>
       <c r="J39">
         <v>240</v>
       </c>
       <c r="K39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L39">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M39">
-        <v>0.477</v>
+        <v>0.518</v>
       </c>
       <c r="N39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O39">
+        <v>40</v>
+      </c>
+      <c r="P39">
+        <v>0.325</v>
+      </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+      <c r="R39">
+        <v>19</v>
+      </c>
+      <c r="S39">
+        <v>0.842</v>
+      </c>
+      <c r="T39">
+        <v>13</v>
+      </c>
+      <c r="U39">
         <v>38</v>
       </c>
-      <c r="P39">
-        <v>0.395</v>
-      </c>
-      <c r="Q39">
-        <v>24</v>
-      </c>
-      <c r="R39">
-        <v>25</v>
-      </c>
-      <c r="S39">
-        <v>0.96</v>
-      </c>
-      <c r="T39">
-        <v>9</v>
-      </c>
-      <c r="U39">
-        <v>32</v>
-      </c>
       <c r="V39">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="W39">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="X39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AB39">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4420,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -4429,76 +4429,76 @@
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>0.588</v>
+        <v>0.529</v>
       </c>
       <c r="J40">
         <v>240</v>
       </c>
       <c r="K40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L40">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M40">
-        <v>0.419</v>
+        <v>0.386</v>
       </c>
       <c r="N40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O40">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P40">
-        <v>0.286</v>
+        <v>0.2</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R40">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S40">
-        <v>0.846</v>
+        <v>0.789</v>
       </c>
       <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <v>46</v>
+      </c>
+      <c r="V40">
+        <v>53</v>
+      </c>
+      <c r="W40">
+        <v>18</v>
+      </c>
+      <c r="X40">
         <v>8</v>
       </c>
-      <c r="U40">
-        <v>39</v>
-      </c>
-      <c r="V40">
-        <v>47</v>
-      </c>
-      <c r="W40">
-        <v>15</v>
-      </c>
-      <c r="X40">
-        <v>5</v>
-      </c>
       <c r="Y40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB40">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4506,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -4515,76 +4515,76 @@
         <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
       <c r="G41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>0.576</v>
+        <v>0.515</v>
       </c>
       <c r="J41">
         <v>240</v>
       </c>
       <c r="K41">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L41">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M41">
-        <v>0.535</v>
+        <v>0.522</v>
       </c>
       <c r="N41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O41">
         <v>46</v>
       </c>
       <c r="P41">
-        <v>0.522</v>
+        <v>0.37</v>
       </c>
       <c r="Q41">
+        <v>19</v>
+      </c>
+      <c r="R41">
+        <v>23</v>
+      </c>
+      <c r="S41">
+        <v>0.826</v>
+      </c>
+      <c r="T41">
         <v>7</v>
       </c>
-      <c r="R41">
-        <v>10</v>
-      </c>
-      <c r="S41">
-        <v>0.7</v>
-      </c>
-      <c r="T41">
+      <c r="U41">
+        <v>39</v>
+      </c>
+      <c r="V41">
+        <v>46</v>
+      </c>
+      <c r="W41">
+        <v>29</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>6</v>
+      </c>
+      <c r="Z41">
         <v>8</v>
       </c>
-      <c r="U41">
-        <v>30</v>
-      </c>
-      <c r="V41">
-        <v>38</v>
-      </c>
-      <c r="W41">
-        <v>26</v>
-      </c>
-      <c r="X41">
+      <c r="AA41">
         <v>12</v>
       </c>
-      <c r="Y41">
-        <v>7</v>
-      </c>
-      <c r="Z41">
-        <v>15</v>
-      </c>
-      <c r="AA41">
-        <v>15</v>
-      </c>
       <c r="AB41">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4592,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -4601,76 +4601,76 @@
         <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>0.5629999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J42">
         <v>240</v>
       </c>
       <c r="K42">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L42">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M42">
-        <v>0.386</v>
+        <v>0.523</v>
       </c>
       <c r="N42">
+        <v>14</v>
+      </c>
+      <c r="O42">
+        <v>36</v>
+      </c>
+      <c r="P42">
+        <v>0.389</v>
+      </c>
+      <c r="Q42">
         <v>11</v>
       </c>
-      <c r="O42">
-        <v>37</v>
-      </c>
-      <c r="P42">
-        <v>0.297</v>
-      </c>
-      <c r="Q42">
-        <v>18</v>
-      </c>
       <c r="R42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S42">
-        <v>0.9</v>
+        <v>0.647</v>
       </c>
       <c r="T42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U42">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V42">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="W42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Y42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
         <v>15</v>
       </c>
-      <c r="AA42">
-        <v>21</v>
-      </c>
       <c r="AB42">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4678,7 +4678,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -4687,76 +4687,76 @@
         <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I43">
-        <v>0.581</v>
+        <v>0.484</v>
       </c>
       <c r="J43">
         <v>240</v>
       </c>
       <c r="K43">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M43">
-        <v>0.471</v>
+        <v>0.41</v>
       </c>
       <c r="N43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O43">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P43">
-        <v>0.341</v>
+        <v>0.382</v>
       </c>
       <c r="Q43">
+        <v>20</v>
+      </c>
+      <c r="R43">
+        <v>23</v>
+      </c>
+      <c r="S43">
+        <v>0.87</v>
+      </c>
+      <c r="T43">
         <v>10</v>
-      </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>7</v>
       </c>
       <c r="U43">
         <v>40</v>
       </c>
       <c r="V43">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W43">
+        <v>17</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>9</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
         <v>21</v>
       </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>7</v>
-      </c>
-      <c r="Z43">
-        <v>9</v>
-      </c>
-      <c r="AA43">
-        <v>19</v>
-      </c>
       <c r="AB43">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4764,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -4773,76 +4773,76 @@
         <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
         <v>240</v>
       </c>
       <c r="K44">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L44">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M44">
-        <v>0.44</v>
+        <v>0.472</v>
       </c>
       <c r="N44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O44">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P44">
-        <v>0.308</v>
+        <v>0.394</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R44">
+        <v>15</v>
+      </c>
+      <c r="S44">
+        <v>0.867</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+      <c r="U44">
+        <v>30</v>
+      </c>
+      <c r="V44">
+        <v>38</v>
+      </c>
+      <c r="W44">
         <v>19</v>
       </c>
-      <c r="S44">
-        <v>0.737</v>
-      </c>
-      <c r="T44">
-        <v>13</v>
-      </c>
-      <c r="U44">
-        <v>33</v>
-      </c>
-      <c r="V44">
-        <v>46</v>
-      </c>
-      <c r="W44">
-        <v>15</v>
-      </c>
       <c r="X44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AA44">
         <v>17</v>
       </c>
       <c r="AB44">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4850,7 +4850,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -4859,76 +4859,76 @@
         <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>0.621</v>
+        <v>0.483</v>
       </c>
       <c r="J45">
         <v>240</v>
       </c>
       <c r="K45">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L45">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>0.359</v>
+        <v>0.438</v>
       </c>
       <c r="N45">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O45">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P45">
-        <v>0.345</v>
+        <v>0.366</v>
       </c>
       <c r="Q45">
+        <v>17</v>
+      </c>
+      <c r="R45">
+        <v>26</v>
+      </c>
+      <c r="S45">
+        <v>0.654</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <v>49</v>
+      </c>
+      <c r="W45">
+        <v>17</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+      <c r="Z45">
+        <v>16</v>
+      </c>
+      <c r="AA45">
         <v>18</v>
       </c>
-      <c r="R45">
-        <v>25</v>
-      </c>
-      <c r="S45">
-        <v>0.72</v>
-      </c>
-      <c r="T45">
-        <v>17</v>
-      </c>
-      <c r="U45">
-        <v>33</v>
-      </c>
-      <c r="V45">
-        <v>50</v>
-      </c>
-      <c r="W45">
-        <v>19</v>
-      </c>
-      <c r="X45">
-        <v>10</v>
-      </c>
-      <c r="Y45">
-        <v>7</v>
-      </c>
-      <c r="Z45">
-        <v>12</v>
-      </c>
-      <c r="AA45">
-        <v>22</v>
-      </c>
       <c r="AB45">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4936,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -4945,76 +4945,76 @@
         <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I46">
-        <v>0.643</v>
+        <v>0.464</v>
       </c>
       <c r="J46">
         <v>240</v>
       </c>
       <c r="K46">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L46">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M46">
-        <v>0.511</v>
+        <v>0.494</v>
       </c>
       <c r="N46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O46">
         <v>41</v>
       </c>
       <c r="P46">
-        <v>0.439</v>
+        <v>0.341</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R46">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S46">
-        <v>0.889</v>
+        <v>0.96</v>
       </c>
       <c r="T46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V46">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W46">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
         <v>6</v>
       </c>
-      <c r="Y46">
-        <v>7</v>
-      </c>
       <c r="Z46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA46">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB46">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -5022,7 +5022,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -5031,76 +5031,76 @@
         <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I47">
-        <v>0.63</v>
+        <v>0.481</v>
       </c>
       <c r="J47">
         <v>240</v>
       </c>
       <c r="K47">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L47">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M47">
-        <v>0.438</v>
+        <v>0.58</v>
       </c>
       <c r="N47">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O47">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P47">
-        <v>0.426</v>
+        <v>0.556</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S47">
-        <v>0.647</v>
+        <v>0.762</v>
       </c>
       <c r="T47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U47">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="V47">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="W47">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X47">
+        <v>4</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
         <v>6</v>
       </c>
-      <c r="Y47">
-        <v>8</v>
-      </c>
-      <c r="Z47">
-        <v>10</v>
-      </c>
       <c r="AA47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB47">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -5108,7 +5108,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -5117,76 +5117,76 @@
         <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I48">
-        <v>0.615</v>
+        <v>0.462</v>
       </c>
       <c r="J48">
         <v>240</v>
       </c>
       <c r="K48">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L48">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48">
-        <v>0.529</v>
+        <v>0.512</v>
       </c>
       <c r="N48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>35</v>
+      </c>
+      <c r="P48">
+        <v>0.4</v>
+      </c>
+      <c r="Q48">
         <v>18</v>
       </c>
-      <c r="O48">
-        <v>40</v>
-      </c>
-      <c r="P48">
-        <v>0.45</v>
-      </c>
-      <c r="Q48">
-        <v>13</v>
-      </c>
       <c r="R48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S48">
-        <v>0.6840000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T48">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="V48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W48">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="X48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z48">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB48">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -5194,7 +5194,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -5203,76 +5203,76 @@
         <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I49">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="J49">
         <v>240</v>
       </c>
       <c r="K49">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M49">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="N49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P49">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="Q49">
+        <v>25</v>
+      </c>
+      <c r="R49">
         <v>30</v>
       </c>
-      <c r="R49">
-        <v>33</v>
-      </c>
       <c r="S49">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="T49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U49">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V49">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W49">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z49">
         <v>14</v>
       </c>
       <c r="AA49">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AB49">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -5280,7 +5280,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -5289,49 +5289,49 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
       </c>
       <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
         <v>14</v>
       </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
       <c r="I50">
-        <v>0.583</v>
+        <v>0.417</v>
       </c>
       <c r="J50">
         <v>240</v>
       </c>
       <c r="K50">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L50">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M50">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
       <c r="N50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O50">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P50">
         <v>0.447</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S50">
-        <v>0.913</v>
+        <v>0.833</v>
       </c>
       <c r="T50">
         <v>15</v>
@@ -5343,22 +5343,22 @@
         <v>47</v>
       </c>
       <c r="W50">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X50">
         <v>5</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB50">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -5366,7 +5366,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -5375,76 +5375,76 @@
         <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>0.5649999999999999</v>
+        <v>0.391</v>
       </c>
       <c r="J51">
         <v>240</v>
       </c>
       <c r="K51">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L51">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M51">
-        <v>0.389</v>
+        <v>0.413</v>
       </c>
       <c r="N51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O51">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P51">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R51">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S51">
-        <v>0.947</v>
+        <v>0.87</v>
       </c>
       <c r="T51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U51">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="V51">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA51">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AB51">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5452,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -5461,76 +5461,76 @@
         <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I52">
-        <v>0.545</v>
+        <v>0.409</v>
       </c>
       <c r="J52">
         <v>240</v>
       </c>
       <c r="K52">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L52">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M52">
-        <v>0.416</v>
+        <v>0.462</v>
       </c>
       <c r="N52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O52">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P52">
-        <v>0.362</v>
+        <v>0.325</v>
       </c>
       <c r="Q52">
+        <v>23</v>
+      </c>
+      <c r="R52">
+        <v>25</v>
+      </c>
+      <c r="S52">
+        <v>0.92</v>
+      </c>
+      <c r="T52">
+        <v>13</v>
+      </c>
+      <c r="U52">
+        <v>32</v>
+      </c>
+      <c r="V52">
+        <v>45</v>
+      </c>
+      <c r="W52">
+        <v>27</v>
+      </c>
+      <c r="X52">
         <v>8</v>
-      </c>
-      <c r="R52">
-        <v>16</v>
-      </c>
-      <c r="S52">
-        <v>0.5</v>
-      </c>
-      <c r="T52">
-        <v>11</v>
-      </c>
-      <c r="U52">
-        <v>30</v>
-      </c>
-      <c r="V52">
-        <v>41</v>
-      </c>
-      <c r="W52">
-        <v>15</v>
-      </c>
-      <c r="X52">
-        <v>7</v>
       </c>
       <c r="Y52">
         <v>7</v>
       </c>
       <c r="Z52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB52">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5538,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -5547,76 +5547,76 @@
         <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I53">
-        <v>0.571</v>
+        <v>0.381</v>
       </c>
       <c r="J53">
         <v>240</v>
       </c>
       <c r="K53">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L53">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M53">
-        <v>0.459</v>
+        <v>0.43</v>
       </c>
       <c r="N53">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O53">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P53">
-        <v>0.419</v>
+        <v>0.313</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S53">
-        <v>0.783</v>
+        <v>0.96</v>
       </c>
       <c r="T53">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="U53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V53">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="W53">
+        <v>16</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>7</v>
+      </c>
+      <c r="Z53">
+        <v>14</v>
+      </c>
+      <c r="AA53">
         <v>17</v>
       </c>
-      <c r="X53">
-        <v>8</v>
-      </c>
-      <c r="Y53">
-        <v>5</v>
-      </c>
-      <c r="Z53">
-        <v>11</v>
-      </c>
-      <c r="AA53">
-        <v>18</v>
-      </c>
       <c r="AB53">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5624,7 +5624,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -5633,19 +5633,19 @@
         <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I54">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="J54">
         <v>240</v>
@@ -5654,55 +5654,55 @@
         <v>44</v>
       </c>
       <c r="L54">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M54">
-        <v>0.463</v>
+        <v>0.53</v>
       </c>
       <c r="N54">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O54">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="P54">
-        <v>0.457</v>
+        <v>0.31</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R54">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="T54">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="W54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA54">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB54">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5710,7 +5710,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
@@ -5719,76 +5719,76 @@
         <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>0.526</v>
+        <v>0.421</v>
       </c>
       <c r="J55">
         <v>240</v>
       </c>
       <c r="K55">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L55">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="M55">
-        <v>0.375</v>
+        <v>0.43</v>
       </c>
       <c r="N55">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O55">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P55">
-        <v>0.357</v>
+        <v>0.273</v>
       </c>
       <c r="Q55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R55">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="T55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="U55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V55">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W55">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z55">
         <v>11</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AB55">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5796,7 +5796,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -5805,76 +5805,76 @@
         <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="H56">
-        <v>8</v>
-      </c>
       <c r="I56">
-        <v>0.556</v>
+        <v>0.444</v>
       </c>
       <c r="J56">
         <v>240</v>
       </c>
       <c r="K56">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L56">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M56">
-        <v>0.511</v>
+        <v>0.462</v>
       </c>
       <c r="N56">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O56">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P56">
-        <v>0.405</v>
+        <v>0.343</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R56">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="S56">
-        <v>0.842</v>
+        <v>0.889</v>
       </c>
       <c r="T56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U56">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="V56">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z56">
         <v>8</v>
       </c>
       <c r="AA56">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB56">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5882,7 +5882,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
@@ -5891,76 +5891,76 @@
         <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
       </c>
       <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
         <v>9</v>
       </c>
-      <c r="H57">
-        <v>8</v>
-      </c>
       <c r="I57">
-        <v>0.529</v>
+        <v>0.471</v>
       </c>
       <c r="J57">
         <v>240</v>
       </c>
       <c r="K57">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L57">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M57">
-        <v>0.419</v>
+        <v>0.488</v>
       </c>
       <c r="N57">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O57">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P57">
-        <v>0.415</v>
+        <v>0.344</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R57">
+        <v>24</v>
+      </c>
+      <c r="S57">
+        <v>0.833</v>
+      </c>
+      <c r="T57">
         <v>8</v>
       </c>
-      <c r="S57">
-        <v>0.75</v>
-      </c>
-      <c r="T57">
-        <v>10</v>
-      </c>
       <c r="U57">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="V57">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="W57">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="X57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z57">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB57">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5968,7 +5968,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
@@ -5977,76 +5977,76 @@
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I58">
-        <v>0.5629999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J58">
         <v>240</v>
       </c>
       <c r="K58">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L58">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M58">
-        <v>0.469</v>
+        <v>0.446</v>
       </c>
       <c r="N58">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O58">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="P58">
-        <v>0.341</v>
+        <v>0.2</v>
       </c>
       <c r="Q58">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="R58">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="S58">
-        <v>0.762</v>
+        <v>0.725</v>
       </c>
       <c r="T58">
+        <v>10</v>
+      </c>
+      <c r="U58">
+        <v>26</v>
+      </c>
+      <c r="V58">
+        <v>36</v>
+      </c>
+      <c r="W58">
         <v>15</v>
       </c>
-      <c r="U58">
-        <v>35</v>
-      </c>
-      <c r="V58">
-        <v>50</v>
-      </c>
-      <c r="W58">
-        <v>17</v>
-      </c>
       <c r="X58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA58">
         <v>23</v>
       </c>
       <c r="AB58">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -6054,7 +6054,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
@@ -6063,76 +6063,76 @@
         <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I59">
-        <v>0.6</v>
+        <v>0.533</v>
       </c>
       <c r="J59">
         <v>240</v>
       </c>
       <c r="K59">
+        <v>45</v>
+      </c>
+      <c r="L59">
+        <v>93</v>
+      </c>
+      <c r="M59">
+        <v>0.484</v>
+      </c>
+      <c r="N59">
+        <v>14</v>
+      </c>
+      <c r="O59">
         <v>39</v>
       </c>
-      <c r="L59">
-        <v>83</v>
-      </c>
-      <c r="M59">
-        <v>0.47</v>
-      </c>
-      <c r="N59">
-        <v>17</v>
-      </c>
-      <c r="O59">
-        <v>46</v>
-      </c>
       <c r="P59">
-        <v>0.37</v>
+        <v>0.359</v>
       </c>
       <c r="Q59">
+        <v>18</v>
+      </c>
+      <c r="R59">
+        <v>20</v>
+      </c>
+      <c r="S59">
+        <v>0.9</v>
+      </c>
+      <c r="T59">
+        <v>7</v>
+      </c>
+      <c r="U59">
+        <v>35</v>
+      </c>
+      <c r="V59">
+        <v>42</v>
+      </c>
+      <c r="W59">
+        <v>23</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+      <c r="AA59">
         <v>21</v>
       </c>
-      <c r="R59">
-        <v>23</v>
-      </c>
-      <c r="S59">
-        <v>0.913</v>
-      </c>
-      <c r="T59">
-        <v>9</v>
-      </c>
-      <c r="U59">
-        <v>30</v>
-      </c>
-      <c r="V59">
-        <v>39</v>
-      </c>
-      <c r="W59">
-        <v>19</v>
-      </c>
-      <c r="X59">
-        <v>5</v>
-      </c>
-      <c r="Y59">
-        <v>8</v>
-      </c>
-      <c r="Z59">
-        <v>11</v>
-      </c>
-      <c r="AA59">
-        <v>16</v>
-      </c>
       <c r="AB59">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -6140,7 +6140,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C60" t="s">
         <v>85</v>
@@ -6149,76 +6149,76 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="J60">
         <v>240</v>
       </c>
       <c r="K60">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L60">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M60">
-        <v>0.433</v>
+        <v>0.526</v>
       </c>
       <c r="N60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P60">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="Q60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S60">
-        <v>0.842</v>
+        <v>0.824</v>
       </c>
       <c r="T60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U60">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="V60">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="W60">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y60">
         <v>6</v>
       </c>
       <c r="Z60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB60">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6226,7 +6226,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
@@ -6235,76 +6235,76 @@
         <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I61">
-        <v>0.615</v>
+        <v>0.462</v>
       </c>
       <c r="J61">
         <v>240</v>
       </c>
       <c r="K61">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L61">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="M61">
-        <v>0.388</v>
+        <v>0.378</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O61">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P61">
-        <v>0.341</v>
+        <v>0.25</v>
       </c>
       <c r="Q61">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R61">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S61">
-        <v>0.85</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="T61">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U61">
+        <v>30</v>
+      </c>
+      <c r="V61">
         <v>38</v>
       </c>
-      <c r="V61">
-        <v>55</v>
-      </c>
       <c r="W61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X61">
         <v>6</v>
       </c>
       <c r="Y61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z61">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AA61">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB61">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6312,7 +6312,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
@@ -6321,76 +6321,76 @@
         <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>0.583</v>
+        <v>0.5</v>
       </c>
       <c r="J62">
         <v>240</v>
       </c>
       <c r="K62">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L62">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M62">
-        <v>0.368</v>
+        <v>0.441</v>
       </c>
       <c r="N62">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O62">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P62">
-        <v>0.302</v>
+        <v>0.258</v>
       </c>
       <c r="Q62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R62">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="T62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U62">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="V62">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="W62">
+        <v>18</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>2</v>
+      </c>
+      <c r="Z62">
         <v>16</v>
       </c>
-      <c r="X62">
-        <v>8</v>
-      </c>
-      <c r="Y62">
-        <v>5</v>
-      </c>
-      <c r="Z62">
-        <v>18</v>
-      </c>
       <c r="AA62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB62">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6398,7 +6398,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C63" t="s">
         <v>88</v>
@@ -6407,76 +6407,76 @@
         <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
         <v>5</v>
       </c>
-      <c r="G63">
-        <v>7</v>
-      </c>
-      <c r="H63">
-        <v>4</v>
-      </c>
       <c r="I63">
-        <v>0.636</v>
+        <v>0.545</v>
       </c>
       <c r="J63">
         <v>240</v>
       </c>
       <c r="K63">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L63">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M63">
-        <v>0.489</v>
+        <v>0.464</v>
       </c>
       <c r="N63">
+        <v>13</v>
+      </c>
+      <c r="O63">
+        <v>36</v>
+      </c>
+      <c r="P63">
+        <v>0.361</v>
+      </c>
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63">
+        <v>13</v>
+      </c>
+      <c r="S63">
+        <v>0.462</v>
+      </c>
+      <c r="T63">
+        <v>11</v>
+      </c>
+      <c r="U63">
+        <v>40</v>
+      </c>
+      <c r="V63">
+        <v>51</v>
+      </c>
+      <c r="W63">
+        <v>22</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>6</v>
+      </c>
+      <c r="Z63">
+        <v>9</v>
+      </c>
+      <c r="AA63">
         <v>23</v>
       </c>
-      <c r="O63">
-        <v>48</v>
-      </c>
-      <c r="P63">
-        <v>0.479</v>
-      </c>
-      <c r="Q63">
-        <v>21</v>
-      </c>
-      <c r="R63">
-        <v>27</v>
-      </c>
-      <c r="S63">
-        <v>0.778</v>
-      </c>
-      <c r="T63">
-        <v>12</v>
-      </c>
-      <c r="U63">
-        <v>26</v>
-      </c>
-      <c r="V63">
-        <v>38</v>
-      </c>
-      <c r="W63">
-        <v>28</v>
-      </c>
-      <c r="X63">
-        <v>9</v>
-      </c>
-      <c r="Y63">
-        <v>8</v>
-      </c>
-      <c r="Z63">
-        <v>8</v>
-      </c>
-      <c r="AA63">
-        <v>24</v>
-      </c>
       <c r="AB63">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6484,7 +6484,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C64" t="s">
         <v>89</v>
@@ -6493,7 +6493,7 @@
         <v>161</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -6511,58 +6511,58 @@
         <v>240</v>
       </c>
       <c r="K64">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L64">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M64">
-        <v>0.458</v>
+        <v>0.417</v>
       </c>
       <c r="N64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O64">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P64">
-        <v>0.333</v>
+        <v>0.326</v>
       </c>
       <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>16</v>
+      </c>
+      <c r="S64">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="T64">
+        <v>13</v>
+      </c>
+      <c r="U64">
+        <v>41</v>
+      </c>
+      <c r="V64">
+        <v>54</v>
+      </c>
+      <c r="W64">
         <v>22</v>
       </c>
-      <c r="R64">
-        <v>25</v>
-      </c>
-      <c r="S64">
-        <v>0.88</v>
-      </c>
-      <c r="T64">
+      <c r="X64">
         <v>8</v>
       </c>
-      <c r="U64">
-        <v>34</v>
-      </c>
-      <c r="V64">
-        <v>42</v>
-      </c>
-      <c r="W64">
-        <v>18</v>
-      </c>
-      <c r="X64">
-        <v>9</v>
-      </c>
       <c r="Y64">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z64">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB64">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6570,7 +6570,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C65" t="s">
         <v>90</v>
@@ -6579,7 +6579,7 @@
         <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -6597,58 +6597,58 @@
         <v>240</v>
       </c>
       <c r="K65">
+        <v>39</v>
+      </c>
+      <c r="L65">
+        <v>79</v>
+      </c>
+      <c r="M65">
+        <v>0.494</v>
+      </c>
+      <c r="N65">
+        <v>20</v>
+      </c>
+      <c r="O65">
+        <v>40</v>
+      </c>
+      <c r="P65">
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>18</v>
+      </c>
+      <c r="S65">
+        <v>0.778</v>
+      </c>
+      <c r="T65">
+        <v>6</v>
+      </c>
+      <c r="U65">
+        <v>38</v>
+      </c>
+      <c r="V65">
         <v>44</v>
       </c>
-      <c r="L65">
-        <v>100</v>
-      </c>
-      <c r="M65">
-        <v>0.44</v>
-      </c>
-      <c r="N65">
+      <c r="W65">
+        <v>25</v>
+      </c>
+      <c r="X65">
+        <v>5</v>
+      </c>
+      <c r="Y65">
+        <v>8</v>
+      </c>
+      <c r="Z65">
         <v>17</v>
       </c>
-      <c r="O65">
-        <v>41</v>
-      </c>
-      <c r="P65">
-        <v>0.415</v>
-      </c>
-      <c r="Q65">
-        <v>20</v>
-      </c>
-      <c r="R65">
-        <v>23</v>
-      </c>
-      <c r="S65">
-        <v>0.87</v>
-      </c>
-      <c r="T65">
-        <v>9</v>
-      </c>
-      <c r="U65">
-        <v>41</v>
-      </c>
-      <c r="V65">
-        <v>50</v>
-      </c>
-      <c r="W65">
-        <v>26</v>
-      </c>
-      <c r="X65">
-        <v>10</v>
-      </c>
-      <c r="Y65">
-        <v>5</v>
-      </c>
-      <c r="Z65">
-        <v>8</v>
-      </c>
       <c r="AA65">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AB65">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6656,7 +6656,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C66" t="s">
         <v>91</v>
@@ -6665,7 +6665,7 @@
         <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -6680,61 +6680,61 @@
         <v>0.5</v>
       </c>
       <c r="J66">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K66">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L66">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M66">
-        <v>0.544</v>
+        <v>0.483</v>
       </c>
       <c r="N66">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O66">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P66">
-        <v>0.439</v>
+        <v>0.4</v>
       </c>
       <c r="Q66">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R66">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="S66">
-        <v>0.826</v>
+        <v>0.774</v>
       </c>
       <c r="T66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U66">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V66">
         <v>44</v>
       </c>
       <c r="W66">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB66">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6742,7 +6742,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
@@ -6751,10 +6751,10 @@
         <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6772,55 +6772,55 @@
         <v>39</v>
       </c>
       <c r="L67">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M67">
-        <v>0.415</v>
+        <v>0.476</v>
       </c>
       <c r="N67">
+        <v>16</v>
+      </c>
+      <c r="O67">
+        <v>39</v>
+      </c>
+      <c r="P67">
+        <v>0.41</v>
+      </c>
+      <c r="Q67">
         <v>19</v>
       </c>
-      <c r="O67">
-        <v>51</v>
-      </c>
-      <c r="P67">
-        <v>0.373</v>
-      </c>
-      <c r="Q67">
-        <v>11</v>
-      </c>
       <c r="R67">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S67">
-        <v>0.647</v>
+        <v>0.95</v>
       </c>
       <c r="T67">
         <v>10</v>
       </c>
       <c r="U67">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="V67">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W67">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y67">
         <v>3</v>
       </c>
       <c r="Z67">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA67">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AB67">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6828,7 +6828,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C68" t="s">
         <v>93</v>
@@ -6837,76 +6837,76 @@
         <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="J68">
         <v>240</v>
       </c>
       <c r="K68">
+        <v>39</v>
+      </c>
+      <c r="L68">
+        <v>89</v>
+      </c>
+      <c r="M68">
+        <v>0.438</v>
+      </c>
+      <c r="N68">
+        <v>11</v>
+      </c>
+      <c r="O68">
+        <v>42</v>
+      </c>
+      <c r="P68">
+        <v>0.262</v>
+      </c>
+      <c r="Q68">
+        <v>19</v>
+      </c>
+      <c r="R68">
+        <v>27</v>
+      </c>
+      <c r="S68">
+        <v>0.704</v>
+      </c>
+      <c r="T68">
+        <v>11</v>
+      </c>
+      <c r="U68">
+        <v>30</v>
+      </c>
+      <c r="V68">
         <v>41</v>
       </c>
-      <c r="L68">
-        <v>98</v>
-      </c>
-      <c r="M68">
-        <v>0.418</v>
-      </c>
-      <c r="N68">
-        <v>14</v>
-      </c>
-      <c r="O68">
-        <v>43</v>
-      </c>
-      <c r="P68">
-        <v>0.326</v>
-      </c>
-      <c r="Q68">
-        <v>26</v>
-      </c>
-      <c r="R68">
-        <v>33</v>
-      </c>
-      <c r="S68">
-        <v>0.788</v>
-      </c>
-      <c r="T68">
-        <v>12</v>
-      </c>
-      <c r="U68">
-        <v>28</v>
-      </c>
-      <c r="V68">
-        <v>40</v>
-      </c>
       <c r="W68">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z68">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA68">
         <v>27</v>
       </c>
       <c r="AB68">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6914,7 +6914,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -6923,76 +6923,76 @@
         <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
       <c r="I69">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J69">
         <v>240</v>
       </c>
       <c r="K69">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L69">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M69">
-        <v>0.435</v>
+        <v>0.41</v>
       </c>
       <c r="N69">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O69">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P69">
-        <v>0.465</v>
+        <v>0.324</v>
       </c>
       <c r="Q69">
+        <v>17</v>
+      </c>
+      <c r="R69">
         <v>23</v>
       </c>
-      <c r="R69">
-        <v>30</v>
-      </c>
       <c r="S69">
-        <v>0.767</v>
+        <v>0.739</v>
       </c>
       <c r="T69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V69">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W69">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y69">
         <v>3</v>
       </c>
       <c r="Z69">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA69">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB69">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -7000,7 +7000,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C70" t="s">
         <v>95</v>
@@ -7009,76 +7009,76 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J70">
         <v>240</v>
       </c>
       <c r="K70">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L70">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M70">
-        <v>0.421</v>
+        <v>0.391</v>
       </c>
       <c r="N70">
         <v>12</v>
       </c>
       <c r="O70">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P70">
-        <v>0.316</v>
+        <v>0.286</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R70">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S70">
-        <v>0.853</v>
+        <v>0.576</v>
       </c>
       <c r="T70">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U70">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="V70">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W70">
+        <v>24</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>6</v>
+      </c>
+      <c r="Z70">
         <v>14</v>
       </c>
-      <c r="X70">
-        <v>5</v>
-      </c>
-      <c r="Y70">
-        <v>4</v>
-      </c>
-      <c r="Z70">
-        <v>17</v>
-      </c>
       <c r="AA70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB70">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -7086,7 +7086,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
@@ -7095,19 +7095,19 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>2</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="I71">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="J71">
         <v>240</v>
@@ -7116,55 +7116,55 @@
         <v>43</v>
       </c>
       <c r="L71">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M71">
-        <v>0.467</v>
+        <v>0.494</v>
       </c>
       <c r="N71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O71">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P71">
-        <v>0.348</v>
+        <v>0.341</v>
       </c>
       <c r="Q71">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R71">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S71">
-        <v>0.867</v>
+        <v>0.889</v>
       </c>
       <c r="T71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U71">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="V71">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W71">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
         <v>6</v>
       </c>
-      <c r="Z71">
-        <v>9</v>
-      </c>
       <c r="AA71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB71">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -7172,7 +7172,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C72" t="s">
         <v>97</v>
@@ -7181,76 +7181,76 @@
         <v>169</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K72">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L72">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="M72">
-        <v>0.461</v>
+        <v>0.494</v>
       </c>
       <c r="N72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O72">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P72">
-        <v>0.422</v>
+        <v>0.406</v>
       </c>
       <c r="Q72">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R72">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S72">
-        <v>0.652</v>
+        <v>0.769</v>
       </c>
       <c r="T72">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="V72">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="W72">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X72">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z72">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA72">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB72">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7258,7 +7258,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1610612757</v>
+        <v>1610612742</v>
       </c>
       <c r="C73" t="s">
         <v>98</v>
@@ -7285,58 +7285,58 @@
         <v>240</v>
       </c>
       <c r="K73">
+        <v>36</v>
+      </c>
+      <c r="L73">
+        <v>85</v>
+      </c>
+      <c r="M73">
+        <v>0.424</v>
+      </c>
+      <c r="N73">
+        <v>9</v>
+      </c>
+      <c r="O73">
         <v>37</v>
       </c>
-      <c r="L73">
-        <v>92</v>
-      </c>
-      <c r="M73">
-        <v>0.402</v>
-      </c>
-      <c r="N73">
-        <v>12</v>
-      </c>
-      <c r="O73">
-        <v>33</v>
-      </c>
       <c r="P73">
-        <v>0.364</v>
+        <v>0.243</v>
       </c>
       <c r="Q73">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R73">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="S73">
-        <v>0.824</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="T73">
         <v>6</v>
       </c>
       <c r="U73">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V73">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W73">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X73">
         <v>6</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA73">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB73">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -97,241 +97,241 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>0022001071</t>
-  </si>
-  <si>
-    <t>0022001057</t>
-  </si>
-  <si>
-    <t>0022000154</t>
-  </si>
-  <si>
-    <t>0022001037</t>
-  </si>
-  <si>
-    <t>0022001021</t>
-  </si>
-  <si>
-    <t>0022001007</t>
-  </si>
-  <si>
-    <t>0022000998</t>
-  </si>
-  <si>
-    <t>0022000986</t>
-  </si>
-  <si>
-    <t>0022000970</t>
-  </si>
-  <si>
-    <t>0022000964</t>
-  </si>
-  <si>
-    <t>0022000943</t>
-  </si>
-  <si>
-    <t>0022000932</t>
-  </si>
-  <si>
-    <t>0022000926</t>
-  </si>
-  <si>
-    <t>0022000908</t>
-  </si>
-  <si>
-    <t>0022000897</t>
-  </si>
-  <si>
-    <t>0022000442</t>
-  </si>
-  <si>
-    <t>0022000866</t>
-  </si>
-  <si>
-    <t>0022000854</t>
-  </si>
-  <si>
-    <t>0022000837</t>
-  </si>
-  <si>
-    <t>0022000818</t>
-  </si>
-  <si>
-    <t>0022000810</t>
+    <t>0022001068</t>
+  </si>
+  <si>
+    <t>0022001062</t>
+  </si>
+  <si>
+    <t>0022001048</t>
+  </si>
+  <si>
+    <t>0022001038</t>
+  </si>
+  <si>
+    <t>0022001029</t>
+  </si>
+  <si>
+    <t>0022001006</t>
+  </si>
+  <si>
+    <t>0022000235</t>
+  </si>
+  <si>
+    <t>0022000985</t>
+  </si>
+  <si>
+    <t>0022000967</t>
+  </si>
+  <si>
+    <t>0022000954</t>
+  </si>
+  <si>
+    <t>0022000945</t>
+  </si>
+  <si>
+    <t>0022000928</t>
+  </si>
+  <si>
+    <t>0022000913</t>
+  </si>
+  <si>
+    <t>0022000905</t>
+  </si>
+  <si>
+    <t>0022000894</t>
+  </si>
+  <si>
+    <t>0022000873</t>
+  </si>
+  <si>
+    <t>0022000859</t>
+  </si>
+  <si>
+    <t>0022000840</t>
+  </si>
+  <si>
+    <t>0022000834</t>
+  </si>
+  <si>
+    <t>0022000808</t>
+  </si>
+  <si>
+    <t>0022000796</t>
   </si>
   <si>
     <t>0022000786</t>
   </si>
   <si>
-    <t>0022000456</t>
-  </si>
-  <si>
-    <t>0022000764</t>
-  </si>
-  <si>
-    <t>0022000747</t>
-  </si>
-  <si>
-    <t>0022000739</t>
-  </si>
-  <si>
-    <t>0022000723</t>
-  </si>
-  <si>
-    <t>0022000713</t>
-  </si>
-  <si>
-    <t>0022000698</t>
-  </si>
-  <si>
-    <t>0022000690</t>
-  </si>
-  <si>
-    <t>0022000673</t>
-  </si>
-  <si>
-    <t>0022000652</t>
-  </si>
-  <si>
-    <t>0022000639</t>
-  </si>
-  <si>
-    <t>0022000625</t>
-  </si>
-  <si>
-    <t>0022000605</t>
-  </si>
-  <si>
-    <t>0022000592</t>
-  </si>
-  <si>
-    <t>0022000575</t>
-  </si>
-  <si>
-    <t>0022000567</t>
-  </si>
-  <si>
-    <t>0022000549</t>
-  </si>
-  <si>
-    <t>0022000529</t>
-  </si>
-  <si>
-    <t>0022000519</t>
-  </si>
-  <si>
-    <t>0022000498</t>
-  </si>
-  <si>
-    <t>0022000485</t>
-  </si>
-  <si>
-    <t>0022000476</t>
-  </si>
-  <si>
-    <t>0022000411</t>
-  </si>
-  <si>
-    <t>0022000399</t>
-  </si>
-  <si>
-    <t>0022000384</t>
-  </si>
-  <si>
-    <t>0022000370</t>
-  </si>
-  <si>
-    <t>0022000360</t>
-  </si>
-  <si>
-    <t>0022000339</t>
-  </si>
-  <si>
-    <t>0022000330</t>
-  </si>
-  <si>
-    <t>0022000319</t>
-  </si>
-  <si>
-    <t>0022000303</t>
-  </si>
-  <si>
-    <t>0022000297</t>
-  </si>
-  <si>
-    <t>0022000282</t>
-  </si>
-  <si>
-    <t>0022000265</t>
-  </si>
-  <si>
-    <t>0022000247</t>
-  </si>
-  <si>
-    <t>0022000237</t>
-  </si>
-  <si>
-    <t>0022000217</t>
-  </si>
-  <si>
-    <t>0022000210</t>
-  </si>
-  <si>
-    <t>0022000198</t>
+    <t>0022000774</t>
+  </si>
+  <si>
+    <t>0022000754</t>
+  </si>
+  <si>
+    <t>0022000745</t>
+  </si>
+  <si>
+    <t>0022000729</t>
+  </si>
+  <si>
+    <t>0022000717</t>
+  </si>
+  <si>
+    <t>0022000695</t>
+  </si>
+  <si>
+    <t>0022000685</t>
+  </si>
+  <si>
+    <t>0022000669</t>
+  </si>
+  <si>
+    <t>0022000659</t>
+  </si>
+  <si>
+    <t>0022000643</t>
+  </si>
+  <si>
+    <t>0022000618</t>
+  </si>
+  <si>
+    <t>0022000603</t>
+  </si>
+  <si>
+    <t>0022000589</t>
+  </si>
+  <si>
+    <t>0022000573</t>
+  </si>
+  <si>
+    <t>0022000555</t>
+  </si>
+  <si>
+    <t>0022000540</t>
+  </si>
+  <si>
+    <t>0022000520</t>
+  </si>
+  <si>
+    <t>0022000503</t>
+  </si>
+  <si>
+    <t>0022000486</t>
+  </si>
+  <si>
+    <t>0022000471</t>
+  </si>
+  <si>
+    <t>0022000453</t>
+  </si>
+  <si>
+    <t>0022000445</t>
+  </si>
+  <si>
+    <t>0022000430</t>
+  </si>
+  <si>
+    <t>0022000415</t>
+  </si>
+  <si>
+    <t>0022000402</t>
+  </si>
+  <si>
+    <t>0022000389</t>
+  </si>
+  <si>
+    <t>0022000373</t>
+  </si>
+  <si>
+    <t>0022000357</t>
+  </si>
+  <si>
+    <t>0022000346</t>
+  </si>
+  <si>
+    <t>0022000329</t>
+  </si>
+  <si>
+    <t>0022000316</t>
+  </si>
+  <si>
+    <t>0022000299</t>
+  </si>
+  <si>
+    <t>0022000293</t>
+  </si>
+  <si>
+    <t>0022000277</t>
+  </si>
+  <si>
+    <t>0022000254</t>
+  </si>
+  <si>
+    <t>0022000226</t>
+  </si>
+  <si>
+    <t>0022000209</t>
   </si>
   <si>
     <t>0022000182</t>
   </si>
   <si>
-    <t>0022000164</t>
-  </si>
-  <si>
-    <t>0022000139</t>
-  </si>
-  <si>
-    <t>0022000120</t>
-  </si>
-  <si>
-    <t>0022000098</t>
-  </si>
-  <si>
-    <t>0022000090</t>
-  </si>
-  <si>
-    <t>0022000071</t>
-  </si>
-  <si>
-    <t>0022000059</t>
-  </si>
-  <si>
-    <t>0022000031</t>
-  </si>
-  <si>
-    <t>0022000008</t>
-  </si>
-  <si>
-    <t>0022000004</t>
+    <t>0022000165</t>
+  </si>
+  <si>
+    <t>0022000151</t>
+  </si>
+  <si>
+    <t>0022000137</t>
+  </si>
+  <si>
+    <t>0022000129</t>
+  </si>
+  <si>
+    <t>0022000113</t>
+  </si>
+  <si>
+    <t>0022000099</t>
+  </si>
+  <si>
+    <t>0022000073</t>
+  </si>
+  <si>
+    <t>0022000058</t>
+  </si>
+  <si>
+    <t>0022000051</t>
+  </si>
+  <si>
+    <t>0022000036</t>
+  </si>
+  <si>
+    <t>0022000006</t>
+  </si>
+  <si>
+    <t>0022000003</t>
   </si>
   <si>
     <t>MAY 16, 2021</t>
   </si>
   <si>
-    <t>MAY 14, 2021</t>
-  </si>
-  <si>
-    <t>MAY 12, 2021</t>
+    <t>MAY 15, 2021</t>
+  </si>
+  <si>
+    <t>MAY 13, 2021</t>
   </si>
   <si>
     <t>MAY 11, 2021</t>
   </si>
   <si>
-    <t>MAY 09, 2021</t>
+    <t>MAY 10, 2021</t>
   </si>
   <si>
     <t>MAY 07, 2021</t>
   </si>
   <si>
-    <t>MAY 06, 2021</t>
+    <t>MAY 05, 2021</t>
   </si>
   <si>
     <t>MAY 04, 2021</t>
@@ -340,7 +340,7 @@
     <t>MAY 02, 2021</t>
   </si>
   <si>
-    <t>MAY 01, 2021</t>
+    <t>APR 30, 2021</t>
   </si>
   <si>
     <t>APR 29, 2021</t>
@@ -349,7 +349,7 @@
     <t>APR 27, 2021</t>
   </si>
   <si>
-    <t>APR 26, 2021</t>
+    <t>APR 25, 2021</t>
   </si>
   <si>
     <t>APR 24, 2021</t>
@@ -358,31 +358,28 @@
     <t>APR 22, 2021</t>
   </si>
   <si>
-    <t>APR 21, 2021</t>
-  </si>
-  <si>
-    <t>APR 18, 2021</t>
-  </si>
-  <si>
-    <t>APR 16, 2021</t>
+    <t>APR 19, 2021</t>
+  </si>
+  <si>
+    <t>APR 17, 2021</t>
+  </si>
+  <si>
+    <t>APR 15, 2021</t>
   </si>
   <si>
     <t>APR 14, 2021</t>
   </si>
   <si>
-    <t>APR 12, 2021</t>
-  </si>
-  <si>
     <t>APR 11, 2021</t>
   </si>
   <si>
+    <t>APR 09, 2021</t>
+  </si>
+  <si>
     <t>APR 08, 2021</t>
   </si>
   <si>
-    <t>APR 07, 2021</t>
-  </si>
-  <si>
-    <t>APR 05, 2021</t>
+    <t>APR 06, 2021</t>
   </si>
   <si>
     <t>APR 03, 2021</t>
@@ -406,10 +403,10 @@
     <t>MAR 24, 2021</t>
   </si>
   <si>
-    <t>MAR 21, 2021</t>
-  </si>
-  <si>
-    <t>MAR 19, 2021</t>
+    <t>MAR 22, 2021</t>
+  </si>
+  <si>
+    <t>MAR 20, 2021</t>
   </si>
   <si>
     <t>MAR 17, 2021</t>
@@ -424,16 +421,13 @@
     <t>MAR 11, 2021</t>
   </si>
   <si>
-    <t>MAR 10, 2021</t>
-  </si>
-  <si>
-    <t>MAR 03, 2021</t>
-  </si>
-  <si>
-    <t>MAR 01, 2021</t>
-  </si>
-  <si>
-    <t>FEB 27, 2021</t>
+    <t>MAR 04, 2021</t>
+  </si>
+  <si>
+    <t>MAR 02, 2021</t>
+  </si>
+  <si>
+    <t>FEB 28, 2021</t>
   </si>
   <si>
     <t>FEB 25, 2021</t>
@@ -442,7 +436,16 @@
     <t>FEB 23, 2021</t>
   </si>
   <si>
-    <t>FEB 22, 2021</t>
+    <t>FEB 21, 2021</t>
+  </si>
+  <si>
+    <t>FEB 19, 2021</t>
+  </si>
+  <si>
+    <t>FEB 18, 2021</t>
+  </si>
+  <si>
+    <t>FEB 16, 2021</t>
   </si>
   <si>
     <t>FEB 14, 2021</t>
@@ -460,7 +463,7 @@
     <t>FEB 06, 2021</t>
   </si>
   <si>
-    <t>FEB 04, 2021</t>
+    <t>FEB 05, 2021</t>
   </si>
   <si>
     <t>FEB 03, 2021</t>
@@ -478,48 +481,45 @@
     <t>JAN 27, 2021</t>
   </si>
   <si>
-    <t>JAN 25, 2021</t>
-  </si>
-  <si>
-    <t>JAN 23, 2021</t>
-  </si>
-  <si>
-    <t>JAN 22, 2021</t>
-  </si>
-  <si>
-    <t>JAN 20, 2021</t>
+    <t>JAN 24, 2021</t>
+  </si>
+  <si>
+    <t>JAN 21, 2021</t>
   </si>
   <si>
     <t>JAN 18, 2021</t>
   </si>
   <si>
-    <t>JAN 17, 2021</t>
-  </si>
-  <si>
     <t>JAN 15, 2021</t>
   </si>
   <si>
     <t>JAN 13, 2021</t>
   </si>
   <si>
+    <t>JAN 11, 2021</t>
+  </si>
+  <si>
     <t>JAN 09, 2021</t>
   </si>
   <si>
-    <t>JAN 07, 2021</t>
+    <t>JAN 08, 2021</t>
+  </si>
+  <si>
+    <t>JAN 06, 2021</t>
   </si>
   <si>
     <t>JAN 04, 2021</t>
   </si>
   <si>
-    <t>JAN 03, 2021</t>
-  </si>
-  <si>
     <t>JAN 01, 2021</t>
   </si>
   <si>
     <t>DEC 30, 2020</t>
   </si>
   <si>
+    <t>DEC 29, 2020</t>
+  </si>
+  <si>
     <t>DEC 27, 2020</t>
   </si>
   <si>
@@ -529,178 +529,178 @@
     <t>DEC 23, 2020</t>
   </si>
   <si>
-    <t>DAL @ MIN</t>
-  </si>
-  <si>
-    <t>DAL vs. TOR</t>
-  </si>
-  <si>
-    <t>DAL vs. NOP</t>
-  </si>
-  <si>
-    <t>DAL @ MEM</t>
-  </si>
-  <si>
-    <t>DAL @ CLE</t>
-  </si>
-  <si>
-    <t>DAL vs. CLE</t>
-  </si>
-  <si>
-    <t>DAL vs. BKN</t>
-  </si>
-  <si>
-    <t>DAL @ MIA</t>
-  </si>
-  <si>
-    <t>DAL vs. SAC</t>
-  </si>
-  <si>
-    <t>DAL vs. WAS</t>
-  </si>
-  <si>
-    <t>DAL @ DET</t>
-  </si>
-  <si>
-    <t>DAL @ GSW</t>
-  </si>
-  <si>
-    <t>DAL @ SAC</t>
-  </si>
-  <si>
-    <t>DAL vs. LAL</t>
-  </si>
-  <si>
-    <t>DAL vs. DET</t>
-  </si>
-  <si>
-    <t>DAL vs. NYK</t>
-  </si>
-  <si>
-    <t>DAL vs. PHI</t>
-  </si>
-  <si>
-    <t>DAL vs. SAS</t>
-  </si>
-  <si>
-    <t>DAL vs. MIL</t>
-  </si>
-  <si>
-    <t>DAL @ HOU</t>
-  </si>
-  <si>
-    <t>DAL vs. UTA</t>
-  </si>
-  <si>
-    <t>DAL @ WAS</t>
-  </si>
-  <si>
-    <t>DAL @ NYK</t>
-  </si>
-  <si>
-    <t>DAL @ BOS</t>
-  </si>
-  <si>
-    <t>DAL @ OKC</t>
-  </si>
-  <si>
-    <t>DAL @ NOP</t>
-  </si>
-  <si>
-    <t>DAL vs. IND</t>
-  </si>
-  <si>
-    <t>DAL @ POR</t>
-  </si>
-  <si>
-    <t>DAL vs. LAC</t>
-  </si>
-  <si>
-    <t>DAL @ DEN</t>
-  </si>
-  <si>
-    <t>DAL vs. OKC</t>
-  </si>
-  <si>
-    <t>DAL @ ORL</t>
-  </si>
-  <si>
-    <t>DAL @ BKN</t>
-  </si>
-  <si>
-    <t>DAL @ PHI</t>
-  </si>
-  <si>
-    <t>DAL vs. BOS</t>
-  </si>
-  <si>
-    <t>DAL vs. MEM</t>
-  </si>
-  <si>
-    <t>DAL vs. POR</t>
-  </si>
-  <si>
-    <t>DAL vs. ATL</t>
-  </si>
-  <si>
-    <t>DAL vs. MIN</t>
-  </si>
-  <si>
-    <t>DAL vs. GSW</t>
-  </si>
-  <si>
-    <t>DAL @ ATL</t>
-  </si>
-  <si>
-    <t>DAL vs. PHX</t>
-  </si>
-  <si>
-    <t>DAL @ UTA</t>
-  </si>
-  <si>
-    <t>DAL vs. DEN</t>
-  </si>
-  <si>
-    <t>DAL vs. HOU</t>
-  </si>
-  <si>
-    <t>DAL @ SAS</t>
-  </si>
-  <si>
-    <t>DAL @ IND</t>
-  </si>
-  <si>
-    <t>DAL @ TOR</t>
-  </si>
-  <si>
-    <t>DAL vs. CHI</t>
-  </si>
-  <si>
-    <t>DAL @ MIL</t>
-  </si>
-  <si>
-    <t>DAL @ CHA</t>
-  </si>
-  <si>
-    <t>DAL vs. ORL</t>
-  </si>
-  <si>
-    <t>DAL @ CHI</t>
-  </si>
-  <si>
-    <t>DAL vs. MIA</t>
-  </si>
-  <si>
-    <t>DAL vs. CHA</t>
-  </si>
-  <si>
-    <t>DAL @ LAC</t>
-  </si>
-  <si>
-    <t>DAL @ LAL</t>
-  </si>
-  <si>
-    <t>DAL @ PHX</t>
+    <t>MIL @ CHI</t>
+  </si>
+  <si>
+    <t>MIL vs. MIA</t>
+  </si>
+  <si>
+    <t>MIL @ IND</t>
+  </si>
+  <si>
+    <t>MIL vs. ORL</t>
+  </si>
+  <si>
+    <t>MIL @ SAS</t>
+  </si>
+  <si>
+    <t>MIL vs. HOU</t>
+  </si>
+  <si>
+    <t>MIL vs. WAS</t>
+  </si>
+  <si>
+    <t>MIL vs. BKN</t>
+  </si>
+  <si>
+    <t>MIL @ HOU</t>
+  </si>
+  <si>
+    <t>MIL @ CHA</t>
+  </si>
+  <si>
+    <t>MIL @ ATL</t>
+  </si>
+  <si>
+    <t>MIL vs. PHI</t>
+  </si>
+  <si>
+    <t>MIL vs. PHX</t>
+  </si>
+  <si>
+    <t>MIL vs. MEM</t>
+  </si>
+  <si>
+    <t>MIL @ MIN</t>
+  </si>
+  <si>
+    <t>MIL @ ORL</t>
+  </si>
+  <si>
+    <t>MIL vs. CHA</t>
+  </si>
+  <si>
+    <t>MIL @ DAL</t>
+  </si>
+  <si>
+    <t>MIL @ GSW</t>
+  </si>
+  <si>
+    <t>MIL @ SAC</t>
+  </si>
+  <si>
+    <t>MIL @ POR</t>
+  </si>
+  <si>
+    <t>MIL @ LAL</t>
+  </si>
+  <si>
+    <t>MIL @ LAC</t>
+  </si>
+  <si>
+    <t>MIL vs. NYK</t>
+  </si>
+  <si>
+    <t>MIL vs. BOS</t>
+  </si>
+  <si>
+    <t>MIL vs. IND</t>
+  </si>
+  <si>
+    <t>MIL vs. SAS</t>
+  </si>
+  <si>
+    <t>MIL @ PHI</t>
+  </si>
+  <si>
+    <t>MIL @ WAS</t>
+  </si>
+  <si>
+    <t>MIL @ MEM</t>
+  </si>
+  <si>
+    <t>MIL vs. DEN</t>
+  </si>
+  <si>
+    <t>MIL vs. LAC</t>
+  </si>
+  <si>
+    <t>MIL vs. NOP</t>
+  </si>
+  <si>
+    <t>MIL vs. MIN</t>
+  </si>
+  <si>
+    <t>MIL vs. SAC</t>
+  </si>
+  <si>
+    <t>MIL vs. OKC</t>
+  </si>
+  <si>
+    <t>MIL vs. TOR</t>
+  </si>
+  <si>
+    <t>MIL @ OKC</t>
+  </si>
+  <si>
+    <t>MIL @ UTA</t>
+  </si>
+  <si>
+    <t>MIL @ PHX</t>
+  </si>
+  <si>
+    <t>MIL @ DEN</t>
+  </si>
+  <si>
+    <t>MIL @ CLE</t>
+  </si>
+  <si>
+    <t>MIL vs. POR</t>
+  </si>
+  <si>
+    <t>MIL @ NOP</t>
+  </si>
+  <si>
+    <t>MIL @ TOR</t>
+  </si>
+  <si>
+    <t>MIL vs. ATL</t>
+  </si>
+  <si>
+    <t>MIL vs. LAL</t>
+  </si>
+  <si>
+    <t>MIL @ BKN</t>
+  </si>
+  <si>
+    <t>MIL vs. DAL</t>
+  </si>
+  <si>
+    <t>MIL @ DET</t>
+  </si>
+  <si>
+    <t>MIL vs. CLE</t>
+  </si>
+  <si>
+    <t>MIL vs. UTA</t>
+  </si>
+  <si>
+    <t>MIL vs. DET</t>
+  </si>
+  <si>
+    <t>MIL vs. CHI</t>
+  </si>
+  <si>
+    <t>MIL @ MIA</t>
+  </si>
+  <si>
+    <t>MIL @ NYK</t>
+  </si>
+  <si>
+    <t>MIL vs. GSW</t>
+  </si>
+  <si>
+    <t>MIL @ BOS</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1167,70 +1167,70 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>0.583</v>
+        <v>0.639</v>
       </c>
       <c r="J2">
         <v>240</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2">
-        <v>0.484</v>
+        <v>0.422</v>
       </c>
       <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <v>0.324</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>0.75</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>31</v>
+      </c>
+      <c r="V2">
+        <v>41</v>
+      </c>
+      <c r="W2">
+        <v>14</v>
+      </c>
+      <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
+      <c r="AA2">
         <v>16</v>
       </c>
-      <c r="O2">
-        <v>38</v>
-      </c>
-      <c r="P2">
-        <v>0.421</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-      <c r="S2">
-        <v>0.85</v>
-      </c>
-      <c r="T2">
-        <v>11</v>
-      </c>
-      <c r="U2">
-        <v>27</v>
-      </c>
-      <c r="V2">
-        <v>38</v>
-      </c>
-      <c r="W2">
-        <v>32</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
-      </c>
-      <c r="Z2">
-        <v>16</v>
-      </c>
-      <c r="AA2">
-        <v>19</v>
-      </c>
       <c r="AB2">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1253,55 +1253,55 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>0.592</v>
+        <v>0.648</v>
       </c>
       <c r="J3">
         <v>240</v>
       </c>
       <c r="K3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>0.433</v>
+        <v>0.535</v>
       </c>
       <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3">
+        <v>0.371</v>
+      </c>
+      <c r="Q3">
         <v>17</v>
       </c>
-      <c r="O3">
-        <v>42</v>
-      </c>
-      <c r="P3">
-        <v>0.405</v>
-      </c>
-      <c r="Q3">
-        <v>19</v>
-      </c>
       <c r="R3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>0.905</v>
+        <v>0.708</v>
       </c>
       <c r="T3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="V3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X3">
         <v>4</v>
@@ -1310,13 +1310,13 @@
         <v>3</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB3">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1339,70 +1339,70 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>0.586</v>
+        <v>0.643</v>
       </c>
       <c r="J4">
         <v>240</v>
       </c>
       <c r="K4">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M4">
-        <v>0.49</v>
+        <v>0.574</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P4">
-        <v>0.333</v>
+        <v>0.367</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S4">
-        <v>0.8</v>
+        <v>0.742</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA4">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1422,73 +1422,73 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>0.58</v>
+        <v>0.638</v>
       </c>
       <c r="J5">
         <v>240</v>
       </c>
       <c r="K5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L5">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="M5">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P5">
-        <v>0.316</v>
+        <v>0.242</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="S5">
-        <v>0.947</v>
+        <v>0.741</v>
       </c>
       <c r="T5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U5">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="V5">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="W5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA5">
         <v>15</v>
       </c>
       <c r="AB5">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1508,73 +1508,73 @@
         <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>0.588</v>
+        <v>0.632</v>
       </c>
       <c r="J6">
         <v>240</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P6">
-        <v>0.385</v>
+        <v>0.317</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="S6">
-        <v>0.8179999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="T6">
         <v>8</v>
       </c>
       <c r="U6">
+        <v>26</v>
+      </c>
+      <c r="V6">
         <v>34</v>
       </c>
-      <c r="V6">
-        <v>42</v>
-      </c>
       <c r="W6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
         <v>7</v>
       </c>
-      <c r="Z6">
-        <v>10</v>
-      </c>
       <c r="AA6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AB6">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1597,70 +1597,70 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>0.582</v>
+        <v>0.642</v>
       </c>
       <c r="J7">
         <v>240</v>
       </c>
       <c r="K7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>0.494</v>
+        <v>0.537</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P7">
-        <v>0.313</v>
+        <v>0.413</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S7">
-        <v>0.8179999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V7">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="W7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AB7">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1683,70 +1683,70 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>0.576</v>
+        <v>0.636</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L8">
         <v>89</v>
       </c>
       <c r="M8">
-        <v>0.449</v>
+        <v>0.539</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P8">
-        <v>0.441</v>
+        <v>0.486</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S8">
-        <v>0.6919999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="T8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V8">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="W8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA8">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AB8">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1769,70 +1769,70 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>0.569</v>
+        <v>0.631</v>
       </c>
       <c r="J9">
         <v>240</v>
       </c>
       <c r="K9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>0.529</v>
+        <v>0.449</v>
       </c>
       <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>37</v>
+      </c>
+      <c r="P9">
+        <v>0.378</v>
+      </c>
+      <c r="Q9">
         <v>22</v>
       </c>
-      <c r="O9">
-        <v>48</v>
-      </c>
-      <c r="P9">
-        <v>0.458</v>
-      </c>
-      <c r="Q9">
-        <v>13</v>
-      </c>
       <c r="R9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S9">
-        <v>0.722</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>40</v>
+      </c>
+      <c r="V9">
+        <v>55</v>
+      </c>
+      <c r="W9">
+        <v>23</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
         <v>12</v>
       </c>
-      <c r="U9">
-        <v>32</v>
-      </c>
-      <c r="V9">
-        <v>44</v>
-      </c>
-      <c r="W9">
-        <v>26</v>
-      </c>
-      <c r="X9">
-        <v>6</v>
-      </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
-      <c r="Z9">
-        <v>13</v>
-      </c>
       <c r="AA9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB9">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1849,76 +1849,76 @@
         <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>0.5629999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="J10">
         <v>240</v>
       </c>
       <c r="K10">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L10">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>37</v>
+      </c>
+      <c r="P10">
+        <v>0.405</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="O10">
-        <v>35</v>
-      </c>
-      <c r="P10">
-        <v>0.171</v>
-      </c>
-      <c r="Q10">
-        <v>25</v>
-      </c>
       <c r="R10">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S10">
-        <v>0.806</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Z10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB10">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1935,76 +1935,76 @@
         <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>0.571</v>
+        <v>0.619</v>
       </c>
       <c r="J11">
         <v>240</v>
       </c>
       <c r="K11">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M11">
-        <v>0.54</v>
+        <v>0.467</v>
       </c>
       <c r="N11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P11">
-        <v>0.447</v>
+        <v>0.36</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S11">
-        <v>0.636</v>
+        <v>0.75</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="V11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W11">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AB11">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -2021,76 +2021,76 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>0.5649999999999999</v>
+        <v>0.613</v>
       </c>
       <c r="J12">
         <v>240</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>0.449</v>
+        <v>0.527</v>
       </c>
       <c r="N12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O12">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P12">
-        <v>0.433</v>
+        <v>0.41</v>
       </c>
       <c r="Q12">
         <v>22</v>
       </c>
       <c r="R12">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S12">
-        <v>0.957</v>
+        <v>0.88</v>
       </c>
       <c r="T12">
         <v>8</v>
       </c>
       <c r="U12">
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <v>38</v>
+      </c>
+      <c r="W12">
         <v>27</v>
       </c>
-      <c r="V12">
-        <v>35</v>
-      </c>
-      <c r="W12">
-        <v>22</v>
-      </c>
       <c r="X12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB12">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2107,76 +2107,76 @@
         <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>0.5570000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="J13">
         <v>240</v>
       </c>
       <c r="K13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>0.522</v>
+        <v>0.505</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <v>35</v>
       </c>
       <c r="P13">
-        <v>0.514</v>
+        <v>0.257</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R13">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S13">
-        <v>0.864</v>
+        <v>0.786</v>
       </c>
       <c r="T13">
         <v>9</v>
       </c>
       <c r="U13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB13">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2193,76 +2193,76 @@
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.617</v>
       </c>
       <c r="J14">
         <v>240</v>
       </c>
       <c r="K14">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>0.467</v>
+        <v>0.481</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P14">
         <v>0.286</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="S14">
-        <v>0.571</v>
+        <v>0.783</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="V14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB14">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2270,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2279,76 +2279,76 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I15">
-        <v>0.5590000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="J15">
         <v>240</v>
       </c>
       <c r="K15">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>0.487</v>
+        <v>0.516</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P15">
-        <v>0.433</v>
+        <v>0.45</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S15">
-        <v>0.76</v>
+        <v>0.667</v>
       </c>
       <c r="T15">
+        <v>16</v>
+      </c>
+      <c r="U15">
+        <v>39</v>
+      </c>
+      <c r="V15">
+        <v>55</v>
+      </c>
+      <c r="W15">
+        <v>33</v>
+      </c>
+      <c r="X15">
         <v>10</v>
       </c>
-      <c r="U15">
-        <v>41</v>
-      </c>
-      <c r="V15">
-        <v>51</v>
-      </c>
-      <c r="W15">
-        <v>26</v>
-      </c>
-      <c r="X15">
-        <v>3</v>
-      </c>
       <c r="Y15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA15">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AB15">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2356,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -2365,76 +2365,76 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I16">
-        <v>0.552</v>
+        <v>0.621</v>
       </c>
       <c r="J16">
         <v>240</v>
       </c>
       <c r="K16">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>0.556</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
         <v>40</v>
       </c>
-      <c r="L16">
-        <v>82</v>
-      </c>
-      <c r="M16">
-        <v>0.488</v>
-      </c>
-      <c r="N16">
-        <v>9</v>
-      </c>
-      <c r="O16">
-        <v>24</v>
-      </c>
       <c r="P16">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R16">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="S16">
-        <v>0.722</v>
+        <v>0.609</v>
       </c>
       <c r="T16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="V16">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="W16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB16">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -2451,73 +2451,73 @@
         <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>0.544</v>
+        <v>0.614</v>
       </c>
       <c r="J17">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P17">
-        <v>0.372</v>
+        <v>0.324</v>
       </c>
       <c r="Q17">
+        <v>18</v>
+      </c>
+      <c r="R17">
         <v>19</v>
       </c>
-      <c r="R17">
-        <v>26</v>
-      </c>
       <c r="S17">
-        <v>0.731</v>
+        <v>0.947</v>
       </c>
       <c r="T17">
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <v>42</v>
+      </c>
+      <c r="V17">
+        <v>51</v>
+      </c>
+      <c r="W17">
+        <v>19</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
         <v>11</v>
       </c>
-      <c r="U17">
-        <v>32</v>
-      </c>
-      <c r="V17">
-        <v>43</v>
-      </c>
-      <c r="W17">
-        <v>25</v>
-      </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17">
-        <v>2</v>
-      </c>
-      <c r="Z17">
-        <v>6</v>
-      </c>
       <c r="AA17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AB17">
         <v>127</v>
@@ -2528,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2537,19 +2537,19 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I18">
-        <v>0.536</v>
+        <v>0.625</v>
       </c>
       <c r="J18">
         <v>240</v>
@@ -2558,55 +2558,55 @@
         <v>39</v>
       </c>
       <c r="L18">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>27</v>
+      </c>
+      <c r="S18">
+        <v>0.778</v>
+      </c>
+      <c r="T18">
         <v>13</v>
-      </c>
-      <c r="R18">
-        <v>20</v>
-      </c>
-      <c r="S18">
-        <v>0.65</v>
-      </c>
-      <c r="T18">
-        <v>10</v>
       </c>
       <c r="U18">
         <v>32</v>
       </c>
       <c r="V18">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W18">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
         <v>8</v>
       </c>
-      <c r="Z18">
-        <v>14</v>
-      </c>
-      <c r="AA18">
-        <v>20</v>
-      </c>
       <c r="AB18">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2614,7 +2614,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2623,76 +2623,76 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>0.545</v>
+        <v>0.636</v>
       </c>
       <c r="J19">
         <v>240</v>
       </c>
       <c r="K19">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M19">
-        <v>0.44</v>
+        <v>0.484</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O19">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19">
-        <v>0.333</v>
+        <v>0.372</v>
       </c>
       <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>0.706</v>
+      </c>
+      <c r="T19">
         <v>14</v>
       </c>
-      <c r="R19">
-        <v>19</v>
-      </c>
-      <c r="S19">
-        <v>0.737</v>
-      </c>
-      <c r="T19">
-        <v>10</v>
-      </c>
       <c r="U19">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="W19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB19">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -2709,76 +2709,76 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>0.556</v>
+        <v>0.63</v>
       </c>
       <c r="J20">
         <v>240</v>
       </c>
       <c r="K20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L20">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.469</v>
       </c>
       <c r="N20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <v>40</v>
       </c>
       <c r="P20">
-        <v>0.325</v>
+        <v>0.475</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R20">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S20">
-        <v>0.765</v>
+        <v>0.826</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V20">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="W20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X20">
+        <v>14</v>
+      </c>
+      <c r="Y20">
         <v>4</v>
       </c>
-      <c r="Y20">
-        <v>3</v>
-      </c>
       <c r="Z20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB20">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2786,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -2795,76 +2795,76 @@
         <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>0.547</v>
+        <v>0.623</v>
       </c>
       <c r="J21">
         <v>240</v>
       </c>
       <c r="K21">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L21">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M21">
-        <v>0.422</v>
+        <v>0.489</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P21">
-        <v>0.25</v>
+        <v>0.475</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S21">
-        <v>0.8</v>
+        <v>0.867</v>
       </c>
       <c r="T21">
+        <v>12</v>
+      </c>
+      <c r="U21">
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <v>56</v>
+      </c>
+      <c r="W21">
+        <v>28</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
         <v>11</v>
       </c>
-      <c r="U21">
-        <v>35</v>
-      </c>
-      <c r="V21">
-        <v>46</v>
-      </c>
-      <c r="W21">
-        <v>16</v>
-      </c>
-      <c r="X21">
-        <v>7</v>
-      </c>
-      <c r="Y21">
-        <v>3</v>
-      </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>15</v>
       </c>
-      <c r="AA21">
-        <v>24</v>
-      </c>
       <c r="AB21">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2872,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -2881,76 +2881,76 @@
         <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>0.5580000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="J22">
         <v>240</v>
       </c>
       <c r="K22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M22">
-        <v>0.479</v>
+        <v>0.449</v>
       </c>
       <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>38</v>
+      </c>
+      <c r="P22">
+        <v>0.368</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22">
+        <v>23</v>
+      </c>
+      <c r="S22">
+        <v>0.739</v>
+      </c>
+      <c r="T22">
         <v>13</v>
       </c>
-      <c r="O22">
-        <v>42</v>
-      </c>
-      <c r="P22">
-        <v>0.31</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
-      </c>
-      <c r="R22">
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="T22">
-        <v>11</v>
-      </c>
       <c r="U22">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="V22">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y22">
         <v>3</v>
       </c>
       <c r="Z22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AB22">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -2967,76 +2967,76 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I23">
-        <v>0.569</v>
+        <v>0.627</v>
       </c>
       <c r="J23">
         <v>240</v>
       </c>
       <c r="K23">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L23">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>0.443</v>
+        <v>0.38</v>
       </c>
       <c r="N23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P23">
-        <v>0.378</v>
+        <v>0.364</v>
       </c>
       <c r="Q23">
         <v>13</v>
       </c>
       <c r="R23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S23">
-        <v>0.722</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="T23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB23">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3044,7 +3044,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -3053,76 +3053,76 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I24">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="J24">
         <v>240</v>
       </c>
       <c r="K24">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L24">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24">
-        <v>0.379</v>
+        <v>0.512</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O24">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P24">
-        <v>0.256</v>
+        <v>0.438</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R24">
         <v>22</v>
       </c>
       <c r="S24">
-        <v>0.773</v>
+        <v>0.864</v>
       </c>
       <c r="T24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V24">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W24">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="X24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB24">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3130,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -3139,76 +3139,76 @@
         <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I25">
-        <v>0.571</v>
+        <v>0.653</v>
       </c>
       <c r="J25">
         <v>240</v>
       </c>
       <c r="K25">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L25">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M25">
-        <v>0.451</v>
+        <v>0.538</v>
       </c>
       <c r="N25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O25">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P25">
-        <v>0.469</v>
+        <v>0.355</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S25">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="T25">
+        <v>12</v>
+      </c>
+      <c r="U25">
+        <v>35</v>
+      </c>
+      <c r="V25">
+        <v>47</v>
+      </c>
+      <c r="W25">
+        <v>31</v>
+      </c>
+      <c r="X25">
         <v>10</v>
       </c>
-      <c r="U25">
-        <v>34</v>
-      </c>
-      <c r="V25">
-        <v>44</v>
-      </c>
-      <c r="W25">
-        <v>22</v>
-      </c>
-      <c r="X25">
-        <v>2</v>
-      </c>
       <c r="Y25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB25">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3216,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -3225,76 +3225,76 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I26">
-        <v>0.5629999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="J26">
         <v>240</v>
       </c>
       <c r="K26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L26">
         <v>90</v>
       </c>
       <c r="M26">
-        <v>0.444</v>
+        <v>0.544</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P26">
-        <v>0.333</v>
+        <v>0.308</v>
       </c>
       <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
         <v>19</v>
       </c>
-      <c r="R26">
-        <v>24</v>
-      </c>
       <c r="S26">
-        <v>0.792</v>
+        <v>0.895</v>
       </c>
       <c r="T26">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V26">
         <v>50</v>
       </c>
       <c r="W26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X26">
         <v>7</v>
       </c>
       <c r="Y26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA26">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AB26">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3302,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3311,76 +3311,76 @@
         <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I27">
-        <v>0.553</v>
+        <v>0.638</v>
       </c>
       <c r="J27">
         <v>240</v>
       </c>
       <c r="K27">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M27">
-        <v>0.466</v>
+        <v>0.532</v>
       </c>
       <c r="N27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O27">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P27">
-        <v>0.324</v>
+        <v>0.538</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S27">
-        <v>0.5</v>
+        <v>0.778</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U27">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="V27">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB27">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3388,7 +3388,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -3397,19 +3397,19 @@
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I28">
-        <v>0.543</v>
+        <v>0.63</v>
       </c>
       <c r="J28">
         <v>240</v>
@@ -3418,55 +3418,55 @@
         <v>38</v>
       </c>
       <c r="L28">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M28">
-        <v>0.494</v>
+        <v>0.469</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O28">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P28">
-        <v>0.487</v>
+        <v>0.367</v>
       </c>
       <c r="Q28">
         <v>18</v>
       </c>
       <c r="R28">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S28">
-        <v>0.72</v>
+        <v>0.857</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="V28">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="W28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>4</v>
       </c>
       <c r="Z28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB28">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3474,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -3483,76 +3483,76 @@
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>0.533</v>
+        <v>0.644</v>
       </c>
       <c r="J29">
         <v>240</v>
       </c>
       <c r="K29">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M29">
-        <v>0.531</v>
+        <v>0.414</v>
       </c>
       <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>36</v>
+      </c>
+      <c r="P29">
+        <v>0.389</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
         <v>16</v>
       </c>
-      <c r="O29">
-        <v>44</v>
-      </c>
-      <c r="P29">
-        <v>0.364</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-      <c r="R29">
-        <v>13</v>
-      </c>
       <c r="S29">
-        <v>0.6919999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="T29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U29">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V29">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="W29">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="X29">
         <v>11</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z29">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA29">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AB29">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3560,7 +3560,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -3569,76 +3569,76 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>0.523</v>
+        <v>0.659</v>
       </c>
       <c r="J30">
         <v>240</v>
       </c>
       <c r="K30">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L30">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="M30">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O30">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P30">
-        <v>0.323</v>
+        <v>0.404</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R30">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>0.636</v>
+      </c>
+      <c r="T30">
+        <v>16</v>
+      </c>
+      <c r="U30">
+        <v>33</v>
+      </c>
+      <c r="V30">
+        <v>49</v>
+      </c>
+      <c r="W30">
         <v>24</v>
       </c>
-      <c r="S30">
-        <v>0.792</v>
-      </c>
-      <c r="T30">
-        <v>10</v>
-      </c>
-      <c r="U30">
-        <v>28</v>
-      </c>
-      <c r="V30">
-        <v>38</v>
-      </c>
-      <c r="W30">
-        <v>19</v>
-      </c>
       <c r="X30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AA30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB30">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3646,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3655,76 +3655,76 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I31">
-        <v>0.535</v>
+        <v>0.674</v>
       </c>
       <c r="J31">
         <v>240</v>
       </c>
       <c r="K31">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L31">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M31">
-        <v>0.411</v>
+        <v>0.5</v>
       </c>
       <c r="N31">
+        <v>17</v>
+      </c>
+      <c r="O31">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>0.459</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <v>0.7</v>
+      </c>
+      <c r="T31">
+        <v>13</v>
+      </c>
+      <c r="U31">
+        <v>33</v>
+      </c>
+      <c r="V31">
+        <v>46</v>
+      </c>
+      <c r="W31">
+        <v>19</v>
+      </c>
+      <c r="X31">
         <v>8</v>
       </c>
-      <c r="O31">
-        <v>35</v>
-      </c>
-      <c r="P31">
-        <v>0.229</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>16</v>
+      </c>
+      <c r="AA31">
         <v>14</v>
       </c>
-      <c r="S31">
-        <v>0.571</v>
-      </c>
-      <c r="T31">
-        <v>15</v>
-      </c>
-      <c r="U31">
-        <v>36</v>
-      </c>
-      <c r="V31">
-        <v>51</v>
-      </c>
-      <c r="W31">
-        <v>17</v>
-      </c>
-      <c r="X31">
-        <v>4</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>15</v>
-      </c>
-      <c r="AA31">
-        <v>18</v>
-      </c>
       <c r="AB31">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3732,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -3741,76 +3741,76 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I32">
-        <v>0.548</v>
+        <v>0.667</v>
       </c>
       <c r="J32">
         <v>240</v>
       </c>
       <c r="K32">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L32">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M32">
-        <v>0.485</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="N32">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>39</v>
+      </c>
+      <c r="P32">
+        <v>0.615</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>0.667</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>47</v>
+      </c>
+      <c r="V32">
+        <v>55</v>
+      </c>
+      <c r="W32">
+        <v>35</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>15</v>
+      </c>
+      <c r="AA32">
         <v>16</v>
       </c>
-      <c r="O32">
-        <v>44</v>
-      </c>
-      <c r="P32">
-        <v>0.364</v>
-      </c>
-      <c r="Q32">
-        <v>16</v>
-      </c>
-      <c r="R32">
-        <v>22</v>
-      </c>
-      <c r="S32">
-        <v>0.727</v>
-      </c>
-      <c r="T32">
-        <v>14</v>
-      </c>
-      <c r="U32">
-        <v>39</v>
-      </c>
-      <c r="V32">
-        <v>53</v>
-      </c>
-      <c r="W32">
-        <v>27</v>
-      </c>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>6</v>
-      </c>
-      <c r="Z32">
-        <v>10</v>
-      </c>
-      <c r="AA32">
-        <v>22</v>
-      </c>
       <c r="AB32">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3818,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -3827,76 +3827,76 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I33">
-        <v>0.537</v>
+        <v>0.659</v>
       </c>
       <c r="J33">
         <v>240</v>
       </c>
       <c r="K33">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L33">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M33">
-        <v>0.5580000000000001</v>
+        <v>0.489</v>
       </c>
       <c r="N33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P33">
-        <v>0.514</v>
+        <v>0.368</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S33">
-        <v>0.85</v>
+        <v>0.889</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V33">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y33">
         <v>3</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB33">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -3916,73 +3916,73 @@
         <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I34">
-        <v>0.525</v>
+        <v>0.65</v>
       </c>
       <c r="J34">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K34">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L34">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="M34">
-        <v>0.543</v>
+        <v>0.406</v>
       </c>
       <c r="N34">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P34">
-        <v>0.452</v>
+        <v>0.231</v>
       </c>
       <c r="Q34">
+        <v>18</v>
+      </c>
+      <c r="R34">
+        <v>24</v>
+      </c>
+      <c r="S34">
+        <v>0.75</v>
+      </c>
+      <c r="T34">
         <v>12</v>
       </c>
-      <c r="R34">
-        <v>13</v>
-      </c>
-      <c r="S34">
-        <v>0.923</v>
-      </c>
-      <c r="T34">
-        <v>5</v>
-      </c>
       <c r="U34">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="V34">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="W34">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X34">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AA34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AB34">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -4005,70 +4005,70 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I35">
-        <v>0.538</v>
+        <v>0.641</v>
       </c>
       <c r="J35">
         <v>240</v>
       </c>
       <c r="K35">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L35">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M35">
-        <v>0.506</v>
+        <v>0.553</v>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O35">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P35">
-        <v>0.441</v>
+        <v>0.393</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R35">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S35">
-        <v>0.833</v>
+        <v>0.947</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U35">
         <v>37</v>
       </c>
       <c r="V35">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W35">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="X35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AB35">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4076,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -4088,73 +4088,73 @@
         <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I36">
-        <v>0.526</v>
+        <v>0.632</v>
       </c>
       <c r="J36">
         <v>240</v>
       </c>
       <c r="K36">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L36">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="M36">
-        <v>0.494</v>
+        <v>0.434</v>
       </c>
       <c r="N36">
         <v>17</v>
       </c>
       <c r="O36">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P36">
-        <v>0.415</v>
+        <v>0.378</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S36">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U36">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="V36">
+        <v>57</v>
+      </c>
+      <c r="W36">
         <v>33</v>
       </c>
-      <c r="W36">
-        <v>24</v>
-      </c>
       <c r="X36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA36">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AB36">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -4162,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -4171,76 +4171,76 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I37">
-        <v>0.541</v>
+        <v>0.622</v>
       </c>
       <c r="J37">
         <v>240</v>
       </c>
       <c r="K37">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L37">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M37">
-        <v>0.488</v>
+        <v>0.575</v>
       </c>
       <c r="N37">
         <v>18</v>
       </c>
       <c r="O37">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P37">
-        <v>0.391</v>
+        <v>0.474</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S37">
-        <v>0.875</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="T37">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V37">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB37">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4248,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -4257,76 +4257,76 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>0.528</v>
+        <v>0.611</v>
       </c>
       <c r="J38">
         <v>240</v>
       </c>
       <c r="K38">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L38">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M38">
-        <v>0.427</v>
+        <v>0.442</v>
       </c>
       <c r="N38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O38">
         <v>34</v>
       </c>
       <c r="P38">
-        <v>0.441</v>
+        <v>0.294</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R38">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="S38">
-        <v>0.697</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U38">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V38">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="W38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X38">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z38">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB38">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4334,7 +4334,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -4343,76 +4343,76 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39">
-        <v>0.543</v>
+        <v>0.6</v>
       </c>
       <c r="J39">
         <v>240</v>
       </c>
       <c r="K39">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L39">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M39">
-        <v>0.518</v>
+        <v>0.405</v>
       </c>
       <c r="N39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O39">
         <v>40</v>
       </c>
       <c r="P39">
-        <v>0.325</v>
+        <v>0.275</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R39">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="S39">
-        <v>0.842</v>
+        <v>0.71</v>
       </c>
       <c r="T39">
+        <v>11</v>
+      </c>
+      <c r="U39">
+        <v>29</v>
+      </c>
+      <c r="V39">
+        <v>40</v>
+      </c>
+      <c r="W39">
+        <v>22</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
         <v>13</v>
       </c>
-      <c r="U39">
-        <v>38</v>
-      </c>
-      <c r="V39">
-        <v>51</v>
-      </c>
-      <c r="W39">
-        <v>29</v>
-      </c>
-      <c r="X39">
-        <v>3</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>14</v>
-      </c>
       <c r="AA39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB39">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4420,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -4429,76 +4429,76 @@
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
       <c r="G40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I40">
-        <v>0.529</v>
+        <v>0.618</v>
       </c>
       <c r="J40">
         <v>240</v>
       </c>
       <c r="K40">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L40">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>0.386</v>
+        <v>0.447</v>
       </c>
       <c r="N40">
+        <v>12</v>
+      </c>
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.316</v>
+      </c>
+      <c r="Q40">
+        <v>17</v>
+      </c>
+      <c r="R40">
+        <v>22</v>
+      </c>
+      <c r="S40">
+        <v>0.773</v>
+      </c>
+      <c r="T40">
         <v>8</v>
       </c>
-      <c r="O40">
+      <c r="U40">
         <v>40</v>
       </c>
-      <c r="P40">
-        <v>0.2</v>
-      </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>19</v>
-      </c>
-      <c r="S40">
-        <v>0.789</v>
-      </c>
-      <c r="T40">
+      <c r="V40">
+        <v>48</v>
+      </c>
+      <c r="W40">
+        <v>21</v>
+      </c>
+      <c r="X40">
         <v>7</v>
       </c>
-      <c r="U40">
-        <v>46</v>
-      </c>
-      <c r="V40">
-        <v>53</v>
-      </c>
-      <c r="W40">
-        <v>18</v>
-      </c>
-      <c r="X40">
-        <v>8</v>
-      </c>
       <c r="Y40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB40">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4506,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -4515,76 +4515,76 @@
         <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
       <c r="G41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I41">
-        <v>0.515</v>
+        <v>0.606</v>
       </c>
       <c r="J41">
         <v>240</v>
       </c>
       <c r="K41">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L41">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M41">
-        <v>0.522</v>
+        <v>0.542</v>
       </c>
       <c r="N41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O41">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P41">
-        <v>0.37</v>
+        <v>0.419</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="R41">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S41">
-        <v>0.826</v>
+        <v>0.75</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V41">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W41">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4592,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -4601,76 +4601,76 @@
         <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I42">
-        <v>0.5</v>
+        <v>0.594</v>
       </c>
       <c r="J42">
         <v>240</v>
       </c>
       <c r="K42">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L42">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M42">
-        <v>0.523</v>
+        <v>0.535</v>
       </c>
       <c r="N42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O42">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P42">
-        <v>0.389</v>
+        <v>0.476</v>
       </c>
       <c r="Q42">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>18</v>
+      </c>
+      <c r="S42">
+        <v>0.722</v>
+      </c>
+      <c r="T42">
+        <v>9</v>
+      </c>
+      <c r="U42">
+        <v>43</v>
+      </c>
+      <c r="V42">
+        <v>52</v>
+      </c>
+      <c r="W42">
+        <v>33</v>
+      </c>
+      <c r="X42">
         <v>11</v>
       </c>
-      <c r="R42">
-        <v>17</v>
-      </c>
-      <c r="S42">
-        <v>0.647</v>
-      </c>
-      <c r="T42">
-        <v>6</v>
-      </c>
-      <c r="U42">
-        <v>30</v>
-      </c>
-      <c r="V42">
-        <v>36</v>
-      </c>
-      <c r="W42">
-        <v>23</v>
-      </c>
-      <c r="X42">
-        <v>12</v>
-      </c>
       <c r="Y42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB42">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4678,7 +4678,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -4687,76 +4687,76 @@
         <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I43">
-        <v>0.484</v>
+        <v>0.581</v>
       </c>
       <c r="J43">
         <v>240</v>
       </c>
       <c r="K43">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L43">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M43">
-        <v>0.41</v>
+        <v>0.489</v>
       </c>
       <c r="N43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O43">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P43">
-        <v>0.382</v>
+        <v>0.393</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R43">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S43">
-        <v>0.87</v>
+        <v>0.806</v>
       </c>
       <c r="T43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V43">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W43">
+        <v>22</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>5</v>
+      </c>
+      <c r="Z43">
         <v>17</v>
       </c>
-      <c r="X43">
-        <v>2</v>
-      </c>
-      <c r="Y43">
-        <v>9</v>
-      </c>
-      <c r="Z43">
-        <v>18</v>
-      </c>
       <c r="AA43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB43">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4764,7 +4764,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -4773,76 +4773,76 @@
         <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44">
-        <v>0.5</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J44">
         <v>240</v>
       </c>
       <c r="K44">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L44">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M44">
-        <v>0.472</v>
+        <v>0.407</v>
       </c>
       <c r="N44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P44">
-        <v>0.394</v>
+        <v>0.324</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R44">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S44">
-        <v>0.867</v>
+        <v>0.68</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="V44">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="W44">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X44">
         <v>5</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB44">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4850,7 +4850,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -4859,19 +4859,19 @@
         <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45">
-        <v>0.483</v>
+        <v>0.552</v>
       </c>
       <c r="J45">
         <v>240</v>
@@ -4880,55 +4880,55 @@
         <v>35</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M45">
-        <v>0.438</v>
+        <v>0.398</v>
       </c>
       <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>34</v>
+      </c>
+      <c r="P45">
+        <v>0.294</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+      <c r="R45">
+        <v>23</v>
+      </c>
+      <c r="S45">
+        <v>0.696</v>
+      </c>
+      <c r="T45">
         <v>15</v>
       </c>
-      <c r="O45">
-        <v>41</v>
-      </c>
-      <c r="P45">
-        <v>0.366</v>
-      </c>
-      <c r="Q45">
-        <v>17</v>
-      </c>
-      <c r="R45">
-        <v>26</v>
-      </c>
-      <c r="S45">
-        <v>0.654</v>
-      </c>
-      <c r="T45">
-        <v>5</v>
-      </c>
       <c r="U45">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="V45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W45">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>6</v>
       </c>
       <c r="Y45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA45">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB45">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4936,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -4951,13 +4951,13 @@
         <v>6</v>
       </c>
       <c r="G46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I46">
-        <v>0.464</v>
+        <v>0.571</v>
       </c>
       <c r="J46">
         <v>240</v>
@@ -4966,55 +4966,55 @@
         <v>40</v>
       </c>
       <c r="L46">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M46">
-        <v>0.494</v>
+        <v>0.482</v>
       </c>
       <c r="N46">
         <v>14</v>
       </c>
       <c r="O46">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P46">
-        <v>0.341</v>
+        <v>0.378</v>
       </c>
       <c r="Q46">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>25</v>
       </c>
       <c r="S46">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>36</v>
+      </c>
+      <c r="V46">
+        <v>41</v>
+      </c>
+      <c r="W46">
+        <v>25</v>
+      </c>
+      <c r="X46">
         <v>10</v>
       </c>
-      <c r="U46">
-        <v>25</v>
-      </c>
-      <c r="V46">
-        <v>35</v>
-      </c>
-      <c r="W46">
-        <v>19</v>
-      </c>
-      <c r="X46">
-        <v>5</v>
-      </c>
       <c r="Y46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z46">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB46">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -5022,7 +5022,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -5031,76 +5031,76 @@
         <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>0.481</v>
+        <v>0.593</v>
       </c>
       <c r="J47">
         <v>240</v>
       </c>
       <c r="K47">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L47">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M47">
-        <v>0.58</v>
+        <v>0.464</v>
       </c>
       <c r="N47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O47">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P47">
-        <v>0.556</v>
+        <v>0.342</v>
       </c>
       <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>0.667</v>
+      </c>
+      <c r="T47">
+        <v>12</v>
+      </c>
+      <c r="U47">
+        <v>35</v>
+      </c>
+      <c r="V47">
+        <v>47</v>
+      </c>
+      <c r="W47">
+        <v>24</v>
+      </c>
+      <c r="X47">
+        <v>9</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47">
+        <v>14</v>
+      </c>
+      <c r="AA47">
         <v>16</v>
       </c>
-      <c r="R47">
-        <v>21</v>
-      </c>
-      <c r="S47">
-        <v>0.762</v>
-      </c>
-      <c r="T47">
-        <v>5</v>
-      </c>
-      <c r="U47">
-        <v>32</v>
-      </c>
-      <c r="V47">
-        <v>37</v>
-      </c>
-      <c r="W47">
-        <v>30</v>
-      </c>
-      <c r="X47">
-        <v>4</v>
-      </c>
-      <c r="Y47">
-        <v>2</v>
-      </c>
-      <c r="Z47">
-        <v>6</v>
-      </c>
-      <c r="AA47">
-        <v>22</v>
-      </c>
       <c r="AB47">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -5108,7 +5108,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -5117,76 +5117,76 @@
         <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>0.462</v>
+        <v>0.615</v>
       </c>
       <c r="J48">
         <v>240</v>
       </c>
       <c r="K48">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M48">
-        <v>0.512</v>
+        <v>0.457</v>
       </c>
       <c r="N48">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O48">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P48">
-        <v>0.4</v>
+        <v>0.364</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R48">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S48">
-        <v>0.9</v>
+        <v>0.704</v>
       </c>
       <c r="T48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U48">
+        <v>27</v>
+      </c>
+      <c r="V48">
         <v>33</v>
       </c>
-      <c r="V48">
-        <v>37</v>
-      </c>
       <c r="W48">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA48">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB48">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -5194,7 +5194,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -5203,76 +5203,76 @@
         <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I49">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="J49">
         <v>240</v>
       </c>
       <c r="K49">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L49">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M49">
-        <v>0.517</v>
+        <v>0.506</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O49">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P49">
-        <v>0.353</v>
+        <v>0.432</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R49">
         <v>30</v>
       </c>
       <c r="S49">
-        <v>0.833</v>
+        <v>0.733</v>
       </c>
       <c r="T49">
         <v>10</v>
       </c>
       <c r="U49">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V49">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="W49">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB49">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -5280,7 +5280,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -5289,76 +5289,76 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I50">
-        <v>0.417</v>
+        <v>0.667</v>
       </c>
       <c r="J50">
         <v>240</v>
       </c>
       <c r="K50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L50">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M50">
-        <v>0.458</v>
+        <v>0.506</v>
       </c>
       <c r="N50">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O50">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P50">
-        <v>0.447</v>
+        <v>0.4</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R50">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S50">
-        <v>0.833</v>
+        <v>0.864</v>
       </c>
       <c r="T50">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U50">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="V50">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W50">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA50">
         <v>19</v>
       </c>
       <c r="AB50">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -5366,7 +5366,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -5375,76 +5375,76 @@
         <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>0.391</v>
+        <v>0.652</v>
       </c>
       <c r="J51">
         <v>240</v>
       </c>
       <c r="K51">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L51">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M51">
-        <v>0.413</v>
+        <v>0.547</v>
       </c>
       <c r="N51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O51">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P51">
-        <v>0.4</v>
+        <v>0.471</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R51">
         <v>23</v>
       </c>
       <c r="S51">
-        <v>0.87</v>
+        <v>0.609</v>
       </c>
       <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>37</v>
+      </c>
+      <c r="V51">
+        <v>43</v>
+      </c>
+      <c r="W51">
+        <v>25</v>
+      </c>
+      <c r="X51">
         <v>10</v>
       </c>
-      <c r="U51">
-        <v>32</v>
-      </c>
-      <c r="V51">
-        <v>42</v>
-      </c>
-      <c r="W51">
-        <v>26</v>
-      </c>
-      <c r="X51">
+      <c r="Y51">
         <v>2</v>
       </c>
-      <c r="Y51">
-        <v>3</v>
-      </c>
       <c r="Z51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA51">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB51">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5452,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -5461,76 +5461,76 @@
         <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I52">
-        <v>0.409</v>
+        <v>0.636</v>
       </c>
       <c r="J52">
         <v>240</v>
       </c>
       <c r="K52">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L52">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M52">
-        <v>0.462</v>
+        <v>0.515</v>
       </c>
       <c r="N52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O52">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P52">
-        <v>0.325</v>
+        <v>0.318</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R52">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S52">
-        <v>0.92</v>
+        <v>0.727</v>
       </c>
       <c r="T52">
         <v>13</v>
       </c>
       <c r="U52">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="V52">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W52">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y52">
         <v>7</v>
       </c>
       <c r="Z52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB52">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5538,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -5547,76 +5547,76 @@
         <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53">
+        <v>13</v>
+      </c>
+      <c r="H53">
         <v>8</v>
       </c>
-      <c r="H53">
-        <v>13</v>
-      </c>
       <c r="I53">
-        <v>0.381</v>
+        <v>0.619</v>
       </c>
       <c r="J53">
         <v>240</v>
       </c>
       <c r="K53">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L53">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="M53">
-        <v>0.43</v>
+        <v>0.471</v>
       </c>
       <c r="N53">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O53">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P53">
-        <v>0.313</v>
+        <v>0.438</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R53">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="S53">
-        <v>0.96</v>
+        <v>0.929</v>
       </c>
       <c r="T53">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U53">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="V53">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="W53">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="X53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y53">
         <v>7</v>
       </c>
       <c r="Z53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA53">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB53">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5624,7 +5624,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -5633,76 +5633,76 @@
         <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
         <v>8</v>
       </c>
-      <c r="H54">
-        <v>12</v>
-      </c>
       <c r="I54">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J54">
         <v>240</v>
       </c>
       <c r="K54">
+        <v>53</v>
+      </c>
+      <c r="L54">
+        <v>96</v>
+      </c>
+      <c r="M54">
+        <v>0.552</v>
+      </c>
+      <c r="N54">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <v>42</v>
+      </c>
+      <c r="P54">
+        <v>0.5</v>
+      </c>
+      <c r="Q54">
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <v>12</v>
+      </c>
+      <c r="S54">
+        <v>0.583</v>
+      </c>
+      <c r="T54">
+        <v>9</v>
+      </c>
+      <c r="U54">
         <v>44</v>
       </c>
-      <c r="L54">
-        <v>83</v>
-      </c>
-      <c r="M54">
-        <v>0.53</v>
-      </c>
-      <c r="N54">
-        <v>9</v>
-      </c>
-      <c r="O54">
-        <v>29</v>
-      </c>
-      <c r="P54">
-        <v>0.31</v>
-      </c>
-      <c r="Q54">
-        <v>8</v>
-      </c>
-      <c r="R54">
-        <v>14</v>
-      </c>
-      <c r="S54">
-        <v>0.571</v>
-      </c>
-      <c r="T54">
-        <v>5</v>
-      </c>
-      <c r="U54">
-        <v>32</v>
-      </c>
       <c r="V54">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="W54">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA54">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB54">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5710,7 +5710,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
@@ -5719,46 +5719,46 @@
         <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
       </c>
       <c r="G55">
+        <v>11</v>
+      </c>
+      <c r="H55">
         <v>8</v>
       </c>
-      <c r="H55">
-        <v>11</v>
-      </c>
       <c r="I55">
-        <v>0.421</v>
+        <v>0.579</v>
       </c>
       <c r="J55">
         <v>240</v>
       </c>
       <c r="K55">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L55">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M55">
-        <v>0.43</v>
+        <v>0.488</v>
       </c>
       <c r="N55">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O55">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P55">
-        <v>0.273</v>
+        <v>0.4</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R55">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S55">
         <v>0.667</v>
@@ -5767,28 +5767,28 @@
         <v>8</v>
       </c>
       <c r="U55">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V55">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W55">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X55">
         <v>6</v>
       </c>
       <c r="Y55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA55">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AB55">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5796,7 +5796,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -5805,76 +5805,76 @@
         <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>0.444</v>
+        <v>0.611</v>
       </c>
       <c r="J56">
         <v>240</v>
       </c>
       <c r="K56">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L56">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M56">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="N56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56">
         <v>35</v>
       </c>
       <c r="P56">
-        <v>0.343</v>
+        <v>0.371</v>
       </c>
       <c r="Q56">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R56">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="S56">
-        <v>0.889</v>
+        <v>0.773</v>
       </c>
       <c r="T56">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U56">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V56">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W56">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA56">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB56">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5882,7 +5882,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
@@ -5891,76 +5891,76 @@
         <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
         <v>6</v>
       </c>
-      <c r="G57">
-        <v>8</v>
-      </c>
-      <c r="H57">
-        <v>9</v>
-      </c>
       <c r="I57">
-        <v>0.471</v>
+        <v>0.647</v>
       </c>
       <c r="J57">
         <v>240</v>
       </c>
       <c r="K57">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L57">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M57">
-        <v>0.488</v>
+        <v>0.43</v>
       </c>
       <c r="N57">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O57">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P57">
-        <v>0.344</v>
+        <v>0.364</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S57">
-        <v>0.833</v>
+        <v>0.731</v>
       </c>
       <c r="T57">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U57">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="V57">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="W57">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA57">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AB57">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5968,7 +5968,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
@@ -5977,76 +5977,76 @@
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
         <v>6</v>
       </c>
-      <c r="G58">
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>8</v>
-      </c>
       <c r="I58">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J58">
         <v>240</v>
       </c>
       <c r="K58">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L58">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M58">
-        <v>0.446</v>
+        <v>0.549</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O58">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P58">
-        <v>0.2</v>
+        <v>0.323</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R58">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S58">
-        <v>0.725</v>
+        <v>0.704</v>
       </c>
       <c r="T58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U58">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="V58">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="W58">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="X58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA58">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AB58">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -6054,7 +6054,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
@@ -6063,76 +6063,76 @@
         <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>0.533</v>
+        <v>0.6</v>
       </c>
       <c r="J59">
         <v>240</v>
       </c>
       <c r="K59">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L59">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M59">
-        <v>0.484</v>
+        <v>0.506</v>
       </c>
       <c r="N59">
+        <v>9</v>
+      </c>
+      <c r="O59">
+        <v>28</v>
+      </c>
+      <c r="P59">
+        <v>0.321</v>
+      </c>
+      <c r="Q59">
+        <v>9</v>
+      </c>
+      <c r="R59">
+        <v>12</v>
+      </c>
+      <c r="S59">
+        <v>0.75</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="U59">
+        <v>41</v>
+      </c>
+      <c r="V59">
+        <v>46</v>
+      </c>
+      <c r="W59">
+        <v>27</v>
+      </c>
+      <c r="X59">
+        <v>5</v>
+      </c>
+      <c r="Y59">
+        <v>5</v>
+      </c>
+      <c r="Z59">
         <v>14</v>
       </c>
-      <c r="O59">
-        <v>39</v>
-      </c>
-      <c r="P59">
-        <v>0.359</v>
-      </c>
-      <c r="Q59">
+      <c r="AA59">
         <v>18</v>
       </c>
-      <c r="R59">
-        <v>20</v>
-      </c>
-      <c r="S59">
-        <v>0.9</v>
-      </c>
-      <c r="T59">
-        <v>7</v>
-      </c>
-      <c r="U59">
-        <v>35</v>
-      </c>
-      <c r="V59">
-        <v>42</v>
-      </c>
-      <c r="W59">
-        <v>23</v>
-      </c>
-      <c r="X59">
-        <v>3</v>
-      </c>
-      <c r="Y59">
-        <v>2</v>
-      </c>
-      <c r="Z59">
-        <v>5</v>
-      </c>
-      <c r="AA59">
-        <v>21</v>
-      </c>
       <c r="AB59">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -6140,7 +6140,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C60" t="s">
         <v>85</v>
@@ -6149,76 +6149,76 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>0.5</v>
+        <v>0.643</v>
       </c>
       <c r="J60">
         <v>240</v>
       </c>
       <c r="K60">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L60">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M60">
-        <v>0.526</v>
+        <v>0.438</v>
       </c>
       <c r="N60">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O60">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P60">
-        <v>0.296</v>
+        <v>0.289</v>
       </c>
       <c r="Q60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R60">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S60">
-        <v>0.824</v>
+        <v>0.833</v>
       </c>
       <c r="T60">
+        <v>11</v>
+      </c>
+      <c r="U60">
+        <v>30</v>
+      </c>
+      <c r="V60">
+        <v>41</v>
+      </c>
+      <c r="W60">
+        <v>21</v>
+      </c>
+      <c r="X60">
         <v>9</v>
       </c>
-      <c r="U60">
-        <v>40</v>
-      </c>
-      <c r="V60">
-        <v>49</v>
-      </c>
-      <c r="W60">
-        <v>32</v>
-      </c>
-      <c r="X60">
-        <v>5</v>
-      </c>
       <c r="Y60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB60">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6226,7 +6226,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
@@ -6235,76 +6235,76 @@
         <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0.462</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J61">
         <v>240</v>
       </c>
       <c r="K61">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L61">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="M61">
+        <v>0.448</v>
+      </c>
+      <c r="N61">
+        <v>14</v>
+      </c>
+      <c r="O61">
+        <v>37</v>
+      </c>
+      <c r="P61">
         <v>0.378</v>
       </c>
-      <c r="N61">
-        <v>9</v>
-      </c>
-      <c r="O61">
-        <v>36</v>
-      </c>
-      <c r="P61">
-        <v>0.25</v>
-      </c>
       <c r="Q61">
+        <v>12</v>
+      </c>
+      <c r="R61">
+        <v>25</v>
+      </c>
+      <c r="S61">
+        <v>0.48</v>
+      </c>
+      <c r="T61">
+        <v>16</v>
+      </c>
+      <c r="U61">
+        <v>41</v>
+      </c>
+      <c r="V61">
+        <v>57</v>
+      </c>
+      <c r="W61">
         <v>22</v>
       </c>
-      <c r="R61">
-        <v>27</v>
-      </c>
-      <c r="S61">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="T61">
-        <v>8</v>
-      </c>
-      <c r="U61">
-        <v>30</v>
-      </c>
-      <c r="V61">
-        <v>38</v>
-      </c>
-      <c r="W61">
-        <v>21</v>
-      </c>
       <c r="X61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z61">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB61">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6312,7 +6312,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
@@ -6321,19 +6321,19 @@
         <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="J62">
         <v>240</v>
@@ -6342,55 +6342,55 @@
         <v>41</v>
       </c>
       <c r="L62">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M62">
-        <v>0.441</v>
+        <v>0.482</v>
       </c>
       <c r="N62">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O62">
+        <v>43</v>
+      </c>
+      <c r="P62">
+        <v>0.442</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>14</v>
+      </c>
+      <c r="S62">
+        <v>0.643</v>
+      </c>
+      <c r="T62">
+        <v>10</v>
+      </c>
+      <c r="U62">
+        <v>38</v>
+      </c>
+      <c r="V62">
+        <v>48</v>
+      </c>
+      <c r="W62">
         <v>31</v>
       </c>
-      <c r="P62">
-        <v>0.258</v>
-      </c>
-      <c r="Q62">
-        <v>11</v>
-      </c>
-      <c r="R62">
-        <v>19</v>
-      </c>
-      <c r="S62">
-        <v>0.579</v>
-      </c>
-      <c r="T62">
-        <v>12</v>
-      </c>
-      <c r="U62">
-        <v>35</v>
-      </c>
-      <c r="V62">
-        <v>47</v>
-      </c>
-      <c r="W62">
-        <v>18</v>
-      </c>
       <c r="X62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y62">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA62">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB62">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6398,7 +6398,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C63" t="s">
         <v>88</v>
@@ -6407,76 +6407,76 @@
         <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0.545</v>
+        <v>0.636</v>
       </c>
       <c r="J63">
         <v>240</v>
       </c>
       <c r="K63">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L63">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M63">
-        <v>0.464</v>
+        <v>0.505</v>
       </c>
       <c r="N63">
         <v>13</v>
       </c>
       <c r="O63">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P63">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="Q63">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R63">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S63">
-        <v>0.462</v>
+        <v>0.8</v>
       </c>
       <c r="T63">
         <v>11</v>
       </c>
       <c r="U63">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="V63">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="W63">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X63">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z63">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA63">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB63">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6484,7 +6484,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C64" t="s">
         <v>89</v>
@@ -6511,58 +6511,58 @@
         <v>240</v>
       </c>
       <c r="K64">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L64">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M64">
-        <v>0.417</v>
+        <v>0.44</v>
       </c>
       <c r="N64">
+        <v>12</v>
+      </c>
+      <c r="O64">
+        <v>36</v>
+      </c>
+      <c r="P64">
+        <v>0.333</v>
+      </c>
+      <c r="Q64">
+        <v>14</v>
+      </c>
+      <c r="R64">
+        <v>18</v>
+      </c>
+      <c r="S64">
+        <v>0.778</v>
+      </c>
+      <c r="T64">
+        <v>11</v>
+      </c>
+      <c r="U64">
+        <v>34</v>
+      </c>
+      <c r="V64">
+        <v>45</v>
+      </c>
+      <c r="W64">
+        <v>25</v>
+      </c>
+      <c r="X64">
+        <v>11</v>
+      </c>
+      <c r="Y64">
+        <v>4</v>
+      </c>
+      <c r="Z64">
         <v>15</v>
       </c>
-      <c r="O64">
-        <v>46</v>
-      </c>
-      <c r="P64">
-        <v>0.326</v>
-      </c>
-      <c r="Q64">
-        <v>9</v>
-      </c>
-      <c r="R64">
-        <v>16</v>
-      </c>
-      <c r="S64">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="T64">
-        <v>13</v>
-      </c>
-      <c r="U64">
-        <v>41</v>
-      </c>
-      <c r="V64">
-        <v>54</v>
-      </c>
-      <c r="W64">
-        <v>22</v>
-      </c>
-      <c r="X64">
-        <v>8</v>
-      </c>
-      <c r="Y64">
-        <v>12</v>
-      </c>
-      <c r="Z64">
-        <v>10</v>
-      </c>
       <c r="AA64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB64">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6570,7 +6570,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C65" t="s">
         <v>90</v>
@@ -6582,7 +6582,7 @@
         <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -6597,58 +6597,58 @@
         <v>240</v>
       </c>
       <c r="K65">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L65">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M65">
-        <v>0.494</v>
+        <v>0.449</v>
       </c>
       <c r="N65">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O65">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="Q65">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R65">
+        <v>21</v>
+      </c>
+      <c r="S65">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="T65">
+        <v>9</v>
+      </c>
+      <c r="U65">
+        <v>36</v>
+      </c>
+      <c r="V65">
+        <v>45</v>
+      </c>
+      <c r="W65">
         <v>18</v>
       </c>
-      <c r="S65">
-        <v>0.778</v>
-      </c>
-      <c r="T65">
-        <v>6</v>
-      </c>
-      <c r="U65">
-        <v>38</v>
-      </c>
-      <c r="V65">
-        <v>44</v>
-      </c>
-      <c r="W65">
-        <v>25</v>
-      </c>
       <c r="X65">
         <v>5</v>
       </c>
       <c r="Y65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB65">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6656,7 +6656,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C66" t="s">
         <v>91</v>
@@ -6665,76 +6665,76 @@
         <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>0.625</v>
+      </c>
+      <c r="J66">
+        <v>240</v>
+      </c>
+      <c r="K66">
+        <v>49</v>
+      </c>
+      <c r="L66">
+        <v>90</v>
+      </c>
+      <c r="M66">
+        <v>0.544</v>
+      </c>
+      <c r="N66">
+        <v>19</v>
+      </c>
+      <c r="O66">
+        <v>43</v>
+      </c>
+      <c r="P66">
+        <v>0.442</v>
+      </c>
+      <c r="Q66">
+        <v>13</v>
+      </c>
+      <c r="R66">
+        <v>21</v>
+      </c>
+      <c r="S66">
+        <v>0.619</v>
+      </c>
+      <c r="T66">
+        <v>9</v>
+      </c>
+      <c r="U66">
+        <v>38</v>
+      </c>
+      <c r="V66">
+        <v>47</v>
+      </c>
+      <c r="W66">
+        <v>35</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
         <v>4</v>
       </c>
-      <c r="H66">
-        <v>4</v>
-      </c>
-      <c r="I66">
-        <v>0.5</v>
-      </c>
-      <c r="J66">
-        <v>265</v>
-      </c>
-      <c r="K66">
-        <v>42</v>
-      </c>
-      <c r="L66">
-        <v>87</v>
-      </c>
-      <c r="M66">
-        <v>0.483</v>
-      </c>
-      <c r="N66">
-        <v>16</v>
-      </c>
-      <c r="O66">
-        <v>40</v>
-      </c>
-      <c r="P66">
-        <v>0.4</v>
-      </c>
-      <c r="Q66">
-        <v>24</v>
-      </c>
-      <c r="R66">
-        <v>31</v>
-      </c>
-      <c r="S66">
-        <v>0.774</v>
-      </c>
-      <c r="T66">
-        <v>7</v>
-      </c>
-      <c r="U66">
-        <v>37</v>
-      </c>
-      <c r="V66">
-        <v>44</v>
-      </c>
-      <c r="W66">
-        <v>27</v>
-      </c>
-      <c r="X66">
-        <v>12</v>
-      </c>
-      <c r="Y66">
-        <v>7</v>
-      </c>
       <c r="Z66">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA66">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB66">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6742,7 +6742,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
@@ -6751,76 +6751,76 @@
         <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
       </c>
       <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
         <v>3</v>
       </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
       <c r="I67">
-        <v>0.429</v>
+        <v>0.571</v>
       </c>
       <c r="J67">
         <v>240</v>
       </c>
       <c r="K67">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L67">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M67">
-        <v>0.476</v>
+        <v>0.576</v>
       </c>
       <c r="N67">
+        <v>14</v>
+      </c>
+      <c r="O67">
+        <v>34</v>
+      </c>
+      <c r="P67">
+        <v>0.412</v>
+      </c>
+      <c r="Q67">
+        <v>13</v>
+      </c>
+      <c r="R67">
         <v>16</v>
       </c>
-      <c r="O67">
-        <v>39</v>
-      </c>
-      <c r="P67">
-        <v>0.41</v>
-      </c>
-      <c r="Q67">
+      <c r="S67">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="T67">
+        <v>7</v>
+      </c>
+      <c r="U67">
+        <v>42</v>
+      </c>
+      <c r="V67">
+        <v>49</v>
+      </c>
+      <c r="W67">
+        <v>32</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>4</v>
+      </c>
+      <c r="Z67">
         <v>19</v>
       </c>
-      <c r="R67">
-        <v>20</v>
-      </c>
-      <c r="S67">
-        <v>0.95</v>
-      </c>
-      <c r="T67">
-        <v>10</v>
-      </c>
-      <c r="U67">
-        <v>41</v>
-      </c>
-      <c r="V67">
-        <v>51</v>
-      </c>
-      <c r="W67">
-        <v>24</v>
-      </c>
-      <c r="X67">
-        <v>4</v>
-      </c>
-      <c r="Y67">
-        <v>3</v>
-      </c>
-      <c r="Z67">
-        <v>15</v>
-      </c>
       <c r="AA67">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AB67">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6828,7 +6828,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C68" t="s">
         <v>93</v>
@@ -6837,76 +6837,76 @@
         <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="J68">
         <v>240</v>
       </c>
       <c r="K68">
+        <v>42</v>
+      </c>
+      <c r="L68">
+        <v>85</v>
+      </c>
+      <c r="M68">
+        <v>0.494</v>
+      </c>
+      <c r="N68">
+        <v>22</v>
+      </c>
+      <c r="O68">
+        <v>45</v>
+      </c>
+      <c r="P68">
+        <v>0.489</v>
+      </c>
+      <c r="Q68">
+        <v>20</v>
+      </c>
+      <c r="R68">
+        <v>30</v>
+      </c>
+      <c r="S68">
+        <v>0.667</v>
+      </c>
+      <c r="T68">
+        <v>5</v>
+      </c>
+      <c r="U68">
         <v>39</v>
       </c>
-      <c r="L68">
-        <v>89</v>
-      </c>
-      <c r="M68">
-        <v>0.438</v>
-      </c>
-      <c r="N68">
-        <v>11</v>
-      </c>
-      <c r="O68">
-        <v>42</v>
-      </c>
-      <c r="P68">
-        <v>0.262</v>
-      </c>
-      <c r="Q68">
+      <c r="V68">
+        <v>44</v>
+      </c>
+      <c r="W68">
+        <v>27</v>
+      </c>
+      <c r="X68">
+        <v>16</v>
+      </c>
+      <c r="Y68">
+        <v>6</v>
+      </c>
+      <c r="Z68">
+        <v>17</v>
+      </c>
+      <c r="AA68">
         <v>19</v>
       </c>
-      <c r="R68">
-        <v>27</v>
-      </c>
-      <c r="S68">
-        <v>0.704</v>
-      </c>
-      <c r="T68">
-        <v>11</v>
-      </c>
-      <c r="U68">
-        <v>30</v>
-      </c>
-      <c r="V68">
-        <v>41</v>
-      </c>
-      <c r="W68">
-        <v>23</v>
-      </c>
-      <c r="X68">
-        <v>6</v>
-      </c>
-      <c r="Y68">
-        <v>4</v>
-      </c>
-      <c r="Z68">
-        <v>15</v>
-      </c>
-      <c r="AA68">
-        <v>27</v>
-      </c>
       <c r="AB68">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6914,7 +6914,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -6923,10 +6923,10 @@
         <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6941,58 +6941,58 @@
         <v>240</v>
       </c>
       <c r="K69">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L69">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M69">
-        <v>0.41</v>
+        <v>0.392</v>
       </c>
       <c r="N69">
+        <v>16</v>
+      </c>
+      <c r="O69">
+        <v>41</v>
+      </c>
+      <c r="P69">
+        <v>0.39</v>
+      </c>
+      <c r="Q69">
         <v>12</v>
       </c>
-      <c r="O69">
-        <v>37</v>
-      </c>
-      <c r="P69">
-        <v>0.324</v>
-      </c>
-      <c r="Q69">
-        <v>17</v>
-      </c>
       <c r="R69">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S69">
-        <v>0.739</v>
+        <v>0.923</v>
       </c>
       <c r="T69">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="U69">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="V69">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W69">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X69">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA69">
         <v>25</v>
       </c>
       <c r="AB69">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -7000,7 +7000,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C70" t="s">
         <v>95</v>
@@ -7012,73 +7012,73 @@
         <v>225</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J70">
         <v>240</v>
       </c>
       <c r="K70">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L70">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M70">
-        <v>0.391</v>
+        <v>0.554</v>
       </c>
       <c r="N70">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="O70">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P70">
-        <v>0.286</v>
+        <v>0.569</v>
       </c>
       <c r="Q70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R70">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="S70">
-        <v>0.576</v>
+        <v>0.867</v>
       </c>
       <c r="T70">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U70">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="V70">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="W70">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="X70">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z70">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA70">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB70">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -7086,7 +7086,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
@@ -7098,7 +7098,7 @@
         <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7113,58 +7113,58 @@
         <v>240</v>
       </c>
       <c r="K71">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L71">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M71">
-        <v>0.494</v>
+        <v>0.432</v>
       </c>
       <c r="N71">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P71">
-        <v>0.341</v>
+        <v>0.184</v>
       </c>
       <c r="Q71">
+        <v>21</v>
+      </c>
+      <c r="R71">
+        <v>29</v>
+      </c>
+      <c r="S71">
+        <v>0.724</v>
+      </c>
+      <c r="T71">
+        <v>17</v>
+      </c>
+      <c r="U71">
+        <v>27</v>
+      </c>
+      <c r="V71">
+        <v>44</v>
+      </c>
+      <c r="W71">
         <v>24</v>
       </c>
-      <c r="R71">
-        <v>27</v>
-      </c>
-      <c r="S71">
-        <v>0.889</v>
-      </c>
-      <c r="T71">
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>5</v>
+      </c>
+      <c r="Z71">
         <v>11</v>
       </c>
-      <c r="U71">
-        <v>43</v>
-      </c>
-      <c r="V71">
-        <v>54</v>
-      </c>
-      <c r="W71">
-        <v>25</v>
-      </c>
-      <c r="X71">
-        <v>10</v>
-      </c>
-      <c r="Y71">
-        <v>2</v>
-      </c>
-      <c r="Z71">
-        <v>6</v>
-      </c>
       <c r="AA71">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AB71">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -7172,7 +7172,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C72" t="s">
         <v>97</v>
@@ -7184,73 +7184,73 @@
         <v>227</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J72">
         <v>240</v>
       </c>
       <c r="K72">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L72">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M72">
-        <v>0.494</v>
+        <v>0.556</v>
       </c>
       <c r="N72">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O72">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P72">
-        <v>0.406</v>
+        <v>0.556</v>
       </c>
       <c r="Q72">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R72">
         <v>26</v>
       </c>
       <c r="S72">
-        <v>0.769</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U72">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="V72">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="W72">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X72">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Y72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z72">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA72">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB72">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7258,7 +7258,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="C73" t="s">
         <v>98</v>
@@ -7285,58 +7285,58 @@
         <v>240</v>
       </c>
       <c r="K73">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L73">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M73">
-        <v>0.424</v>
+        <v>0.511</v>
       </c>
       <c r="N73">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O73">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P73">
-        <v>0.243</v>
+        <v>0.4</v>
       </c>
       <c r="Q73">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R73">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S73">
-        <v>0.8080000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="T73">
+        <v>11</v>
+      </c>
+      <c r="U73">
+        <v>41</v>
+      </c>
+      <c r="V73">
+        <v>52</v>
+      </c>
+      <c r="W73">
+        <v>19</v>
+      </c>
+      <c r="X73">
+        <v>4</v>
+      </c>
+      <c r="Y73">
         <v>6</v>
       </c>
-      <c r="U73">
-        <v>33</v>
-      </c>
-      <c r="V73">
-        <v>39</v>
-      </c>
-      <c r="W73">
-        <v>17</v>
-      </c>
-      <c r="X73">
-        <v>6</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
       <c r="Z73">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA73">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB73">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
